--- a/Data/cleaned/Service_filled.xlsx
+++ b/Data/cleaned/Service_filled.xlsx
@@ -548,7 +548,7 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>64.685517804376</v>
+        <v>64.68551780437602</v>
       </c>
       <c r="C2">
         <v>-3259469531.92838</v>
@@ -590,7 +590,7 @@
         <v>0.585094712</v>
       </c>
       <c r="P2">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q2">
         <v>12.66797057532169</v>
@@ -646,7 +646,7 @@
         <v>1.097203891</v>
       </c>
       <c r="P3">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q3">
         <v>12.66797057532169</v>
@@ -702,7 +702,7 @@
         <v>1.768764913</v>
       </c>
       <c r="P4">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q4">
         <v>12.66797057532169</v>
@@ -758,7 +758,7 @@
         <v>1.974611016</v>
       </c>
       <c r="P5">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q5">
         <v>12.66797057532169</v>
@@ -814,7 +814,7 @@
         <v>2.232101254</v>
       </c>
       <c r="P6">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q6">
         <v>12.66797057532169</v>
@@ -926,7 +926,7 @@
         <v>3.27524987</v>
       </c>
       <c r="P8">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q8">
         <v>12.66797057532169</v>
@@ -982,7 +982,7 @@
         <v>16.36935838</v>
       </c>
       <c r="P9">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q9">
         <v>12.66797057532169</v>
@@ -1011,7 +1011,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G10">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H10">
         <v>66.6763867109205</v>
@@ -1038,7 +1038,7 @@
         <v>30.81323944</v>
       </c>
       <c r="P10">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q10">
         <v>12.66797057532169</v>
@@ -1067,7 +1067,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G11">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H11">
         <v>66.7481948496784</v>
@@ -1094,7 +1094,7 @@
         <v>40.7837839</v>
       </c>
       <c r="P11">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q11">
         <v>12.66797057532169</v>
@@ -1123,7 +1123,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G12">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H12">
         <v>66.79390299762041</v>
@@ -1150,7 +1150,7 @@
         <v>46.75611561</v>
       </c>
       <c r="P12">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q12">
         <v>12.66797057532169</v>
@@ -1179,7 +1179,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G13">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H13">
         <v>66.92790582720041</v>
@@ -1235,7 +1235,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G14">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H14">
         <v>67.048065888962</v>
@@ -1259,10 +1259,10 @@
         <v>298713897028.0452</v>
       </c>
       <c r="O14">
-        <v>52.53075723460714</v>
+        <v>52.53075723460713</v>
       </c>
       <c r="P14">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q14">
         <v>12.66797057532169</v>
@@ -1291,7 +1291,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G15">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H15">
         <v>67.1532028418431</v>
@@ -1315,7 +1315,7 @@
         <v>355822947000.5824</v>
       </c>
       <c r="O15">
-        <v>52.53075723460714</v>
+        <v>52.53075723460713</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G16">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H16">
         <v>67.24543778413791</v>
@@ -1371,7 +1371,7 @@
         <v>464301465357.8034</v>
       </c>
       <c r="O16">
-        <v>52.53075723460714</v>
+        <v>52.53075723460713</v>
       </c>
       <c r="P16">
         <v>0.7</v>
@@ -1403,7 +1403,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G17">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H17">
         <v>67.31412183438439</v>
@@ -1430,7 +1430,7 @@
         <v>63</v>
       </c>
       <c r="P17">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q17">
         <v>12.66797057532169</v>
@@ -1459,7 +1459,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G18">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H18">
         <v>67.4830971753657</v>
@@ -1486,7 +1486,7 @@
         <v>66</v>
       </c>
       <c r="P18">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q18">
         <v>9.576172944440501</v>
@@ -1515,7 +1515,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G19">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H19">
         <v>67.6174574294628</v>
@@ -1542,7 +1542,7 @@
         <v>69.45</v>
       </c>
       <c r="P19">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q19">
         <v>11.1792195663822</v>
@@ -1571,7 +1571,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G20">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H20">
         <v>67.68373866424611</v>
@@ -1627,7 +1627,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G21">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H21">
         <v>67.67151777187939</v>
@@ -1654,7 +1654,7 @@
         <v>74.25</v>
       </c>
       <c r="P21">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q21">
         <v>9.94359123987344</v>
@@ -1683,7 +1683,7 @@
         <v>1402.793695462231</v>
       </c>
       <c r="G22">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H22">
         <v>67.5911079551186</v>
@@ -1739,7 +1739,7 @@
         <v>2171.394265288166</v>
       </c>
       <c r="G23">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H23">
         <v>67.3338287632519</v>
@@ -1766,7 +1766,7 @@
         <v>79.48769771000001</v>
       </c>
       <c r="P23">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q23">
         <v>11.084671761689</v>
@@ -1795,7 +1795,7 @@
         <v>3187.899424922686</v>
       </c>
       <c r="G24">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H24">
         <v>67.0838407422162</v>
@@ -1822,7 +1822,7 @@
         <v>79</v>
       </c>
       <c r="P24">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q24">
         <v>12.0807337158743</v>
@@ -1851,7 +1851,7 @@
         <v>3505.125728069054</v>
       </c>
       <c r="G25">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H25">
         <v>66.8267948368588</v>
@@ -1878,7 +1878,7 @@
         <v>83.45349717000001</v>
       </c>
       <c r="P25">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q25">
         <v>13.060156690824</v>
@@ -1907,7 +1907,7 @@
         <v>3938.585649850658</v>
       </c>
       <c r="G26">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H26">
         <v>66.55144440530481</v>
@@ -1990,7 +1990,7 @@
         <v>84.56051490999999</v>
       </c>
       <c r="P27">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q27">
         <v>15.2739408215988</v>
@@ -2102,7 +2102,7 @@
         <v>86.54504885</v>
       </c>
       <c r="P29">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q29">
         <v>15.4478731355018</v>
@@ -2214,7 +2214,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="P31">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q31">
         <v>13.5899134759266</v>
@@ -2228,7 +2228,7 @@
         <v>2020</v>
       </c>
       <c r="B32">
-        <v>64.685517804376</v>
+        <v>64.68551780437602</v>
       </c>
       <c r="C32">
         <v>50671323088.0398</v>
@@ -2270,7 +2270,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="P32">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q32">
         <v>14.2723975813457</v>
@@ -2284,7 +2284,7 @@
         <v>2021</v>
       </c>
       <c r="B33">
-        <v>64.685517804376</v>
+        <v>64.68551780437602</v>
       </c>
       <c r="C33">
         <v>93062184236.0901</v>
@@ -2299,7 +2299,7 @@
         <v>14504.70077083616</v>
       </c>
       <c r="G33">
-        <v>83.1306432996478</v>
+        <v>83.13064329964782</v>
       </c>
       <c r="H33">
         <v>64.17425944370331</v>
@@ -2323,10 +2323,10 @@
         <v>1127328158817.822</v>
       </c>
       <c r="O33">
-        <v>52.53075723460714</v>
+        <v>52.53075723460713</v>
       </c>
       <c r="P33">
-        <v>0.588888888888889</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="Q33">
         <v>12.66797057532169</v>
@@ -6207,7 +6207,7 @@
         <v>9028.016417512466</v>
       </c>
       <c r="G2">
-        <v>63.69742727279663</v>
+        <v>63.69742727279664</v>
       </c>
       <c r="H2">
         <v>67.75619383813979</v>
@@ -6443,7 +6443,7 @@
         <v>9028.016417512466</v>
       </c>
       <c r="G6">
-        <v>63.69742727279663</v>
+        <v>63.69742727279664</v>
       </c>
       <c r="H6">
         <v>68.4899967691138</v>
@@ -6561,7 +6561,7 @@
         <v>9028.016417512466</v>
       </c>
       <c r="G8">
-        <v>63.69742727279663</v>
+        <v>63.69742727279664</v>
       </c>
       <c r="H8">
         <v>68.8671682665118</v>
@@ -6620,7 +6620,7 @@
         <v>9028.016417512466</v>
       </c>
       <c r="G9">
-        <v>63.69742727279663</v>
+        <v>63.69742727279664</v>
       </c>
       <c r="H9">
         <v>69.04442219253301</v>
@@ -6679,7 +6679,7 @@
         <v>9028.016417512466</v>
       </c>
       <c r="G10">
-        <v>63.69742727279663</v>
+        <v>63.69742727279664</v>
       </c>
       <c r="H10">
         <v>69.2065015293815</v>
@@ -6738,7 +6738,7 @@
         <v>9028.016417512466</v>
       </c>
       <c r="G11">
-        <v>63.69742727279663</v>
+        <v>63.69742727279664</v>
       </c>
       <c r="H11">
         <v>69.3303408825163</v>
@@ -13485,7 +13485,7 @@
         <v>123653222075</v>
       </c>
       <c r="O2">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P2">
         <v>21.61615820445161</v>
@@ -13494,7 +13494,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R2">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S2">
         <v>22.30837564817022</v>
@@ -13544,7 +13544,7 @@
         <v>130087310746.0317</v>
       </c>
       <c r="O3">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P3">
         <v>21.61615820445161</v>
@@ -13553,7 +13553,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R3">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S3">
         <v>22.71406745641086</v>
@@ -13603,7 +13603,7 @@
         <v>136520728389.313</v>
       </c>
       <c r="O4">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P4">
         <v>21.61615820445161</v>
@@ -13612,7 +13612,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R4">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S4">
         <v>22.59369102710226</v>
@@ -13662,7 +13662,7 @@
         <v>155601619157.0881</v>
       </c>
       <c r="O5">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P5">
         <v>21.61615820445161</v>
@@ -13671,7 +13671,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R5">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S5">
         <v>23.2032539894927</v>
@@ -13721,7 +13721,7 @@
         <v>170951622053.5714</v>
       </c>
       <c r="O6">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P6">
         <v>21.61615820445161</v>
@@ -13730,7 +13730,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R6">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S6">
         <v>25.52931556625333</v>
@@ -13780,7 +13780,7 @@
         <v>201386487316.3265</v>
       </c>
       <c r="O7">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P7">
         <v>21.61615820445161</v>
@@ -13789,7 +13789,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R7">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S7">
         <v>29.35332018542419</v>
@@ -13839,7 +13839,7 @@
         <v>195096310628.9855</v>
       </c>
       <c r="O8">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P8">
         <v>21.61615820445161</v>
@@ -13848,7 +13848,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R8">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S8">
         <v>29.84707434646617</v>
@@ -13898,7 +13898,7 @@
         <v>171379431058.296</v>
       </c>
       <c r="O9">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P9">
         <v>21.61615820445161</v>
@@ -13907,7 +13907,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R9">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S9">
         <v>30.36075740362833</v>
@@ -13957,7 +13957,7 @@
         <v>194019938701.6461</v>
       </c>
       <c r="O10">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P10">
         <v>21.61615820445161</v>
@@ -13966,7 +13966,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R10">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S10">
         <v>31.23777118769934</v>
@@ -14025,7 +14025,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R11">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S11">
         <v>32.8924312398331</v>
@@ -14084,7 +14084,7 @@
         <v>72</v>
       </c>
       <c r="R12">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S12">
         <v>32.38277311021145</v>
@@ -14143,7 +14143,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R13">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S13">
         <v>34.478536877422</v>
@@ -14202,7 +14202,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R14">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S14">
         <v>35.55580571533227</v>
@@ -14261,7 +14261,7 @@
         <v>62.7</v>
       </c>
       <c r="R15">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S15">
         <v>34.51599613052345</v>
@@ -14320,7 +14320,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R16">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S16">
         <v>34.36265612039433</v>
@@ -14379,7 +14379,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R17">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S17">
         <v>33.65293801156184</v>
@@ -14438,7 +14438,7 @@
         <v>48.1</v>
       </c>
       <c r="R18">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S18">
         <v>33.57027126834449</v>
@@ -14497,7 +14497,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R19">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S19">
         <v>35.00567727061917</v>
@@ -14547,7 +14547,7 @@
         <v>622070287434.6245</v>
       </c>
       <c r="O20">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P20">
         <v>0.168540297</v>
@@ -14556,7 +14556,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R20">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S20">
         <v>37.04332902280985</v>
@@ -14606,7 +14606,7 @@
         <v>684528395141.5145</v>
       </c>
       <c r="O21">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P21">
         <v>0.708187957</v>
@@ -14615,7 +14615,7 @@
         <v>46</v>
       </c>
       <c r="R21">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S21">
         <v>38.57534808943312</v>
@@ -14665,7 +14665,7 @@
         <v>770062753780.924</v>
       </c>
       <c r="O22">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P22">
         <v>1.775913207</v>
@@ -14674,7 +14674,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R22">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S22">
         <v>39.78765516702887</v>
@@ -14724,7 +14724,7 @@
         <v>829531285836.8268</v>
       </c>
       <c r="O23">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P23">
         <v>2.639650215</v>
@@ -14733,7 +14733,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R23">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S23">
         <v>41.22312630868009</v>
@@ -14783,7 +14783,7 @@
         <v>896792033864.927</v>
       </c>
       <c r="O24">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P24">
         <v>4.595704331</v>
@@ -14792,7 +14792,7 @@
         <v>36.5</v>
       </c>
       <c r="R24">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S24">
         <v>42.24794475438896</v>
@@ -14842,7 +14842,7 @@
         <v>963332189029.8418</v>
       </c>
       <c r="O25">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P25">
         <v>6.2</v>
@@ -14851,7 +14851,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R25">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S25">
         <v>42.0282161856089</v>
@@ -14901,7 +14901,7 @@
         <v>1080060319096.752</v>
       </c>
       <c r="O26">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P26">
         <v>7.3</v>
@@ -14910,7 +14910,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R26">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S26">
         <v>41.18314016648829</v>
@@ -14960,7 +14960,7 @@
         <v>1243212055648.438</v>
       </c>
       <c r="O27">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P27">
         <v>8.523257002999999</v>
@@ -14969,7 +14969,7 @@
         <v>22.1</v>
       </c>
       <c r="R27">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S27">
         <v>41.33592591678994</v>
@@ -15028,7 +15028,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R28">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S28">
         <v>41.81684190683736</v>
@@ -15087,7 +15087,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R29">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S29">
         <v>42.86966500939599</v>
@@ -15146,7 +15146,7 @@
         <v>18</v>
       </c>
       <c r="R30">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S30">
         <v>42.85977979077759</v>
@@ -15205,7 +15205,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R31">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S31">
         <v>44.40666719932563</v>
@@ -15255,7 +15255,7 @@
         <v>2977436481204.673</v>
       </c>
       <c r="O32">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P32">
         <v>34.3</v>
@@ -15314,7 +15314,7 @@
         <v>3787779094482.705</v>
       </c>
       <c r="O33">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P33">
         <v>38.3</v>
@@ -15373,7 +15373,7 @@
         <v>4363605388162.793</v>
       </c>
       <c r="O34">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P34">
         <v>42.30011749</v>
@@ -15432,7 +15432,7 @@
         <v>4949541062235.708</v>
       </c>
       <c r="O35">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P35">
         <v>45.8</v>
@@ -15491,7 +15491,7 @@
         <v>5502346484031.644</v>
       </c>
       <c r="O36">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P36">
         <v>47.9</v>
@@ -15550,7 +15550,7 @@
         <v>5972231003034.926</v>
       </c>
       <c r="O37">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P37">
         <v>50.3</v>
@@ -15609,7 +15609,7 @@
         <v>6182653587041.914</v>
       </c>
       <c r="O38">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P38">
         <v>53.2</v>
@@ -15668,7 +15668,7 @@
         <v>6754427210155.649</v>
       </c>
       <c r="O39">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P39">
         <v>54.3</v>
@@ -15727,7 +15727,7 @@
         <v>7650165414268.44</v>
       </c>
       <c r="O40">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P40">
         <v>59.2</v>
@@ -15786,7 +15786,7 @@
         <v>7999417219167.969</v>
       </c>
       <c r="O41">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P41">
         <v>64.10983774</v>
@@ -15845,7 +15845,7 @@
         <v>8126754869000.695</v>
       </c>
       <c r="O42">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P42">
         <v>70.40477542000001</v>
@@ -15871,7 +15871,7 @@
         <v>462807887089.71</v>
       </c>
       <c r="D43">
-        <v>2.628591361258872</v>
+        <v>2.628591361258873</v>
       </c>
       <c r="E43">
         <v>454580388.7317073</v>
@@ -15886,7 +15886,7 @@
         <v>69.99140475588121</v>
       </c>
       <c r="I43">
-        <v>130.8959032471245</v>
+        <v>130.8959032471246</v>
       </c>
       <c r="J43">
         <v>99.07662346249535</v>
@@ -15904,7 +15904,7 @@
         <v>2048614462650.429</v>
       </c>
       <c r="O43">
-        <v>98.00826439490682</v>
+        <v>98.00826439490683</v>
       </c>
       <c r="P43">
         <v>21.61615820445161</v>
@@ -15913,7 +15913,7 @@
         <v>20.36470588235294</v>
       </c>
       <c r="R43">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="S43">
         <v>53.30909789775842</v>
@@ -35642,7 +35642,7 @@
         <v>163030988939.2864</v>
       </c>
       <c r="O2">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P2">
         <v>7.165807649483871</v>
@@ -35701,7 +35701,7 @@
         <v>165954198994.3333</v>
       </c>
       <c r="O3">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P3">
         <v>7.165807649483871</v>
@@ -35760,7 +35760,7 @@
         <v>171249039435.8298</v>
       </c>
       <c r="O4">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P4">
         <v>7.165807649483871</v>
@@ -35819,7 +35819,7 @@
         <v>186910754482.5981</v>
       </c>
       <c r="O5">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P5">
         <v>7.165807649483871</v>
@@ -35878,7 +35878,7 @@
         <v>180250751261.904</v>
       </c>
       <c r="O6">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P6">
         <v>7.165807649483871</v>
@@ -35937,7 +35937,7 @@
         <v>195098643412.8165</v>
       </c>
       <c r="O7">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P7">
         <v>7.165807649483871</v>
@@ -35996,7 +35996,7 @@
         <v>210914482587.1036</v>
       </c>
       <c r="O8">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P8">
         <v>7.165807649483871</v>
@@ -36173,7 +36173,7 @@
         <v>236049824184.9913</v>
       </c>
       <c r="O11">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P11">
         <v>7.165807649483871</v>
@@ -36232,7 +36232,7 @@
         <v>251521172783.2409</v>
       </c>
       <c r="O12">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>210943629036.7313</v>
       </c>
       <c r="O13">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -36350,7 +36350,7 @@
         <v>220938810649.2297</v>
       </c>
       <c r="O14">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P14">
         <v>0.000111308</v>
@@ -36409,7 +36409,7 @@
         <v>213533601508.7217</v>
       </c>
       <c r="O15">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P15">
         <v>0.000218176</v>
@@ -36468,7 +36468,7 @@
         <v>246362106616.0897</v>
       </c>
       <c r="O16">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P16">
         <v>0.001069562</v>
@@ -36586,7 +36586,7 @@
         <v>294225311846.4936</v>
       </c>
       <c r="O18">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P18">
         <v>0.046333977</v>
@@ -36645,7 +36645,7 @@
         <v>311653617466.3535</v>
       </c>
       <c r="O19">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P19">
         <v>0.07076784899999999</v>
@@ -36704,7 +36704,7 @@
         <v>319041539947.9818</v>
       </c>
       <c r="O20">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P20">
         <v>0.139027329</v>
@@ -37058,7 +37058,7 @@
         <v>487583927750.5018</v>
       </c>
       <c r="O26">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P26">
         <v>1.976136492</v>
@@ -37117,7 +37117,7 @@
         <v>555766446476.0038</v>
       </c>
       <c r="O27">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P27">
         <v>2.388075</v>
@@ -37176,7 +37176,7 @@
         <v>619748008187.9358</v>
       </c>
       <c r="O28">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P28">
         <v>2.805499865</v>
@@ -37235,7 +37235,7 @@
         <v>798453757984.8339</v>
       </c>
       <c r="O29">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P29">
         <v>3.95</v>
@@ -37412,7 +37412,7 @@
         <v>1101423274556.54</v>
       </c>
       <c r="O32">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P32">
         <v>7.5</v>
@@ -37530,7 +37530,7 @@
         <v>1227163968391.317</v>
       </c>
       <c r="O34">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P34">
         <v>11.1</v>
@@ -37884,7 +37884,7 @@
         <v>1895065687252.674</v>
       </c>
       <c r="O40">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P40">
         <v>20.08130004</v>
@@ -38061,7 +38061,7 @@
         <v>2242837269709.354</v>
       </c>
       <c r="O43">
-        <v>84.35261535644531</v>
+        <v>84.3526153564453</v>
       </c>
       <c r="P43">
         <v>7.165807649483871</v>
@@ -46307,7 +46307,7 @@
         <v>0.4</v>
       </c>
       <c r="R2">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S2">
         <v>62.93174163037728</v>
@@ -46366,7 +46366,7 @@
         <v>0.4</v>
       </c>
       <c r="R3">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S3">
         <v>63.21285779605014</v>
@@ -46425,7 +46425,7 @@
         <v>0.4</v>
       </c>
       <c r="R4">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S4">
         <v>63.17784622922347</v>
@@ -46484,7 +46484,7 @@
         <v>0.4</v>
       </c>
       <c r="R5">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S5">
         <v>64.17246838994498</v>
@@ -46543,7 +46543,7 @@
         <v>0.4</v>
       </c>
       <c r="R6">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S6">
         <v>64.90407968426315</v>
@@ -46602,7 +46602,7 @@
         <v>0.4</v>
       </c>
       <c r="R7">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S7">
         <v>65.81276456014629</v>
@@ -46661,7 +46661,7 @@
         <v>0.4</v>
       </c>
       <c r="R8">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S8">
         <v>66.02064145432622</v>
@@ -46720,7 +46720,7 @@
         <v>0.4</v>
       </c>
       <c r="R9">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S9">
         <v>67.06628127810217</v>
@@ -46779,7 +46779,7 @@
         <v>0.4</v>
       </c>
       <c r="R10">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S10">
         <v>68.33286080063881</v>
@@ -46838,7 +46838,7 @@
         <v>0.4</v>
       </c>
       <c r="R11">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S11">
         <v>68.71535813405613</v>
@@ -46897,7 +46897,7 @@
         <v>0.4</v>
       </c>
       <c r="R12">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S12">
         <v>68.98968248826172</v>
@@ -46956,7 +46956,7 @@
         <v>0.4</v>
       </c>
       <c r="R13">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S13">
         <v>69.47396470638607</v>
@@ -47015,7 +47015,7 @@
         <v>0.4</v>
       </c>
       <c r="R14">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="S14">
         <v>69.44979372917251</v>
@@ -55602,7 +55602,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G2">
         <v>87.1773319244385</v>
@@ -55632,10 +55632,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P2">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q2">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R2">
         <v>59.89965055509169</v>
@@ -55658,7 +55658,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G3">
         <v>87.1773319244385</v>
@@ -55688,10 +55688,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P3">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q3">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R3">
         <v>60.50606220347918</v>
@@ -55714,7 +55714,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G4">
         <v>87.1773319244385</v>
@@ -55744,10 +55744,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P4">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q4">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R4">
         <v>61.81918237142892</v>
@@ -55770,7 +55770,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G5">
         <v>87.1773319244385</v>
@@ -55800,10 +55800,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P5">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q5">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R5">
         <v>60.6931525566241</v>
@@ -55826,7 +55826,7 @@
         <v>3809316.108108108</v>
       </c>
       <c r="F6">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G6">
         <v>87.1773319244385</v>
@@ -55856,10 +55856,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P6">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q6">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R6">
         <v>60.03225466326707</v>
@@ -55882,7 +55882,7 @@
         <v>3809316.108108108</v>
       </c>
       <c r="F7">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G7">
         <v>87.1773319244385</v>
@@ -55912,10 +55912,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P7">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q7">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R7">
         <v>63.14080288183875</v>
@@ -55938,7 +55938,7 @@
         <v>3809316.108108108</v>
       </c>
       <c r="F8">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G8">
         <v>87.1773319244385</v>
@@ -55968,10 +55968,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P8">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q8">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R8">
         <v>62.61728866032323</v>
@@ -55994,7 +55994,7 @@
         <v>3809316.108108108</v>
       </c>
       <c r="F9">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G9">
         <v>87.1773319244385</v>
@@ -56024,10 +56024,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P9">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q9">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R9">
         <v>62.85623332857661</v>
@@ -56050,7 +56050,7 @@
         <v>10827</v>
       </c>
       <c r="F10">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G10">
         <v>87.1773319244385</v>
@@ -56080,10 +56080,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P10">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q10">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R10">
         <v>61.54086573102785</v>
@@ -56106,7 +56106,7 @@
         <v>26295</v>
       </c>
       <c r="F11">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G11">
         <v>87.1773319244385</v>
@@ -56136,10 +56136,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P11">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q11">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R11">
         <v>62.33491277718424</v>
@@ -56162,7 +56162,7 @@
         <v>51728</v>
       </c>
       <c r="F12">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G12">
         <v>87.1773319244385</v>
@@ -56195,7 +56195,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R12">
         <v>64.18261285275129</v>
@@ -56218,7 +56218,7 @@
         <v>81906</v>
       </c>
       <c r="F13">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G13">
         <v>87.1773319244385</v>
@@ -56251,7 +56251,7 @@
         <v>0.161504498</v>
       </c>
       <c r="Q13">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R13">
         <v>62.81721558182291</v>
@@ -56274,7 +56274,7 @@
         <v>120000</v>
       </c>
       <c r="F14">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G14">
         <v>87.1773319244385</v>
@@ -56307,7 +56307,7 @@
         <v>0.471368155</v>
       </c>
       <c r="Q14">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R14">
         <v>62.46169933655361</v>
@@ -56330,7 +56330,7 @@
         <v>179000</v>
       </c>
       <c r="F15">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G15">
         <v>87.1773319244385</v>
@@ -56363,7 +56363,7 @@
         <v>0.763278139</v>
       </c>
       <c r="Q15">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R15">
         <v>62.00753448369179</v>
@@ -56386,7 +56386,7 @@
         <v>235630</v>
       </c>
       <c r="F16">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G16">
         <v>87.1773319244385</v>
@@ -56419,7 +56419,7 @@
         <v>1.185203797</v>
       </c>
       <c r="Q16">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R16">
         <v>61.83283965051876</v>
@@ -56442,7 +56442,7 @@
         <v>306000</v>
       </c>
       <c r="F17">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G17">
         <v>87.1773319244385</v>
@@ -56475,7 +56475,7 @@
         <v>2.873418722</v>
       </c>
       <c r="Q17">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R17">
         <v>61.61832443780616</v>
@@ -56498,7 +56498,7 @@
         <v>431010</v>
       </c>
       <c r="F18">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G18">
         <v>87.1773319244385</v>
@@ -56531,7 +56531,7 @@
         <v>8.349959030000001</v>
       </c>
       <c r="Q18">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R18">
         <v>62.07853748641156</v>
@@ -56554,7 +56554,7 @@
         <v>848600</v>
       </c>
       <c r="F19">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G19">
         <v>87.1773319244385</v>
@@ -56587,7 +56587,7 @@
         <v>13.47162042</v>
       </c>
       <c r="Q19">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R19">
         <v>62.62999077115974</v>
@@ -56610,7 +56610,7 @@
         <v>1094700</v>
       </c>
       <c r="F20">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G20">
         <v>87.1773319244385</v>
@@ -56643,7 +56643,7 @@
         <v>19.59076716</v>
       </c>
       <c r="Q20">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R20">
         <v>62.7222601305176</v>
@@ -56666,7 +56666,7 @@
         <v>1630800</v>
       </c>
       <c r="F21">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G21">
         <v>87.1773319244385</v>
@@ -56699,7 +56699,7 @@
         <v>24.15543693</v>
       </c>
       <c r="Q21">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R21">
         <v>63.06928086699373</v>
@@ -56722,7 +56722,7 @@
         <v>2747400</v>
       </c>
       <c r="F22">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G22">
         <v>87.1773319244385</v>
@@ -56755,7 +56755,7 @@
         <v>36</v>
       </c>
       <c r="Q22">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R22">
         <v>60.66451974372163</v>
@@ -56778,7 +56778,7 @@
         <v>2991600</v>
       </c>
       <c r="F23">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G23">
         <v>87.1773319244385</v>
@@ -56811,7 +56811,7 @@
         <v>41.67042518</v>
       </c>
       <c r="Q23">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R23">
         <v>63.59363423451197</v>
@@ -56834,7 +56834,7 @@
         <v>3313000</v>
       </c>
       <c r="F24">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G24">
         <v>87.1773319244385</v>
@@ -56867,7 +56867,7 @@
         <v>47</v>
       </c>
       <c r="Q24">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R24">
         <v>63.97695568024015</v>
@@ -56890,7 +56890,7 @@
         <v>3577000</v>
       </c>
       <c r="F25">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G25">
         <v>87.1773319244385</v>
@@ -56923,7 +56923,7 @@
         <v>53.83794329</v>
       </c>
       <c r="Q25">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R25">
         <v>64.34872520763541</v>
@@ -56946,7 +56946,7 @@
         <v>3990700</v>
       </c>
       <c r="F26">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G26">
         <v>87.1773319244385</v>
@@ -56979,7 +56979,7 @@
         <v>62</v>
       </c>
       <c r="Q26">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R26">
         <v>63.07257512870758</v>
@@ -57002,7 +57002,7 @@
         <v>4384600</v>
       </c>
       <c r="F27">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G27">
         <v>87.1773319244385</v>
@@ -57035,7 +57035,7 @@
         <v>61</v>
       </c>
       <c r="Q27">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R27">
         <v>64.07318437592549</v>
@@ -57058,7 +57058,7 @@
         <v>4788600</v>
       </c>
       <c r="F28">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G28">
         <v>87.1773319244385</v>
@@ -57114,7 +57114,7 @@
         <v>5924100</v>
       </c>
       <c r="F29">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G29">
         <v>87.1773319244385</v>
@@ -57170,7 +57170,7 @@
         <v>6414800</v>
       </c>
       <c r="F30">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G30">
         <v>87.1773319244385</v>
@@ -57226,7 +57226,7 @@
         <v>6884800</v>
       </c>
       <c r="F31">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G31">
         <v>87.1773319244385</v>
@@ -57898,7 +57898,7 @@
         <v>3809316.108108108</v>
       </c>
       <c r="F43">
-        <v>38669.19986703478</v>
+        <v>38669.19986703477</v>
       </c>
       <c r="G43">
         <v>87.1773319244385</v>
@@ -57928,10 +57928,10 @@
         <v>99.26182174682617</v>
       </c>
       <c r="P43">
-        <v>49.60183074841935</v>
+        <v>49.60183074841937</v>
       </c>
       <c r="Q43">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="R43">
         <v>69.44880106361298</v>
@@ -66919,7 +66919,7 @@
         <v>3852546143000</v>
       </c>
       <c r="L25">
-        <v>21.60391301694123</v>
+        <v>21.60391301694124</v>
       </c>
       <c r="M25">
         <v>63027.67952671527</v>
@@ -75794,7 +75794,7 @@
         <v>93051936803.53665</v>
       </c>
       <c r="L2">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M2">
         <v>1966.903626442022</v>
@@ -75853,7 +75853,7 @@
         <v>103428380079.121</v>
       </c>
       <c r="L3">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M3">
         <v>2088.002686507802</v>
@@ -75912,7 +75912,7 @@
         <v>115451747816.3312</v>
       </c>
       <c r="L4">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M4">
         <v>2144.804053356668</v>
@@ -75971,7 +75971,7 @@
         <v>80274258183.10121</v>
       </c>
       <c r="L5">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M5">
         <v>1465.108091730548</v>
@@ -76030,7 +76030,7 @@
         <v>87112445817.12395</v>
       </c>
       <c r="L6">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M6">
         <v>1422.683913942372</v>
@@ -76089,7 +76089,7 @@
         <v>76789256907.40741</v>
       </c>
       <c r="L7">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M7">
         <v>1301.976811970646</v>
@@ -76148,7 +76148,7 @@
         <v>90711918200</v>
       </c>
       <c r="L8">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M8">
         <v>1563.10424857642</v>
@@ -76207,7 +76207,7 @@
         <v>101898825252.9412</v>
       </c>
       <c r="L9">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M9">
         <v>1685.820689898346</v>
@@ -76266,7 +76266,7 @@
         <v>109400881057.2687</v>
       </c>
       <c r="L10">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M10">
         <v>1801.995555012286</v>
@@ -76325,7 +76325,7 @@
         <v>146736790606.6536</v>
       </c>
       <c r="L11">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M11">
         <v>2371.572195756846</v>
@@ -76384,7 +76384,7 @@
         <v>130001774671.5701</v>
       </c>
       <c r="L12">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M12">
         <v>2622.262880570979</v>
@@ -78154,7 +78154,7 @@
         <v>256420110320.8237</v>
       </c>
       <c r="L42">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M42">
         <v>6814.875631967723</v>
@@ -78189,7 +78189,7 @@
         <v>19251558972.18</v>
       </c>
       <c r="D43">
-        <v>2.19214940663726</v>
+        <v>2.192149406637261</v>
       </c>
       <c r="E43">
         <v>83641557.6097561</v>
@@ -78213,7 +78213,7 @@
         <v>303423740572.7911</v>
       </c>
       <c r="L43">
-        <v>22.21034470919905</v>
+        <v>22.21034470919906</v>
       </c>
       <c r="M43">
         <v>7518.834284328375</v>

--- a/Data/cleaned/Service_filled.xlsx
+++ b/Data/cleaned/Service_filled.xlsx
@@ -3206,7 +3206,7 @@
         <v>195374231904.4572</v>
       </c>
       <c r="I3">
-        <v>41.13517275600066</v>
+        <v>41.75996842349758</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3235,7 +3235,7 @@
         <v>206662795827.6493</v>
       </c>
       <c r="I4">
-        <v>41.63903900913157</v>
+        <v>42.4190255795566</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3264,7 +3264,7 @@
         <v>193240709065.3867</v>
       </c>
       <c r="I5">
-        <v>42.21261104687674</v>
+        <v>43.44155036882159</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3293,7 +3293,7 @@
         <v>185314472865.4727</v>
       </c>
       <c r="I6">
-        <v>42.51895627758099</v>
+        <v>43.32850625327787</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3322,7 +3322,7 @@
         <v>174371569064.1351</v>
       </c>
       <c r="I7">
-        <v>42.27195846817502</v>
+        <v>41.51539060257752</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3351,7 +3351,7 @@
         <v>174976209581.6233</v>
       </c>
       <c r="I8">
-        <v>41.90351802161173</v>
+        <v>40.64470131460936</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3380,7 +3380,7 @@
         <v>176819857327.8909</v>
       </c>
       <c r="I9">
-        <v>41.76412091030257</v>
+        <v>41.24641256639161</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3409,7 +3409,7 @@
         <v>181473529583.8157</v>
       </c>
       <c r="I10">
-        <v>42.37174621281925</v>
+        <v>44.78031830526385</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3438,7 +3438,7 @@
         <v>193100256758.4717</v>
       </c>
       <c r="I11">
-        <v>43.53050297893427</v>
+        <v>48.36730926609516</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3467,7 +3467,7 @@
         <v>214402118994.078</v>
       </c>
       <c r="I12">
-        <v>46.70119731223205</v>
+        <v>60.49660594273774</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3496,7 +3496,7 @@
         <v>224923449450.7816</v>
       </c>
       <c r="I13">
-        <v>49.21931001057676</v>
+        <v>60.54971376498944</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3525,7 +3525,7 @@
         <v>230785934248.3313</v>
       </c>
       <c r="I14">
-        <v>52.62191192405035</v>
+        <v>68.35745481971038</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3554,7 +3554,7 @@
         <v>240481224846.0844</v>
       </c>
       <c r="I15">
-        <v>56.23746992404404</v>
+        <v>73.33788012680031</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3583,7 +3583,7 @@
         <v>269132757936.4491</v>
       </c>
       <c r="I16">
-        <v>56.35037221413013</v>
+        <v>56.89434247242718</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3612,7 +3612,7 @@
         <v>333960062561.2844</v>
       </c>
       <c r="I17">
-        <v>56.65093698692905</v>
+        <v>58.12141637349539</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3641,7 +3641,7 @@
         <v>399137099437.4576</v>
       </c>
       <c r="I18">
-        <v>57.26689198284173</v>
+        <v>60.31887979344722</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3670,7 +3670,7 @@
         <v>457434566156.3689</v>
       </c>
       <c r="I19">
-        <v>57.82267261223527</v>
+        <v>60.6057128176905</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3699,7 +3699,7 @@
         <v>502037521992.5721</v>
       </c>
       <c r="I20">
-        <v>58.36730540591644</v>
+        <v>61.11859304813537</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3728,7 +3728,7 @@
         <v>502766241171.9091</v>
       </c>
       <c r="I21">
-        <v>58.66890031002683</v>
+        <v>60.20365663472661</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3757,7 +3757,7 @@
         <v>509893461316.6142</v>
       </c>
       <c r="I22">
-        <v>58.60075723559997</v>
+        <v>58.25186124746511</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3786,7 +3786,7 @@
         <v>502965513882.1829</v>
       </c>
       <c r="I23">
-        <v>58.45643286797856</v>
+        <v>57.71369224739362</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3815,7 +3815,7 @@
         <v>488955213344.9305</v>
       </c>
       <c r="I24">
-        <v>58.27676183825822</v>
+        <v>57.3481454732844</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3844,7 +3844,7 @@
         <v>482939283645.3229</v>
       </c>
       <c r="I25">
-        <v>57.96660642904166</v>
+        <v>56.35782813582522</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3873,7 +3873,7 @@
         <v>489971536319.3779</v>
       </c>
       <c r="I26">
-        <v>57.47550276560639</v>
+        <v>54.92047110790613</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3902,7 +3902,7 @@
         <v>525033072501.5744</v>
       </c>
       <c r="I27">
-        <v>57.25033180236603</v>
+        <v>56.07589161025081</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3931,7 +3931,7 @@
         <v>582088026363.9293</v>
       </c>
       <c r="I28">
-        <v>57.23231223428433</v>
+        <v>57.13812720270957</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3960,7 +3960,7 @@
         <v>665327185427.9628</v>
       </c>
       <c r="I29">
-        <v>57.31151608843017</v>
+        <v>57.72623620312919</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3989,7 +3989,7 @@
         <v>772168600125.4423</v>
       </c>
       <c r="I30">
-        <v>57.23037249670147</v>
+        <v>56.80486176779907</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4018,7 +4018,7 @@
         <v>866276180361.4604</v>
       </c>
       <c r="I31">
-        <v>57.53669824326199</v>
+        <v>59.14505921092611</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4047,7 +4047,7 @@
         <v>1007580189917.463</v>
       </c>
       <c r="I32">
-        <v>57.54888231142763</v>
+        <v>57.61292197538091</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4076,7 +4076,7 @@
         <v>1176523215730.196</v>
       </c>
       <c r="I33">
-        <v>57.55196297689691</v>
+        <v>57.56816931633505</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4105,7 +4105,7 @@
         <v>1303304317260.128</v>
       </c>
       <c r="I34">
-        <v>57.74058564103668</v>
+        <v>58.73360250964264</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4134,7 +4134,7 @@
         <v>1413386545810.143</v>
       </c>
       <c r="I35">
-        <v>58.04980992845245</v>
+        <v>59.67875798588496</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4163,7 +4163,7 @@
         <v>1509604756640.731</v>
       </c>
       <c r="I36">
-        <v>58.56031233848437</v>
+        <v>61.25097401370299</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4192,7 +4192,7 @@
         <v>1509540467415.122</v>
       </c>
       <c r="I37">
-        <v>59.15772857587297</v>
+        <v>62.30786717674127</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4221,7 +4221,7 @@
         <v>1511161005010.411</v>
       </c>
       <c r="I38">
-        <v>59.80251545186368</v>
+        <v>63.20369582826915</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4250,7 +4250,7 @@
         <v>1548718735875.297</v>
       </c>
       <c r="I39">
-        <v>60.36590885640873</v>
+        <v>63.33867286074985</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4279,7 +4279,7 @@
         <v>1560076684905.937</v>
       </c>
       <c r="I40">
-        <v>60.73027214532961</v>
+        <v>62.65335034702257</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4308,7 +4308,7 @@
         <v>1565588499886.227</v>
       </c>
       <c r="I41">
-        <v>61.10255259805366</v>
+        <v>63.06784925390022</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4337,7 +4337,7 @@
         <v>1508594781783.9</v>
       </c>
       <c r="I42">
-        <v>61.37208199542237</v>
+        <v>62.79521127395249</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4366,7 +4366,7 @@
         <v>1473501715088.326</v>
       </c>
       <c r="I43">
-        <v>61.05512084062737</v>
+        <v>59.38128912386762</v>
       </c>
     </row>
   </sheetData>
@@ -10561,7 +10561,7 @@
         <v>0.5</v>
       </c>
       <c r="N3">
-        <v>63.2359881463518</v>
+        <v>63.58332828303771</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -10605,7 +10605,7 @@
         <v>0.5</v>
       </c>
       <c r="N4">
-        <v>62.97497506432079</v>
+        <v>62.57092597902406</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -10649,7 +10649,7 @@
         <v>0.3696621399498013</v>
       </c>
       <c r="N5">
-        <v>62.44219833672754</v>
+        <v>61.30066732184333</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -10693,7 +10693,7 @@
         <v>0.3696621399498013</v>
       </c>
       <c r="N6">
-        <v>62.46945092699798</v>
+        <v>62.54146880610904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -10737,7 +10737,7 @@
         <v>0.3696621399498013</v>
       </c>
       <c r="N7">
-        <v>62.60390997751989</v>
+        <v>63.01576543934884</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -10781,7 +10781,7 @@
         <v>0.3696621399498013</v>
       </c>
       <c r="N8">
-        <v>62.67629651913296</v>
+        <v>62.92361298179227</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -10825,7 +10825,7 @@
         <v>0.2907808919848111</v>
       </c>
       <c r="N9">
-        <v>62.61860820364968</v>
+        <v>62.40435898434108</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -10869,7 +10869,7 @@
         <v>0.2907808919848111</v>
       </c>
       <c r="N10">
-        <v>62.50072886198596</v>
+        <v>62.03346574533985</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -10913,7 +10913,7 @@
         <v>0.2907808919848111</v>
       </c>
       <c r="N11">
-        <v>62.54372431481153</v>
+        <v>62.72319310638832</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -10957,7 +10957,7 @@
         <v>0.2509455997030663</v>
       </c>
       <c r="N12">
-        <v>62.64701457222163</v>
+        <v>63.09642128215205</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -11001,7 +11001,7 @@
         <v>0.2509455997030663</v>
       </c>
       <c r="N13">
-        <v>62.66291395441832</v>
+        <v>62.73445420750253</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -11045,7 +11045,7 @@
         <v>0.2509455997030663</v>
       </c>
       <c r="N14">
-        <v>63.41072839099373</v>
+        <v>66.86904248237485</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -11089,7 +11089,7 @@
         <v>0.2293130684087552</v>
       </c>
       <c r="N15">
-        <v>63.81610761264909</v>
+        <v>65.73341912528225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -11133,7 +11133,7 @@
         <v>0.2293130684087552</v>
       </c>
       <c r="N16">
-        <v>63.98490926894513</v>
+        <v>64.79820615164174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -11177,7 +11177,7 @@
         <v>0.2183149024391249</v>
       </c>
       <c r="N17">
-        <v>64.18488454610352</v>
+        <v>65.16324112510638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -11221,7 +11221,7 @@
         <v>0.3052221581166186</v>
       </c>
       <c r="N18">
-        <v>64.34988459068627</v>
+        <v>65.16744127608951</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -11265,7 +11265,7 @@
         <v>0.2769785874446167</v>
       </c>
       <c r="N19">
-        <v>64.44178938153014</v>
+        <v>64.9019974464847</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -11309,7 +11309,7 @@
         <v>0.258352248856397</v>
       </c>
       <c r="N20">
-        <v>64.86468454554434</v>
+        <v>67.00099776833487</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -11353,7 +11353,7 @@
         <v>0.2453133428014913</v>
       </c>
       <c r="N21">
-        <v>65.37285831642541</v>
+        <v>67.95885329935381</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -11397,7 +11397,7 @@
         <v>0.2358001568396398</v>
       </c>
       <c r="N22">
-        <v>65.65779284782917</v>
+        <v>67.11667206224678</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -11441,7 +11441,7 @@
         <v>0.2358001568396398</v>
       </c>
       <c r="N23">
-        <v>65.85434161438289</v>
+        <v>66.86584615274512</v>
       </c>
     </row>
   </sheetData>
@@ -21174,7 +21174,7 @@
         <v>127148306653.208</v>
       </c>
       <c r="I3">
-        <v>22.52875296265629</v>
+        <v>22.71406745641086</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -21203,7 +21203,7 @@
         <v>130826646519.1858</v>
       </c>
       <c r="I4">
-        <v>22.55423882724888</v>
+        <v>22.59369102710226</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -21232,7 +21232,7 @@
         <v>138710220436.5486</v>
       </c>
       <c r="I5">
-        <v>22.76076010498425</v>
+        <v>23.2032539894927</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -21261,7 +21261,7 @@
         <v>147561409652.111</v>
       </c>
       <c r="I6">
-        <v>23.5208079630939</v>
+        <v>25.52931556625333</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -21290,7 +21290,7 @@
         <v>160808849859.8696</v>
       </c>
       <c r="I7">
-        <v>24.95630718166188</v>
+        <v>29.35332018542419</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -21319,7 +21319,7 @@
         <v>168572151025.6462</v>
       </c>
       <c r="I8">
-        <v>26.0636653114382</v>
+        <v>29.84707434646617</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -21348,7 +21348,7 @@
         <v>169167682114.4212</v>
       </c>
       <c r="I9">
-        <v>26.97524231924135</v>
+        <v>30.36075740362833</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -21377,7 +21377,7 @@
         <v>174174270858.3348</v>
       </c>
       <c r="I10">
-        <v>27.83394619502536</v>
+        <v>31.23777118769934</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -21406,7 +21406,7 @@
         <v>183718282064.6877</v>
       </c>
       <c r="I11">
-        <v>28.81159478613806</v>
+        <v>32.8924312398331</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -21435,7 +21435,7 @@
         <v>192308336177.5509</v>
       </c>
       <c r="I12">
-        <v>29.47899111748726</v>
+        <v>32.38277311021145</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -21464,7 +21464,7 @@
         <v>200503859926.9006</v>
       </c>
       <c r="I13">
-        <v>30.3880718632115</v>
+        <v>34.478536877422</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -21493,7 +21493,7 @@
         <v>210181069865.0136</v>
       </c>
       <c r="I14">
-        <v>31.30685167540921</v>
+        <v>35.55580571533227</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -21522,7 +21522,7 @@
         <v>218787972987.2976</v>
       </c>
       <c r="I15">
-        <v>31.86694366793715</v>
+        <v>34.51599613052345</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -21551,7 +21551,7 @@
         <v>237613963178.5005</v>
       </c>
       <c r="I16">
-        <v>32.29590306344296</v>
+        <v>34.36265612039433</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -21580,7 +21580,7 @@
         <v>270915702589.9083</v>
       </c>
       <c r="I17">
-        <v>32.52620612997277</v>
+        <v>33.65293801156184</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -21609,7 +21609,7 @@
         <v>312518896402.8524</v>
       </c>
       <c r="I18">
-        <v>32.70153523731204</v>
+        <v>33.57027126834449</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21638,7 +21638,7 @@
         <v>355975387844.2686</v>
       </c>
       <c r="I19">
-        <v>33.085083074356</v>
+        <v>35.00567727061917</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -21667,7 +21667,7 @@
         <v>399946112067.3571</v>
       </c>
       <c r="I20">
-        <v>33.73916153010453</v>
+        <v>37.04332902280985</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -21696,7 +21696,7 @@
         <v>446684756085.2984</v>
       </c>
       <c r="I21">
-        <v>34.53343726490813</v>
+        <v>38.57534808943312</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -21725,7 +21725,7 @@
         <v>499523861443.0146</v>
       </c>
       <c r="I22">
-        <v>35.39196250558907</v>
+        <v>39.78765516702887</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -21754,7 +21754,7 @@
         <v>553215657950.8584</v>
       </c>
       <c r="I23">
-        <v>36.340685586273</v>
+        <v>41.22312630868009</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -21783,7 +21783,7 @@
         <v>608914857945.0022</v>
       </c>
       <c r="I24">
-        <v>37.29834633622056</v>
+        <v>42.24794475438896</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -21812,7 +21812,7 @@
         <v>666198990386.2051</v>
       </c>
       <c r="I25">
-        <v>38.06283065207688</v>
+        <v>42.0282161856089</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -21841,7 +21841,7 @@
         <v>732922491891.1117</v>
       </c>
       <c r="I26">
-        <v>38.5658928184051</v>
+        <v>41.18314016648829</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -21870,7 +21870,7 @@
         <v>815018431297.6178</v>
       </c>
       <c r="I27">
-        <v>39.011538752695</v>
+        <v>41.33592591678994</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -21899,7 +21899,7 @@
         <v>916490123371.516</v>
       </c>
       <c r="I28">
-        <v>39.46205817284955</v>
+        <v>41.81684190683736</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -21928,7 +21928,7 @@
         <v>1059857195947.079</v>
       </c>
       <c r="I29">
-        <v>40.00848963172248</v>
+        <v>42.86966500939599</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -21957,7 +21957,7 @@
         <v>1256350651730.871</v>
       </c>
       <c r="I30">
-        <v>40.46514008380637</v>
+        <v>42.85977979077759</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -21986,7 +21986,7 @@
         <v>1464109667731.74</v>
       </c>
       <c r="I31">
-        <v>41.09573475356616</v>
+        <v>44.40666719932563</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -22015,7 +22015,7 @@
         <v>1706009093798.714</v>
       </c>
       <c r="I32">
-        <v>41.58826177010707</v>
+        <v>44.17699192151338</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -22044,7 +22044,7 @@
         <v>2038525053994.328</v>
       </c>
       <c r="I33">
-        <v>42.02029196290719</v>
+        <v>44.29305673463117</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -22073,7 +22073,7 @@
         <v>2409672798138.232</v>
       </c>
       <c r="I34">
-        <v>42.56989304414834</v>
+        <v>45.46330538759899</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -22102,7 +22102,7 @@
         <v>2814894220362.657</v>
       </c>
       <c r="I35">
-        <v>43.25760995935245</v>
+        <v>46.88040150152828</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -22131,7 +22131,7 @@
         <v>3243472956382.485</v>
       </c>
       <c r="I36">
-        <v>44.05710578407226</v>
+        <v>48.27094049434601</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -22160,7 +22160,7 @@
         <v>3678477762271.663</v>
       </c>
       <c r="I37">
-        <v>45.12750368777569</v>
+        <v>50.77164514848277</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -22189,7 +22189,7 @@
         <v>4077556550175.549</v>
       </c>
       <c r="I38">
-        <v>46.28044602201757</v>
+        <v>52.3620909629531</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -22218,7 +22218,7 @@
         <v>4504045277985.878</v>
       </c>
       <c r="I39">
-        <v>47.3008007795036</v>
+        <v>52.68473653423992</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -22247,7 +22247,7 @@
         <v>5005186262312.646</v>
       </c>
       <c r="I40">
-        <v>48.25162089079328</v>
+        <v>53.26996792341521</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -22276,7 +22276,7 @@
         <v>5482044823295.088</v>
       </c>
       <c r="I41">
-        <v>49.20992809315855</v>
+        <v>54.26890426636677</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -22305,7 +22305,7 @@
         <v>5903173497955.662</v>
       </c>
       <c r="I42">
-        <v>50.04569067514365</v>
+        <v>54.45856070688963</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -22334,7 +22334,7 @@
         <v>5903173497955.662</v>
       </c>
       <c r="I43">
-        <v>50.56526924940211</v>
+        <v>53.30909789775842</v>
       </c>
     </row>
   </sheetData>
@@ -29383,7 +29383,7 @@
         <v>0.1345473295227793</v>
       </c>
       <c r="L3">
-        <v>68.49065033967642</v>
+        <v>68.58294972267063</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -29421,7 +29421,7 @@
         <v>0.184024437578745</v>
       </c>
       <c r="L4">
-        <v>68.900569370429</v>
+        <v>69.5351253403157</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -29459,7 +29459,7 @@
         <v>0.2908585373273551</v>
       </c>
       <c r="L5">
-        <v>69.38750543459717</v>
+        <v>70.43081793442168</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -29497,7 +29497,7 @@
         <v>0.4955884681291571</v>
       </c>
       <c r="L6">
-        <v>69.67245450178231</v>
+        <v>70.42546283125513</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -29535,7 +29535,7 @@
         <v>0.8400533668590913</v>
       </c>
       <c r="L7">
-        <v>68.49122320711344</v>
+        <v>64.87304682921798</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -29573,7 +29573,7 @@
         <v>1.583519100589754</v>
       </c>
       <c r="L8">
-        <v>67.71910651656849</v>
+        <v>65.08108618280909</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -29611,7 +29611,7 @@
         <v>2.814318945152599</v>
       </c>
       <c r="L9">
-        <v>67.2766726476968</v>
+        <v>65.6335130198355</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -29649,7 +29649,7 @@
         <v>5.001236892607861</v>
       </c>
       <c r="L10">
-        <v>67.03284287246822</v>
+        <v>66.06632355622156</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -29687,7 +29687,7 @@
         <v>8.150053803473211</v>
       </c>
       <c r="L11">
-        <v>66.85791056044134</v>
+        <v>66.12771960805014</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -29725,7 +29725,7 @@
         <v>11.63949715072928</v>
       </c>
       <c r="L12">
-        <v>66.71008505019705</v>
+        <v>66.06690942193902</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -29763,7 +29763,7 @@
         <v>15.61101314355473</v>
       </c>
       <c r="L13">
-        <v>66.83780297664597</v>
+        <v>67.41247768214825</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -29801,7 +29801,7 @@
         <v>22.87717683216374</v>
       </c>
       <c r="L14">
-        <v>66.98370882849559</v>
+        <v>67.65845946018602</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -29839,7 +29839,7 @@
         <v>30.19745790049732</v>
       </c>
       <c r="L15">
-        <v>67.20581551204411</v>
+        <v>68.25630768986564</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -29877,7 +29877,7 @@
         <v>36.28411369186082</v>
       </c>
       <c r="L16">
-        <v>67.49540143523831</v>
+        <v>68.89064443092089</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -29915,7 +29915,7 @@
         <v>42.00605329135218</v>
       </c>
       <c r="L17">
-        <v>67.79703368563951</v>
+        <v>69.2727355864584</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -29953,7 +29953,7 @@
         <v>46.50890006583777</v>
       </c>
       <c r="L18">
-        <v>68.0317842029727</v>
+        <v>69.19494664534015</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -29991,7 +29991,7 @@
         <v>51.26651435420313</v>
       </c>
       <c r="L19">
-        <v>68.3137260793101</v>
+        <v>69.72553414880804</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -30029,7 +30029,7 @@
         <v>55.74852174756641</v>
       </c>
       <c r="L20">
-        <v>68.56938255305475</v>
+        <v>69.86086647585117</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -30067,7 +30067,7 @@
         <v>60.31616653420439</v>
       </c>
       <c r="L21">
-        <v>69.06839599553936</v>
+        <v>71.60777589395808</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -30105,7 +30105,7 @@
         <v>64.34943931845585</v>
       </c>
       <c r="L22">
-        <v>69.32102083871804</v>
+        <v>70.61447281501307</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -30143,7 +30143,7 @@
         <v>67.77108508530604</v>
       </c>
       <c r="L23">
-        <v>69.44902852813114</v>
+        <v>70.10779816101621</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -30181,7 +30181,7 @@
         <v>70.96621368684565</v>
       </c>
       <c r="L24">
-        <v>69.58155450469577</v>
+        <v>70.26650516598842</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -30219,7 +30219,7 @@
         <v>74.01742830003239</v>
       </c>
       <c r="L25">
-        <v>69.63440052539661</v>
+        <v>69.90851320716837</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -30257,7 +30257,7 @@
         <v>76.85373578484922</v>
       </c>
       <c r="L26">
-        <v>69.71411801942794</v>
+        <v>70.12885880856771</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -30295,7 +30295,7 @@
         <v>79.29053147041148</v>
       </c>
       <c r="L27">
-        <v>69.83644094365259</v>
+        <v>70.47444931097988</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -30333,7 +30333,7 @@
         <v>81.77739798692798</v>
       </c>
       <c r="L28">
-        <v>70.03167327253463</v>
+        <v>71.05211743505777</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -30371,7 +30371,7 @@
         <v>83.16402396345619</v>
       </c>
       <c r="L29">
-        <v>70.16471078749167</v>
+        <v>70.86130988683175</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -30409,7 +30409,7 @@
         <v>84.36967388818752</v>
       </c>
       <c r="L30">
-        <v>70.27584681564785</v>
+        <v>70.85863556508062</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -30447,7 +30447,7 @@
         <v>85.67308397111849</v>
       </c>
       <c r="L31">
-        <v>70.36873975960853</v>
+        <v>70.85647344479607</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -30485,7 +30485,7 @@
         <v>87.134895536416</v>
       </c>
       <c r="L32">
-        <v>70.74490619566664</v>
+        <v>72.7220432100172</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -30523,7 +30523,7 @@
         <v>87.134895536416</v>
       </c>
       <c r="L33">
-        <v>70.88635048514016</v>
+        <v>71.6304410687019</v>
       </c>
     </row>
   </sheetData>
@@ -40270,7 +40270,7 @@
         <v>164618916446.1386</v>
       </c>
       <c r="J3">
-        <v>33.84221990979706</v>
+        <v>33.87161863576137</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -40302,7 +40302,7 @@
         <v>167221002267.2843</v>
       </c>
       <c r="J4">
-        <v>34.25611945647704</v>
+        <v>34.89683727774281</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -40334,7 +40334,7 @@
         <v>173486422587.7294</v>
       </c>
       <c r="J5">
-        <v>34.34059746942939</v>
+        <v>34.52160063054068</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -40366,7 +40366,7 @@
         <v>175343424765.3197</v>
       </c>
       <c r="J6">
-        <v>34.63714845296982</v>
+        <v>35.42081608496181</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -40398,7 +40398,7 @@
         <v>180205583617.306</v>
       </c>
       <c r="J7">
-        <v>35.00087755165487</v>
+        <v>36.11499977204893</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -40430,7 +40430,7 @@
         <v>187158633677.7142</v>
       </c>
       <c r="J8">
-        <v>35.45090393513913</v>
+        <v>36.98846783564461</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -40462,7 +40462,7 @@
         <v>196810007208.562</v>
       </c>
       <c r="J9">
-        <v>35.87547196922739</v>
+        <v>37.45227949228939</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -40494,7 +40494,7 @@
         <v>205991085495.4053</v>
       </c>
       <c r="J10">
-        <v>36.06100585519955</v>
+        <v>36.79644550543219</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -40526,7 +40526,7 @@
         <v>211800509318.9793</v>
       </c>
       <c r="J11">
-        <v>36.28681988926702</v>
+        <v>37.22939797954959</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -40558,7 +40558,7 @@
         <v>219223668475.1895</v>
       </c>
       <c r="J12">
-        <v>36.42847152864086</v>
+        <v>37.04478519464807</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -40590,7 +40590,7 @@
         <v>217718086810.6188</v>
       </c>
       <c r="J13">
-        <v>36.67525818904168</v>
+        <v>37.78569002371795</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -40622,7 +40622,7 @@
         <v>218290704543.7021</v>
       </c>
       <c r="J14">
-        <v>36.89524154645662</v>
+        <v>37.91256818206074</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -40654,7 +40654,7 @@
         <v>217460447335.0319</v>
       </c>
       <c r="J15">
-        <v>37.17369428327927</v>
+        <v>38.49068491702259</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -40686,7 +40686,7 @@
         <v>222428022138.0149</v>
       </c>
       <c r="J16">
-        <v>37.22914368282393</v>
+        <v>37.49630233983369</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -40718,7 +40718,7 @@
         <v>230073127384.1966</v>
       </c>
       <c r="J17">
-        <v>37.33445318907706</v>
+        <v>37.84966811833396</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -40750,7 +40750,7 @@
         <v>240846157554.6897</v>
       </c>
       <c r="J18">
-        <v>37.39740589376196</v>
+        <v>37.70932947359798</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -40782,7 +40782,7 @@
         <v>252632778215.7068</v>
       </c>
       <c r="J19">
-        <v>37.67741611387547</v>
+        <v>39.07955152360464</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -40814,7 +40814,7 @@
         <v>263606462238.2941</v>
       </c>
       <c r="J20">
-        <v>38.08311663140061</v>
+        <v>40.13256872693889</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -40846,7 +40846,7 @@
         <v>277721847043.7659</v>
       </c>
       <c r="J21">
-        <v>38.72078263815617</v>
+        <v>41.96573778685435</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -40878,7 +40878,7 @@
         <v>290269352826.7561</v>
       </c>
       <c r="J22">
-        <v>39.37635630516679</v>
+        <v>42.73292664295458</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -40910,7 +40910,7 @@
         <v>302995763898.1909</v>
       </c>
       <c r="J23">
-        <v>40.0975356053967</v>
+        <v>43.80896126298813</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -40942,7 +40942,7 @@
         <v>315937214348.1737</v>
       </c>
       <c r="J24">
-        <v>40.84834175671458</v>
+        <v>44.72882755413038</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -40974,7 +40974,7 @@
         <v>335965530164.7773</v>
       </c>
       <c r="J25">
-        <v>41.47163244757713</v>
+        <v>44.7046456533001</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -41006,7 +41006,7 @@
         <v>360409733277.4534</v>
       </c>
       <c r="J26">
-        <v>41.89777839734759</v>
+        <v>44.11485897224708</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -41038,7 +41038,7 @@
         <v>391838933536.4448</v>
       </c>
       <c r="J27">
-        <v>42.30724562250328</v>
+        <v>44.44293292274983</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -41070,7 +41070,7 @@
         <v>428440134375.7665</v>
       </c>
       <c r="J28">
-        <v>42.58603804004626</v>
+        <v>44.04323571148997</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -41102,7 +41102,7 @@
         <v>487774175493.1616</v>
       </c>
       <c r="J29">
-        <v>42.81408402073276</v>
+        <v>44.00815792391437</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -41134,7 +41134,7 @@
         <v>538714435928.2015</v>
       </c>
       <c r="J30">
-        <v>43.30551640958341</v>
+        <v>45.88254990700625</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -41166,7 +41166,7 @@
         <v>597266552422.5969</v>
       </c>
       <c r="J31">
-        <v>43.73418127021341</v>
+        <v>45.98488281191449</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -41198,7 +41198,7 @@
         <v>677854050540.1602</v>
       </c>
       <c r="J32">
-        <v>43.94191222513275</v>
+        <v>45.03374956261907</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -41230,7 +41230,7 @@
         <v>765529584790.2051</v>
       </c>
       <c r="J33">
-        <v>44.18154072629791</v>
+        <v>45.44214525076269</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -41262,7 +41262,7 @@
         <v>839219322548.9177</v>
       </c>
       <c r="J34">
-        <v>44.51988912055756</v>
+        <v>46.30114729808293</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -41294,7 +41294,7 @@
         <v>906587668842.408</v>
       </c>
       <c r="J35">
-        <v>44.86750826312105</v>
+        <v>46.69871476936741</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -41326,7 +41326,7 @@
         <v>984987146233.4086</v>
       </c>
       <c r="J36">
-        <v>45.33873883278226</v>
+        <v>47.82241375588313</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -41358,7 +41358,7 @@
         <v>1060813035642.445</v>
       </c>
       <c r="J37">
-        <v>45.72850984669482</v>
+        <v>47.78374812041928</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -41390,7 +41390,7 @@
         <v>1146305237595.177</v>
       </c>
       <c r="J38">
-        <v>46.05056986328471</v>
+        <v>47.74940128997481</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -41422,7 +41422,7 @@
         <v>1257236792301.17</v>
       </c>
       <c r="J39">
-        <v>46.3087251304125</v>
+        <v>47.67088996844124</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -41454,7 +41454,7 @@
         <v>1358835646255.215</v>
       </c>
       <c r="J40">
-        <v>46.6468694716855</v>
+        <v>48.43156631546972</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -41486,7 +41486,7 @@
         <v>1466755561725.093</v>
       </c>
       <c r="J41">
-        <v>47.19803331551658</v>
+        <v>50.10766891732897</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -41518,7 +41518,7 @@
         <v>1542678738197.258</v>
       </c>
       <c r="J42">
-        <v>47.39529655857945</v>
+        <v>48.43685677249766</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -41550,7 +41550,7 @@
         <v>1654153447524.668</v>
       </c>
       <c r="J43">
-        <v>47.44228525376022</v>
+        <v>47.69042660210175</v>
       </c>
     </row>
   </sheetData>
@@ -49325,7 +49325,7 @@
         <v>1.231364667155481</v>
       </c>
       <c r="N3">
-        <v>63.08444775949108</v>
+        <v>63.21285779605014</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -49369,7 +49369,7 @@
         <v>2.464336943341625</v>
       </c>
       <c r="N4">
-        <v>63.12110331387299</v>
+        <v>63.17784622922347</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -49413,7 +49413,7 @@
         <v>4.595924100486394</v>
       </c>
       <c r="N5">
-        <v>63.4556552188332</v>
+        <v>64.17246838994498</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -49457,7 +49457,7 @@
         <v>7.016750002149159</v>
       </c>
       <c r="N6">
-        <v>63.85328926589651</v>
+        <v>64.90407968426315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -49501,7 +49501,7 @@
         <v>10.55461509228857</v>
       </c>
       <c r="N7">
-        <v>64.33555576555848</v>
+        <v>65.81276456014629</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -49545,7 +49545,7 @@
         <v>14.95530533193778</v>
       </c>
       <c r="N8">
-        <v>64.71708963825131</v>
+        <v>66.02064145432622</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -49589,7 +49589,7 @@
         <v>19.95683376020645</v>
       </c>
       <c r="N9">
-        <v>65.215442719793</v>
+        <v>67.06628127810217</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -49633,7 +49633,7 @@
         <v>25.3230403709811</v>
       </c>
       <c r="N10">
-        <v>65.84345934350911</v>
+        <v>68.33286080063881</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -49677,7 +49677,7 @@
         <v>29.78991820416577</v>
       </c>
       <c r="N11">
-        <v>66.39850848994843</v>
+        <v>68.71535813405613</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -49721,7 +49721,7 @@
         <v>35.88308847969812</v>
       </c>
       <c r="N12">
-        <v>66.88275762662811</v>
+        <v>68.98968248826172</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -49765,7 +49765,7 @@
         <v>41.52680676845814</v>
       </c>
       <c r="N13">
-        <v>67.35392372401033</v>
+        <v>69.47396470638607</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -49809,7 +49809,7 @@
         <v>46.35535420443412</v>
       </c>
       <c r="N14">
-        <v>67.72655186331427</v>
+        <v>69.44979372917251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -49853,7 +49853,7 @@
         <v>51.23253332897709</v>
       </c>
       <c r="N15">
-        <v>68.04661637363384</v>
+        <v>69.56041712522416</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -49897,7 +49897,7 @@
         <v>55.38640205047257</v>
       </c>
       <c r="N16">
-        <v>68.42730018329317</v>
+        <v>70.26145846397984</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -49941,7 +49941,7 @@
         <v>59.2241668481057</v>
       </c>
       <c r="N17">
-        <v>69.01847077138507</v>
+        <v>71.91070646367305</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -49985,7 +49985,7 @@
         <v>62.41244414640275</v>
       </c>
       <c r="N18">
-        <v>69.2746848006163</v>
+        <v>70.54419653330581</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -50029,7 +50029,7 @@
         <v>65.18261898839485</v>
       </c>
       <c r="N19">
-        <v>69.67692538233128</v>
+        <v>71.69112244493857</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -50073,7 +50073,7 @@
         <v>67.5478928753423</v>
       </c>
       <c r="N20">
-        <v>70.01901424249587</v>
+        <v>71.74712328115686</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -50117,7 +50117,7 @@
         <v>70.9429024085821</v>
       </c>
       <c r="N21">
-        <v>70.28208056345245</v>
+        <v>71.62077261163049</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -50161,7 +50161,7 @@
         <v>73.91084039485884</v>
       </c>
       <c r="N22">
-        <v>70.38043608795789</v>
+        <v>70.88402134881488</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -50205,7 +50205,7 @@
         <v>76.70066650318965</v>
       </c>
       <c r="N23">
-        <v>70.28527273711329</v>
+        <v>69.79553086310989</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -50249,7 +50249,7 @@
         <v>79.37266996351372</v>
       </c>
       <c r="N24">
-        <v>70.22071567778464</v>
+        <v>69.8870573141604</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -50293,7 +50293,7 @@
         <v>81.36941526911843</v>
       </c>
       <c r="N25">
-        <v>70.11000946621841</v>
+        <v>69.53577556669734</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -50337,7 +50337,7 @@
         <v>82.96721837207026</v>
       </c>
       <c r="N26">
-        <v>70.00078322644812</v>
+        <v>69.43251929106526</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -50381,7 +50381,7 @@
         <v>84.53792928696622</v>
       </c>
       <c r="N27">
-        <v>69.90682217202685</v>
+        <v>69.41674282423787</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -50425,7 +50425,7 @@
         <v>85.45035797463588</v>
       </c>
       <c r="N28">
-        <v>69.83593166459801</v>
+        <v>69.46539977114418</v>
       </c>
     </row>
   </sheetData>
@@ -58487,7 +58487,7 @@
         <v>7681577312.191724</v>
       </c>
       <c r="I3">
-        <v>60.22906161992009</v>
+        <v>60.50606220347918</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -58516,7 +58516,7 @@
         <v>8231203947.976085</v>
       </c>
       <c r="I4">
-        <v>60.8531270660429</v>
+        <v>61.81918237142892</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -58545,7 +58545,7 @@
         <v>8692191499.874823</v>
       </c>
       <c r="I5">
-        <v>60.80222203020978</v>
+        <v>60.6931525566241</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -58574,7 +58574,7 @@
         <v>9241729481.197008</v>
       </c>
       <c r="I6">
-        <v>60.5908439103758</v>
+        <v>60.03225466326707</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -58603,7 +58603,7 @@
         <v>9708639871.116875</v>
       </c>
       <c r="I7">
-        <v>61.21844038533921</v>
+        <v>63.14080288183875</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -58632,7 +58632,7 @@
         <v>10004011623.35298</v>
       </c>
       <c r="I8">
-        <v>61.53516493129072</v>
+        <v>62.61728866032323</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -58661,7 +58661,7 @@
         <v>10484227180.20483</v>
       </c>
       <c r="I9">
-        <v>61.81541388822833</v>
+        <v>62.85623332857661</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -58690,7 +58690,7 @@
         <v>11250691843.81564</v>
       </c>
       <c r="I10">
-        <v>61.76010503896235</v>
+        <v>61.54086573102785</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -58719,7 +58719,7 @@
         <v>12347650980.08413</v>
       </c>
       <c r="I11">
-        <v>61.87119758355929</v>
+        <v>62.33491277718424</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -58748,7 +58748,7 @@
         <v>13694070654.99534</v>
       </c>
       <c r="I12">
-        <v>62.30316427099251</v>
+        <v>64.18261285275129</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -58777,7 +58777,7 @@
         <v>15543542347.03808</v>
       </c>
       <c r="I13">
-        <v>62.39663559247438</v>
+        <v>62.81721558182291</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -58806,7 +58806,7 @@
         <v>17613943805.20548</v>
       </c>
       <c r="I14">
-        <v>62.40820338142726</v>
+        <v>62.46169933655361</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -58835,7 +58835,7 @@
         <v>20107081852.81091</v>
       </c>
       <c r="I15">
-        <v>62.33827463735998</v>
+        <v>62.00753448369179</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -58864,7 +58864,7 @@
         <v>23128307116.25302</v>
       </c>
       <c r="I16">
-        <v>62.25140121321633</v>
+        <v>61.83283965051876</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -58893,7 +58893,7 @@
         <v>26523263762.09367</v>
       </c>
       <c r="I17">
-        <v>62.14396144320313</v>
+        <v>61.61832443780616</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -58922,7 +58922,7 @@
         <v>30053696772.77023</v>
       </c>
       <c r="I18">
-        <v>62.13297484522059</v>
+        <v>62.07853748641156</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -58951,7 +58951,7 @@
         <v>33140964344.78851</v>
       </c>
       <c r="I19">
-        <v>62.21570819265089</v>
+        <v>62.62999077115974</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -58980,7 +58980,7 @@
         <v>34598364747.66082</v>
       </c>
       <c r="I20">
-        <v>62.2994131249848</v>
+        <v>62.7222601305176</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -59009,7 +59009,7 @@
         <v>36183893046.68164</v>
       </c>
       <c r="I21">
-        <v>62.42585309147166</v>
+        <v>63.06928086699373</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -59038,7 +59038,7 @@
         <v>38491081373.90788</v>
       </c>
       <c r="I22">
-        <v>62.1380559036759</v>
+        <v>60.66451974372163</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -59067,7 +59067,7 @@
         <v>40680956421.87209</v>
       </c>
       <c r="I23">
-        <v>62.3748766833418</v>
+        <v>63.59363423451197</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -59096,7 +59096,7 @@
         <v>42790417112.74172</v>
       </c>
       <c r="I24">
-        <v>62.634599192543</v>
+        <v>63.97695568024015</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -59125,7 +59125,7 @@
         <v>44862198139.58057</v>
       </c>
       <c r="I25">
-        <v>62.91165173218295</v>
+        <v>64.34872520763541</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -59154,7 +59154,7 @@
         <v>47332284144.72869</v>
       </c>
       <c r="I26">
-        <v>62.93759610471864</v>
+        <v>63.07257512870758</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -59183,7 +59183,7 @@
         <v>49945900652.68385</v>
       </c>
       <c r="I27">
-        <v>63.12029077951719</v>
+        <v>64.07318437592549</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -59212,7 +59212,7 @@
         <v>53385224296.53539</v>
       </c>
       <c r="I28">
-        <v>63.40238715989891</v>
+        <v>64.87685404905513</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -59241,7 +59241,7 @@
         <v>58143143685.62563</v>
       </c>
       <c r="I29">
-        <v>63.82536899060365</v>
+        <v>66.04014850149031</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -59270,7 +59270,7 @@
         <v>64355108413.73589</v>
       </c>
       <c r="I30">
-        <v>64.54968812875063</v>
+        <v>68.34796175535224</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -59299,7 +59299,7 @@
         <v>69289660390.50447</v>
       </c>
       <c r="I31">
-        <v>65.10266559666744</v>
+        <v>68.00606952330871</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -59328,7 +59328,7 @@
         <v>75858245615.56296</v>
       </c>
       <c r="I32">
-        <v>65.54078008420855</v>
+        <v>67.84351708253806</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -59357,7 +59357,7 @@
         <v>84200992382.44701</v>
       </c>
       <c r="I33">
-        <v>66.09700618326676</v>
+        <v>69.02312362626182</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -59386,7 +59386,7 @@
         <v>92505287291.29024</v>
       </c>
       <c r="I34">
-        <v>66.59370775817392</v>
+        <v>69.20862704581847</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -59415,7 +59415,7 @@
         <v>100848578333.784</v>
       </c>
       <c r="I35">
-        <v>67.25878373728328</v>
+        <v>70.76230615872412</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -59444,7 +59444,7 @@
         <v>108472981400.6946</v>
       </c>
       <c r="I36">
-        <v>67.75100691492474</v>
+        <v>70.34532579316748</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -59473,7 +59473,7 @@
         <v>114429340188.3851</v>
       </c>
       <c r="I37">
-        <v>68.1017080538666</v>
+        <v>69.950933310914</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -59502,7 +59502,7 @@
         <v>119934551695.9196</v>
       </c>
       <c r="I38">
-        <v>68.5099942328691</v>
+        <v>70.66365925256602</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -59531,7 +59531,7 @@
         <v>125653054510.1098</v>
       </c>
       <c r="I39">
-        <v>68.80269021078999</v>
+        <v>70.34711025610673</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -59560,7 +59560,7 @@
         <v>132305685993.5466</v>
       </c>
       <c r="I40">
-        <v>68.89072709978599</v>
+        <v>69.3553782524158</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -59589,7 +59589,7 @@
         <v>138628137658.4117</v>
       </c>
       <c r="I41">
-        <v>69.19387311008744</v>
+        <v>70.79420381754008</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -59618,7 +59618,7 @@
         <v>141265603922.3244</v>
       </c>
       <c r="I42">
-        <v>69.58727114186463</v>
+        <v>71.66443327187299</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -59647,7 +59647,7 @@
         <v>145649452238.2707</v>
       </c>
       <c r="I43">
-        <v>69.56522483230911</v>
+        <v>69.44880106361298</v>
       </c>
     </row>
   </sheetData>
@@ -62372,7 +62372,7 @@
         <v>0.8632793913533033</v>
       </c>
       <c r="L3">
-        <v>60.4499921665493</v>
+        <v>61.24874468069734</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -62410,7 +62410,7 @@
         <v>1.21865002939321</v>
       </c>
       <c r="L4">
-        <v>61.01652577168242</v>
+        <v>61.8935216033193</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -62448,7 +62448,7 @@
         <v>1.459202235188168</v>
       </c>
       <c r="L5">
-        <v>61.50754277281744</v>
+        <v>62.55959911574948</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -62486,7 +62486,7 @@
         <v>1.67138517752074</v>
       </c>
       <c r="L6">
-        <v>61.78704607541567</v>
+        <v>62.52566339061073</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -62524,7 +62524,7 @@
         <v>1.939230270873636</v>
       </c>
       <c r="L7">
-        <v>61.94602174614842</v>
+        <v>62.43297296315505</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -62562,7 +62562,7 @@
         <v>2.241729268429631</v>
       </c>
       <c r="L8">
-        <v>62.06744777775151</v>
+        <v>62.48231297149646</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -62600,7 +62600,7 @@
         <v>5.238737849252066</v>
       </c>
       <c r="L9">
-        <v>62.35806769158013</v>
+        <v>63.43740393379319</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -62638,7 +62638,7 @@
         <v>10.39082580335993</v>
       </c>
       <c r="L10">
-        <v>62.60950835919136</v>
+        <v>63.60619656885888</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -62676,7 +62676,7 @@
         <v>16.26484389370241</v>
       </c>
       <c r="L11">
-        <v>62.94764721778692</v>
+        <v>64.35908420354181</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -62714,7 +62714,7 @@
         <v>21.96317677852383</v>
       </c>
       <c r="L12">
-        <v>63.21545473061985</v>
+        <v>64.38066136534678</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -62752,7 +62752,7 @@
         <v>27.55018364570738</v>
       </c>
       <c r="L13">
-        <v>63.3899423795164</v>
+        <v>64.17506034244782</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -62790,7 +62790,7 @@
         <v>27.55018364570738</v>
       </c>
       <c r="L14">
-        <v>63.49415684701681</v>
+        <v>63.9761030944481</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -62828,7 +62828,7 @@
         <v>27.55018364570738</v>
       </c>
       <c r="L15">
-        <v>63.63582433432716</v>
+        <v>64.30586534747231</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -62866,7 +62866,7 @@
         <v>27.55018364570738</v>
       </c>
       <c r="L16">
-        <v>63.74689654239928</v>
+        <v>64.28204935168723</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -62904,7 +62904,7 @@
         <v>37.00402033856605</v>
       </c>
       <c r="L17">
-        <v>63.85135998341854</v>
+        <v>64.36243563356258</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -62942,7 +62942,7 @@
         <v>43.98565810472251</v>
       </c>
       <c r="L18">
-        <v>63.82739317194707</v>
+        <v>63.70864031345024</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -62980,7 +62980,7 @@
         <v>49.65398409306695</v>
       </c>
       <c r="L19">
-        <v>63.90906039547338</v>
+        <v>64.31800441856682</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -63018,7 +63018,7 @@
         <v>54.26212391051305</v>
       </c>
       <c r="L20">
-        <v>64.00037026615793</v>
+        <v>64.46163466621188</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -63056,7 +63056,7 @@
         <v>58.24575863072106</v>
       </c>
       <c r="L21">
-        <v>64.01171674964566</v>
+        <v>64.06945674146428</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -63094,7 +63094,7 @@
         <v>61.64747861871571</v>
       </c>
       <c r="L22">
-        <v>64.28593850233624</v>
+        <v>65.68996774782823</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -63132,7 +63132,7 @@
         <v>64.95808767807819</v>
       </c>
       <c r="L23">
-        <v>64.34128029560662</v>
+        <v>64.62608734901947</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -63170,7 +63170,7 @@
         <v>67.49665822905675</v>
       </c>
       <c r="L24">
-        <v>64.47432897151781</v>
+        <v>65.16198116553896</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -63208,7 +63208,7 @@
         <v>70.32020018123693</v>
       </c>
       <c r="L25">
-        <v>64.7614049767098</v>
+        <v>66.25047023861437</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -63246,7 +63246,7 @@
         <v>72.69838404253322</v>
       </c>
       <c r="L26">
-        <v>64.91051507155505</v>
+        <v>65.68628002950167</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -63284,7 +63284,7 @@
         <v>74.7306119647493</v>
       </c>
       <c r="L27">
-        <v>65.28374505081622</v>
+        <v>67.23042717287444</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -63322,7 +63322,7 @@
         <v>76.72938482062742</v>
       </c>
       <c r="L28">
-        <v>65.75550830238825</v>
+        <v>68.22132971073941</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -63360,7 +63360,7 @@
         <v>78.3740222603108</v>
       </c>
       <c r="L29">
-        <v>65.95740037428341</v>
+        <v>67.01452952684967</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -63398,7 +63398,7 @@
         <v>79.90690543553268</v>
       </c>
       <c r="L30">
-        <v>66.06948423551829</v>
+        <v>66.65724334842149</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -63436,7 +63436,7 @@
         <v>81.34114658984188</v>
       </c>
       <c r="L31">
-        <v>66.06872137042083</v>
+        <v>66.06471595311547</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -63474,7 +63474,7 @@
         <v>82.69577508183043</v>
       </c>
       <c r="L32">
-        <v>66.10262267529681</v>
+        <v>66.28080849487043</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -63512,7 +63512,7 @@
         <v>82.69577508183043</v>
       </c>
       <c r="L33">
-        <v>66.04051840469702</v>
+        <v>65.71380883498387</v>
       </c>
     </row>
   </sheetData>
@@ -67071,7 +67071,7 @@
         <v>0.7</v>
       </c>
       <c r="N3">
-        <v>72.14081874359752</v>
+        <v>72.41981985859105</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -67115,7 +67115,7 @@
         <v>0.7</v>
       </c>
       <c r="N4">
-        <v>72.35629062824964</v>
+        <v>72.68984179443413</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -67159,7 +67159,7 @@
         <v>0.7</v>
       </c>
       <c r="N5">
-        <v>72.5033523344853</v>
+        <v>72.81844773951202</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -67203,7 +67203,7 @@
         <v>0.7</v>
       </c>
       <c r="N6">
-        <v>72.91902081800882</v>
+        <v>74.01746915996874</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -67247,7 +67247,7 @@
         <v>0.7</v>
       </c>
       <c r="N7">
-        <v>73.39764600080684</v>
+        <v>74.86370124170796</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -67291,7 +67291,7 @@
         <v>0.7679254251405747</v>
       </c>
       <c r="N8">
-        <v>73.67080885387136</v>
+        <v>74.60409933915189</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -67335,7 +67335,7 @@
         <v>0.817157287525381</v>
       </c>
       <c r="N9">
-        <v>73.77538820727416</v>
+        <v>74.1637865273611</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -67379,7 +67379,7 @@
         <v>0.8539916998440041</v>
       </c>
       <c r="N10">
-        <v>73.82581105472366</v>
+        <v>74.02568269055816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -67423,7 +67423,7 @@
         <v>0.8822105850781891</v>
       </c>
       <c r="N11">
-        <v>73.80176014522301</v>
+        <v>73.70136842050006</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -67467,7 +67467,7 @@
         <v>0.9042235500597077</v>
       </c>
       <c r="N12">
-        <v>73.82424261195679</v>
+        <v>73.92206182220272</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -67511,7 +67511,7 @@
         <v>0.9216388375108775</v>
       </c>
       <c r="N13">
-        <v>73.96885293809947</v>
+        <v>74.61953604030172</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -67555,7 +67555,7 @@
         <v>0.9355707961247687</v>
       </c>
       <c r="N14">
-        <v>74.42141824939318</v>
+        <v>76.51433450878595</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -67599,7 +67599,7 @@
         <v>0.946815625293477</v>
       </c>
       <c r="N15">
-        <v>74.74531122304396</v>
+        <v>76.2772193576192</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -67643,7 +67643,7 @@
         <v>0.955956877604817</v>
       </c>
       <c r="N16">
-        <v>74.94403460370582</v>
+        <v>75.9014962160953</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -67687,7 +67687,7 @@
         <v>0.9634314575050762</v>
       </c>
       <c r="N17">
-        <v>75.15104164542304</v>
+        <v>76.16380034260708</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -67731,7 +67731,7 @@
         <v>0.9695723865301868</v>
       </c>
       <c r="N18">
-        <v>75.26271662019749</v>
+        <v>75.81605357504479</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -67775,7 +67775,7 @@
         <v>1.007929402488399</v>
       </c>
       <c r="N19">
-        <v>75.35673736880553</v>
+        <v>75.82754097311374</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -67819,7 +67819,7 @@
         <v>1.039668016372197</v>
       </c>
       <c r="N20">
-        <v>75.58570991287296</v>
+        <v>76.74239628616712</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -67863,7 +67863,7 @@
         <v>1.033153101683587</v>
       </c>
       <c r="N21">
-        <v>75.8902005862724</v>
+        <v>77.43969290342653</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -67907,7 +67907,7 @@
         <v>1.060415441427082</v>
       </c>
       <c r="N22">
-        <v>76.0766683481429</v>
+        <v>77.03139272153369</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -67951,7 +67951,7 @@
         <v>1.050585924430629</v>
       </c>
       <c r="N23">
-        <v>76.18454893066253</v>
+        <v>76.73973785773181</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -67995,7 +67995,7 @@
         <v>1.042385140793355</v>
       </c>
       <c r="N24">
-        <v>76.34908907756186</v>
+        <v>77.1995025991171</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -68039,7 +68039,7 @@
         <v>1.042385140793355</v>
       </c>
       <c r="N25">
-        <v>76.96123009547495</v>
+        <v>80.1364098690393</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cleaned/Service_filled.xlsx
+++ b/Data/cleaned/Service_filled.xlsx
@@ -491,7 +491,7 @@
         <v>35.3595504760742</v>
       </c>
       <c r="F2">
-        <v>66.8518331046956</v>
+        <v>66.85183310469563</v>
       </c>
       <c r="G2">
         <v>2.221352980227276</v>
@@ -506,10 +506,10 @@
         <v>225513659099.6537</v>
       </c>
       <c r="K2">
-        <v>0.585094712</v>
+        <v>0.5850947120000001</v>
       </c>
       <c r="L2">
-        <v>59.50010999359813</v>
+        <v>59.50010999359814</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -544,7 +544,7 @@
         <v>236318134741.6718</v>
       </c>
       <c r="K3">
-        <v>0.8574932114680851</v>
+        <v>0.8574932114680853</v>
       </c>
       <c r="L3">
         <v>61.24874468069734</v>
@@ -555,7 +555,7 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>-858487789.4864126</v>
+        <v>-858487789.4864128</v>
       </c>
       <c r="C4">
         <v>1.63029474683817</v>
@@ -564,13 +564,13 @@
         <v>337817.8794454491</v>
       </c>
       <c r="E4">
-        <v>37.97435523890242</v>
+        <v>37.97435523890243</v>
       </c>
       <c r="F4">
         <v>66.82801320164626</v>
       </c>
       <c r="G4">
-        <v>2.251881380617715</v>
+        <v>2.251881380617716</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -585,7 +585,7 @@
         <v>1.20079930758469</v>
       </c>
       <c r="L4">
-        <v>61.8935216033193</v>
+        <v>61.89352160331931</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -611,7 +611,7 @@
         <v>2.26621662236861</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I5">
         <v>18308.01356339856</v>
@@ -637,7 +637,7 @@
         <v>1.583028053492903</v>
       </c>
       <c r="D6">
-        <v>640722.7156728122</v>
+        <v>640722.7156728121</v>
       </c>
       <c r="E6">
         <v>51.51342989478063</v>
@@ -649,7 +649,7 @@
         <v>2.280943121086244</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I6">
         <v>18249.91942776064</v>
@@ -661,7 +661,7 @@
         <v>1.635871583877982</v>
       </c>
       <c r="L6">
-        <v>62.52566339061073</v>
+        <v>62.52566339061072</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -672,7 +672,7 @@
         <v>-2679042027.643001</v>
       </c>
       <c r="C7">
-        <v>2.036385445842218</v>
+        <v>2.036385445842217</v>
       </c>
       <c r="D7">
         <v>999488.1008779998</v>
@@ -687,7 +687,7 @@
         <v>2.296957592343993</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I7">
         <v>18722.30852780153</v>
@@ -699,7 +699,7 @@
         <v>1.887654594478097</v>
       </c>
       <c r="L7">
-        <v>62.43297296315505</v>
+        <v>62.43297296315504</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -754,7 +754,7 @@
         <v>2163228.985277819</v>
       </c>
       <c r="E9">
-        <v>63.78404891622935</v>
+        <v>63.78404891622934</v>
       </c>
       <c r="F9">
         <v>66.65299897032422</v>
@@ -763,7 +763,7 @@
         <v>2.332482213949956</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I9">
         <v>20144.10827567366</v>
@@ -772,10 +772,10 @@
         <v>273870602504.0316</v>
       </c>
       <c r="K9">
-        <v>4.830246892705128</v>
+        <v>4.830246892705127</v>
       </c>
       <c r="L9">
-        <v>63.43740393379319</v>
+        <v>63.43740393379318</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -792,7 +792,7 @@
         <v>2646860.392066618</v>
       </c>
       <c r="E10">
-        <v>63.78404891622935</v>
+        <v>63.78404891622937</v>
       </c>
       <c r="F10">
         <v>66.65710495438813</v>
@@ -813,7 +813,7 @@
         <v>9.391856976111063</v>
       </c>
       <c r="L10">
-        <v>63.60619656885888</v>
+        <v>63.6061965688589</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -824,7 +824,7 @@
         <v>-3664557558.818053</v>
       </c>
       <c r="C11">
-        <v>1.647742973399068</v>
+        <v>1.647742973399069</v>
       </c>
       <c r="D11">
         <v>3256946.80703832</v>
@@ -833,10 +833,10 @@
         <v>63.78404891622935</v>
       </c>
       <c r="F11">
-        <v>66.6722550614172</v>
+        <v>66.67225506141722</v>
       </c>
       <c r="G11">
-        <v>2.369379632723881</v>
+        <v>2.369379632723882</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -845,7 +845,7 @@
         <v>20389.01360694685</v>
       </c>
       <c r="J11">
-        <v>281557084983.9491</v>
+        <v>281557084983.9492</v>
       </c>
       <c r="K11">
         <v>14.61297454607158</v>
@@ -883,13 +883,13 @@
         <v>20597.04036926723</v>
       </c>
       <c r="J12">
-        <v>286919455001.7195</v>
+        <v>286919455001.7194</v>
       </c>
       <c r="K12">
         <v>19.72236536373076</v>
       </c>
       <c r="L12">
-        <v>64.38066136534678</v>
+        <v>64.38066136534677</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -909,7 +909,7 @@
         <v>63.78404891622935</v>
       </c>
       <c r="F13">
-        <v>66.72774723702709</v>
+        <v>66.72774723702707</v>
       </c>
       <c r="G13">
         <v>2.410153565097264</v>
@@ -947,13 +947,13 @@
         <v>63.78404891622935</v>
       </c>
       <c r="F14">
-        <v>66.77518958840507</v>
+        <v>66.77518958840508</v>
       </c>
       <c r="G14">
         <v>2.432052556987478</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I14">
         <v>20386.63516507197</v>
@@ -965,7 +965,7 @@
         <v>24.76620400018526</v>
       </c>
       <c r="L14">
-        <v>63.9761030944481</v>
+        <v>63.97610309444811</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -976,10 +976,10 @@
         <v>-4764633497.456433</v>
       </c>
       <c r="C15">
-        <v>2.270032678252584</v>
+        <v>2.270032678252583</v>
       </c>
       <c r="D15">
-        <v>7447262.697817053</v>
+        <v>7447262.697817052</v>
       </c>
       <c r="E15">
         <v>63.78404891622935</v>
@@ -991,7 +991,7 @@
         <v>2.454773572538715</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I15">
         <v>20834.05346619503</v>
@@ -1000,7 +1000,7 @@
         <v>298678912950.166</v>
       </c>
       <c r="K15">
-        <v>24.76620400018526</v>
+        <v>24.76620400018525</v>
       </c>
       <c r="L15">
         <v>64.30586534747231</v>
@@ -1017,13 +1017,13 @@
         <v>2.933500543370191</v>
       </c>
       <c r="D16">
-        <v>8717948.80892604</v>
+        <v>8717948.808926038</v>
       </c>
       <c r="E16">
         <v>63.78404891622935</v>
       </c>
       <c r="F16">
-        <v>66.88813804079601</v>
+        <v>66.88813804079599</v>
       </c>
       <c r="G16">
         <v>2.478012767718381</v>
@@ -1049,7 +1049,7 @@
         <v>2005</v>
       </c>
       <c r="B17">
-        <v>-7899007565.210083</v>
+        <v>-7899007565.210084</v>
       </c>
       <c r="C17">
         <v>2.031617643640163</v>
@@ -1058,13 +1058,13 @@
         <v>10055143.71840528</v>
       </c>
       <c r="E17">
-        <v>63.78404891622935</v>
+        <v>63.78404891622936</v>
       </c>
       <c r="F17">
-        <v>66.94684968321974</v>
+        <v>66.94684968321972</v>
       </c>
       <c r="G17">
-        <v>2.502375594191421</v>
+        <v>2.502375594191422</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -1073,13 +1073,13 @@
         <v>23833.87055686058</v>
       </c>
       <c r="J17">
-        <v>349671227244.3906</v>
+        <v>349671227244.3907</v>
       </c>
       <c r="K17">
-        <v>32.53784875743251</v>
+        <v>32.53784875743252</v>
       </c>
       <c r="L17">
-        <v>64.36243563356258</v>
+        <v>64.3624356335626</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1087,7 +1087,7 @@
         <v>2006</v>
       </c>
       <c r="B18">
-        <v>-8492397973.274761</v>
+        <v>-8492397973.274762</v>
       </c>
       <c r="C18">
         <v>2.309913851841802</v>
@@ -1096,10 +1096,10 @@
         <v>11369299.10804217</v>
       </c>
       <c r="E18">
-        <v>63.78404891622935</v>
+        <v>63.78404891622936</v>
       </c>
       <c r="F18">
-        <v>67.01946410547752</v>
+        <v>67.01946410547754</v>
       </c>
       <c r="G18">
         <v>2.528355307862896</v>
@@ -1117,7 +1117,7 @@
         <v>38.81675677593451</v>
       </c>
       <c r="L18">
-        <v>63.70864031345024</v>
+        <v>63.70864031345025</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1175,7 +1175,7 @@
         <v>63.78404891622935</v>
       </c>
       <c r="F20">
-        <v>67.1761339558042</v>
+        <v>67.17613395580419</v>
       </c>
       <c r="G20">
         <v>2.580793320699467</v>
@@ -1251,7 +1251,7 @@
         <v>63.78404891622935</v>
       </c>
       <c r="F22">
-        <v>67.28572342418168</v>
+        <v>67.28572342418167</v>
       </c>
       <c r="G22">
         <v>2.645282695389479</v>
@@ -1266,7 +1266,7 @@
         <v>534294657783.4853</v>
       </c>
       <c r="K22">
-        <v>56.37413790280475</v>
+        <v>56.37413790280474</v>
       </c>
       <c r="L22">
         <v>65.68996774782823</v>
@@ -1277,7 +1277,7 @@
         <v>2011</v>
       </c>
       <c r="B23">
-        <v>-5863065634.259768</v>
+        <v>-5863065634.259767</v>
       </c>
       <c r="C23">
         <v>3.16909039297398</v>
@@ -1289,7 +1289,7 @@
         <v>63.78404891622935</v>
       </c>
       <c r="F23">
-        <v>67.2918649535428</v>
+        <v>67.29186495354278</v>
       </c>
       <c r="G23">
         <v>2.678821645736905</v>
@@ -1307,7 +1307,7 @@
         <v>59.79938069108524</v>
       </c>
       <c r="L23">
-        <v>64.62608734901947</v>
+        <v>64.62608734901946</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1315,7 +1315,7 @@
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>-7836930404.48366</v>
+        <v>-7836930404.483661</v>
       </c>
       <c r="C24">
         <v>3.239055251022118</v>
@@ -1327,7 +1327,7 @@
         <v>63.78404891622935</v>
       </c>
       <c r="F24">
-        <v>67.26550895240209</v>
+        <v>67.26550895240207</v>
       </c>
       <c r="G24">
         <v>2.714344731828554</v>
@@ -1353,10 +1353,10 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>-8187219714.581914</v>
+        <v>-8187219714.581915</v>
       </c>
       <c r="C25">
-        <v>3.266257475339746</v>
+        <v>3.266257475339747</v>
       </c>
       <c r="D25">
         <v>18788155.25746924</v>
@@ -1374,7 +1374,7 @@
         <v>100</v>
       </c>
       <c r="I25">
-        <v>45285.85122022427</v>
+        <v>45285.85122022426</v>
       </c>
       <c r="J25">
         <v>724297679318.2708</v>
@@ -1441,7 +1441,7 @@
         <v>99.51385221700562</v>
       </c>
       <c r="F27">
-        <v>67.01958133529924</v>
+        <v>67.01958133529925</v>
       </c>
       <c r="G27">
         <v>2.828329862597975</v>
@@ -1459,7 +1459,7 @@
         <v>70.29160580138311</v>
       </c>
       <c r="L27">
-        <v>67.23042717287444</v>
+        <v>67.23042717287443</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1470,7 +1470,7 @@
         <v>-10760710231.3719</v>
       </c>
       <c r="C28">
-        <v>3.425097093749839</v>
+        <v>3.42509709374984</v>
       </c>
       <c r="D28">
         <v>21113518.84326828</v>
@@ -1497,7 +1497,7 @@
         <v>72.45901038852872</v>
       </c>
       <c r="L28">
-        <v>68.22132971073941</v>
+        <v>68.2213297107394</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1505,7 +1505,7 @@
         <v>2017</v>
       </c>
       <c r="B29">
-        <v>-8586217642.011768</v>
+        <v>-8586217642.011766</v>
       </c>
       <c r="C29">
         <v>3.450695827612658</v>
@@ -1517,7 +1517,7 @@
         <v>110.1079587160399</v>
       </c>
       <c r="F29">
-        <v>66.71491238648525</v>
+        <v>66.71491238648524</v>
       </c>
       <c r="G29">
         <v>2.908400725206633</v>
@@ -1526,10 +1526,10 @@
         <v>100</v>
       </c>
       <c r="I29">
-        <v>49393.58754290826</v>
+        <v>49393.58754290825</v>
       </c>
       <c r="J29">
-        <v>838157454009.2559</v>
+        <v>838157454009.2556</v>
       </c>
       <c r="K29">
         <v>74.31314376456073</v>
@@ -1543,10 +1543,10 @@
         <v>2018</v>
       </c>
       <c r="B30">
-        <v>-5473006405.676602</v>
+        <v>-5473006405.676603</v>
       </c>
       <c r="C30">
-        <v>3.554297358212333</v>
+        <v>3.554297358212335</v>
       </c>
       <c r="D30">
         <v>22516852.5509635</v>
@@ -1555,7 +1555,7 @@
         <v>109.4863804540623</v>
       </c>
       <c r="F30">
-        <v>66.52275494967414</v>
+        <v>66.52275494967415</v>
       </c>
       <c r="G30">
         <v>2.950162265766823</v>
@@ -1564,16 +1564,16 @@
         <v>100</v>
       </c>
       <c r="I30">
-        <v>50351.56601291202</v>
+        <v>50351.56601291203</v>
       </c>
       <c r="J30">
         <v>867003739479.177</v>
       </c>
       <c r="K30">
-        <v>76.04197658814452</v>
+        <v>76.04197658814454</v>
       </c>
       <c r="L30">
-        <v>66.65724334842149</v>
+        <v>66.6572433484215</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1581,10 +1581,10 @@
         <v>2019</v>
       </c>
       <c r="B31">
-        <v>960428762.8871081</v>
+        <v>960428762.8871076</v>
       </c>
       <c r="C31">
-        <v>3.462898133906727</v>
+        <v>3.462898133906728</v>
       </c>
       <c r="D31">
         <v>23132325.26401491</v>
@@ -1593,7 +1593,7 @@
         <v>111.0055338591498</v>
       </c>
       <c r="F31">
-        <v>66.3118711742714</v>
+        <v>66.31187117427142</v>
       </c>
       <c r="G31">
         <v>2.992783899091732</v>
@@ -1602,13 +1602,13 @@
         <v>100</v>
       </c>
       <c r="I31">
-        <v>50906.39749503555</v>
+        <v>50906.39749503556</v>
       </c>
       <c r="J31">
-        <v>887373377494.7804</v>
+        <v>887373377494.7805</v>
       </c>
       <c r="K31">
-        <v>77.65961255266799</v>
+        <v>77.65961255266801</v>
       </c>
       <c r="L31">
         <v>66.06471595311547</v>
@@ -1640,13 +1640,13 @@
         <v>100</v>
       </c>
       <c r="I32">
-        <v>51001.0673728686</v>
+        <v>51001.06737286861</v>
       </c>
       <c r="J32">
         <v>898701660991.9095</v>
       </c>
       <c r="K32">
-        <v>79.18425244463042</v>
+        <v>79.1842524446304</v>
       </c>
       <c r="L32">
         <v>66.28080849487043</v>
@@ -1737,16 +1737,16 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>-5957000000</v>
+        <v>-5957000000.000002</v>
       </c>
       <c r="C2">
-        <v>0.8049925888297378</v>
+        <v>0.804992588829738</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.362338121071538E-19</v>
       </c>
       <c r="E2">
-        <v>57.9794437021311</v>
+        <v>57.97944370213111</v>
       </c>
       <c r="F2">
         <v>14.44029556815272</v>
@@ -1758,7 +1758,7 @@
         <v>185449993606.2382</v>
       </c>
       <c r="I2">
-        <v>40.39216130279042</v>
+        <v>40.39216130279043</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1772,7 +1772,7 @@
         <v>0.8963192651989745</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-1.128010297450796E-18</v>
       </c>
       <c r="E3">
         <v>58.10076785410775</v>
@@ -1795,13 +1795,13 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>-3356141048.824593</v>
+        <v>-3356141048.824594</v>
       </c>
       <c r="C4">
-        <v>0.9627140363657062</v>
+        <v>0.9627140363657064</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6.5884289041849E-18</v>
       </c>
       <c r="E4">
         <v>58.2367003551477</v>
@@ -1816,7 +1816,7 @@
         <v>206081658238.6109</v>
       </c>
       <c r="I4">
-        <v>42.4190255795566</v>
+        <v>42.41902557955661</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1830,7 +1830,7 @@
         <v>0.928438684945683</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-2.30326955943289E-17</v>
       </c>
       <c r="E5">
         <v>58.38310170255936</v>
@@ -1845,7 +1845,7 @@
         <v>193611394714.6991</v>
       </c>
       <c r="I5">
-        <v>43.44155036882159</v>
+        <v>43.44155036882158</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1856,10 +1856,10 @@
         <v>2035992595.608884</v>
       </c>
       <c r="C6">
-        <v>0.9075784534791164</v>
+        <v>0.9075784534791161</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>9.107725241502654E-17</v>
       </c>
       <c r="E6">
         <v>58.53710343100576</v>
@@ -1885,10 +1885,10 @@
         <v>3991050247.635145</v>
       </c>
       <c r="C7">
-        <v>0.8875476232471967</v>
+        <v>0.8875476232471965</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-2.906802126831203E-16</v>
       </c>
       <c r="E7">
         <v>58.69859737223079</v>
@@ -1903,7 +1903,7 @@
         <v>176025245529.961</v>
       </c>
       <c r="I7">
-        <v>41.51539060257752</v>
+        <v>41.51539060257751</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1917,7 +1917,7 @@
         <v>0.7398651126360072</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>9.97628730009111E-16</v>
       </c>
       <c r="E8">
         <v>58.85064821121185</v>
@@ -1943,13 +1943,13 @@
         <v>5178017211.934215</v>
       </c>
       <c r="C9">
-        <v>0.693449395637513</v>
+        <v>0.6934493956375128</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-3.255745497503261E-15</v>
       </c>
       <c r="E9">
-        <v>59.00778599228914</v>
+        <v>59.00778599228915</v>
       </c>
       <c r="F9">
         <v>15.88481455387241</v>
@@ -1969,16 +1969,16 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>7103395867.973147</v>
+        <v>7103395867.973148</v>
       </c>
       <c r="C10">
-        <v>0.761908719516317</v>
+        <v>0.7619087195163172</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.156276033307678E-14</v>
       </c>
       <c r="E10">
-        <v>59.17620260890285</v>
+        <v>59.17620260890286</v>
       </c>
       <c r="F10">
         <v>16.11292712441241</v>
@@ -1998,16 +1998,16 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>8138508142.571256</v>
+        <v>8138508142.571257</v>
       </c>
       <c r="C11">
         <v>0.6893932701651423</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-4.395748912281234E-14</v>
       </c>
       <c r="E11">
-        <v>59.35739645409774</v>
+        <v>59.35739645409775</v>
       </c>
       <c r="F11">
         <v>16.34483659434037</v>
@@ -2019,7 +2019,7 @@
         <v>191533762979.8581</v>
       </c>
       <c r="I11">
-        <v>48.36730926609516</v>
+        <v>48.36730926609517</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2027,13 +2027,13 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>7955308420.141536</v>
+        <v>7955308420.141535</v>
       </c>
       <c r="C12">
-        <v>0.6200442047421605</v>
+        <v>0.6200442047421604</v>
       </c>
       <c r="D12">
-        <v>106.0246000414424</v>
+        <v>106.0246000414426</v>
       </c>
       <c r="E12">
         <v>59.55167077968073</v>
@@ -2059,10 +2059,10 @@
         <v>7761260972.382006</v>
       </c>
       <c r="C13">
-        <v>0.5744353126942274</v>
+        <v>0.5744353126942275</v>
       </c>
       <c r="D13">
-        <v>1114.883389142826</v>
+        <v>1114.883389142825</v>
       </c>
       <c r="E13">
         <v>59.76398017605928</v>
@@ -2091,7 +2091,7 @@
         <v>0.5823678554577233</v>
       </c>
       <c r="D14">
-        <v>5689.273752461876</v>
+        <v>5689.273752461878</v>
       </c>
       <c r="E14">
         <v>59.98838746270081</v>
@@ -2114,7 +2114,7 @@
         <v>1993</v>
       </c>
       <c r="B15">
-        <v>8426414869.37343</v>
+        <v>8426414869.373429</v>
       </c>
       <c r="C15">
         <v>0.5490088303283015</v>
@@ -2123,10 +2123,10 @@
         <v>31088.65792286355</v>
       </c>
       <c r="E15">
-        <v>60.22502515657124</v>
+        <v>60.22502515657123</v>
       </c>
       <c r="F15">
-        <v>17.3075237400286</v>
+        <v>17.30752374002859</v>
       </c>
       <c r="G15">
         <v>2049.623933069759</v>
@@ -2143,10 +2143,10 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>8016849716.040016</v>
+        <v>8016849716.040017</v>
       </c>
       <c r="C16">
-        <v>0.554034059126431</v>
+        <v>0.5540340591264311</v>
       </c>
       <c r="D16">
         <v>107464.3251250121</v>
@@ -2175,7 +2175,7 @@
         <v>5443796831.19348</v>
       </c>
       <c r="C17">
-        <v>0.5647227041390965</v>
+        <v>0.5647227041390966</v>
       </c>
       <c r="D17">
         <v>269832.818553401</v>
@@ -2193,7 +2193,7 @@
         <v>312460575581.0364</v>
       </c>
       <c r="I17">
-        <v>58.12141637349539</v>
+        <v>58.1214163734954</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2201,16 +2201,16 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>2876951754.072833</v>
+        <v>2876951754.072834</v>
       </c>
       <c r="C18">
         <v>0.688116032199133</v>
       </c>
       <c r="D18">
-        <v>571574.5657231897</v>
+        <v>571574.5657231899</v>
       </c>
       <c r="E18">
-        <v>61.04818052154796</v>
+        <v>61.04818052154797</v>
       </c>
       <c r="F18">
         <v>18.0637130414602</v>
@@ -2219,7 +2219,7 @@
         <v>2923.853052313571</v>
       </c>
       <c r="H18">
-        <v>367928289986.7639</v>
+        <v>367928289986.764</v>
       </c>
       <c r="I18">
         <v>60.31887979344722</v>
@@ -2230,16 +2230,16 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>109954950.1317163</v>
+        <v>109954950.1317165</v>
       </c>
       <c r="C19">
-        <v>0.8831285720228462</v>
+        <v>0.8831285720228461</v>
       </c>
       <c r="D19">
         <v>1102124.765082833</v>
       </c>
       <c r="E19">
-        <v>61.35937669391742</v>
+        <v>61.35937669391741</v>
       </c>
       <c r="F19">
         <v>18.32266799971099</v>
@@ -2248,7 +2248,7 @@
         <v>3238.334648154658</v>
       </c>
       <c r="H19">
-        <v>418794259523.4112</v>
+        <v>418794259523.4113</v>
       </c>
       <c r="I19">
         <v>60.6057128176905</v>
@@ -2280,7 +2280,7 @@
         <v>459400635949.619</v>
       </c>
       <c r="I20">
-        <v>61.11859304813537</v>
+        <v>61.11859304813536</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2288,13 +2288,13 @@
         <v>1999</v>
       </c>
       <c r="B21">
-        <v>-3083405692.898307</v>
+        <v>-3083405692.898306</v>
       </c>
       <c r="C21">
         <v>1.665421664394059</v>
       </c>
       <c r="D21">
-        <v>3631693.409652541</v>
+        <v>3631693.40965254</v>
       </c>
       <c r="E21">
         <v>62.03694906153998</v>
@@ -2332,13 +2332,13 @@
         <v>19.11482296466192</v>
       </c>
       <c r="G22">
-        <v>3515.977895418446</v>
+        <v>3515.977895418447</v>
       </c>
       <c r="H22">
         <v>475938589709.1875</v>
       </c>
       <c r="I22">
-        <v>58.25186124746511</v>
+        <v>58.25186124746509</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2349,7 +2349,7 @@
         <v>-4126714197.303177</v>
       </c>
       <c r="C23">
-        <v>2.360760655720772</v>
+        <v>2.360760655720771</v>
       </c>
       <c r="D23">
         <v>9035100.12505037</v>
@@ -2367,7 +2367,7 @@
         <v>474837249754.4474</v>
       </c>
       <c r="I23">
-        <v>57.71369224739362</v>
+        <v>57.71369224739361</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2384,16 +2384,16 @@
         <v>12309688.27720316</v>
       </c>
       <c r="E24">
-        <v>63.10258502806105</v>
+        <v>63.10258502806104</v>
       </c>
       <c r="F24">
-        <v>19.64708367752368</v>
+        <v>19.64708367752367</v>
       </c>
       <c r="G24">
         <v>3390.607928878399</v>
       </c>
       <c r="H24">
-        <v>467451683811.581</v>
+        <v>467451683811.5811</v>
       </c>
       <c r="I24">
         <v>57.3481454732844</v>
@@ -2404,7 +2404,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>18629559.12724397</v>
+        <v>18629559.12724376</v>
       </c>
       <c r="C25">
         <v>2.390754366800312</v>
@@ -2422,10 +2422,10 @@
         <v>3350.313070802656</v>
       </c>
       <c r="H25">
-        <v>465473628042.3058</v>
+        <v>465473628042.3057</v>
       </c>
       <c r="I25">
-        <v>56.35782813582522</v>
+        <v>56.35782813582521</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2448,7 +2448,7 @@
         <v>20.17519649015091</v>
       </c>
       <c r="G26">
-        <v>3386.223049357445</v>
+        <v>3386.223049357444</v>
       </c>
       <c r="H26">
         <v>473116567367.7324</v>
@@ -2462,7 +2462,7 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>7538763298.855175</v>
+        <v>7538763298.855174</v>
       </c>
       <c r="C27">
         <v>2.344344699519701</v>
@@ -2477,7 +2477,7 @@
         <v>20.43583682633486</v>
       </c>
       <c r="G27">
-        <v>3561.027615425073</v>
+        <v>3561.027615425072</v>
       </c>
       <c r="H27">
         <v>502344090819.9128</v>
@@ -2497,7 +2497,7 @@
         <v>2.271075912173175</v>
       </c>
       <c r="D28">
-        <v>39217835.27081852</v>
+        <v>39217835.27081851</v>
       </c>
       <c r="E28">
         <v>64.51261266631451</v>
@@ -2509,10 +2509,10 @@
         <v>3849.205967653007</v>
       </c>
       <c r="H28">
-        <v>549184009935.2791</v>
+        <v>549184009935.2792</v>
       </c>
       <c r="I28">
-        <v>57.13812720270957</v>
+        <v>57.13812720270958</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2555,7 +2555,7 @@
         <v>2.459162493504329</v>
       </c>
       <c r="D30">
-        <v>61776505.35905976</v>
+        <v>61776505.35905975</v>
       </c>
       <c r="E30">
         <v>65.21251878591667</v>
@@ -2596,7 +2596,7 @@
         <v>5301.661766504518</v>
       </c>
       <c r="H31">
-        <v>785643290945.8203</v>
+        <v>785643290945.8204</v>
       </c>
       <c r="I31">
         <v>59.14505921092611</v>
@@ -2607,28 +2607,28 @@
         <v>2010</v>
       </c>
       <c r="B32">
-        <v>8387188858.047327</v>
+        <v>8387188858.047326</v>
       </c>
       <c r="C32">
         <v>2.553187994659618</v>
       </c>
       <c r="D32">
-        <v>89892909.90291208</v>
+        <v>89892909.9029121</v>
       </c>
       <c r="E32">
-        <v>65.90042548059071</v>
+        <v>65.9004254805907</v>
       </c>
       <c r="F32">
         <v>21.68331813263181</v>
       </c>
       <c r="G32">
-        <v>6033.706491791868</v>
+        <v>6033.706491791869</v>
       </c>
       <c r="H32">
-        <v>903642326482.8909</v>
+        <v>903642326482.8907</v>
       </c>
       <c r="I32">
-        <v>57.61292197538091</v>
+        <v>57.6129219753809</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2645,19 +2645,19 @@
         <v>107523588.5582767</v>
       </c>
       <c r="E33">
-        <v>66.23650885492455</v>
+        <v>66.23650885492457</v>
       </c>
       <c r="F33">
         <v>21.92106487443325</v>
       </c>
       <c r="G33">
-        <v>6913.830969871354</v>
+        <v>6913.830969871353</v>
       </c>
       <c r="H33">
         <v>1045409783901.001</v>
       </c>
       <c r="I33">
-        <v>57.56816931633505</v>
+        <v>57.56816931633506</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2665,7 +2665,7 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>2573606362.79315</v>
+        <v>2573606362.793149</v>
       </c>
       <c r="C34">
         <v>2.845530681838559</v>
@@ -2674,7 +2674,7 @@
         <v>124672039.3270979</v>
       </c>
       <c r="E34">
-        <v>66.56427703158454</v>
+        <v>66.56427703158452</v>
       </c>
       <c r="F34">
         <v>22.15520349762023</v>
@@ -2686,7 +2686,7 @@
         <v>1158109880932.541</v>
       </c>
       <c r="I34">
-        <v>58.73360250964264</v>
+        <v>58.73360250964263</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2694,7 +2694,7 @@
         <v>2013</v>
       </c>
       <c r="B35">
-        <v>-3354786259.299949</v>
+        <v>-3354786259.299948</v>
       </c>
       <c r="C35">
         <v>2.869356755455966</v>
@@ -2709,7 +2709,7 @@
         <v>22.38589247615211</v>
       </c>
       <c r="G35">
-        <v>8152.458117458437</v>
+        <v>8152.458117458436</v>
       </c>
       <c r="H35">
         <v>1259646039549.491</v>
@@ -2732,7 +2732,7 @@
         <v>159255866.9018945</v>
       </c>
       <c r="E36">
-        <v>67.18625510282421</v>
+        <v>67.18625510282419</v>
       </c>
       <c r="F36">
         <v>22.6133099260279</v>
@@ -2761,13 +2761,13 @@
         <v>171202723.4934117</v>
       </c>
       <c r="E37">
-        <v>67.4747345315151</v>
+        <v>67.47473453151511</v>
       </c>
       <c r="F37">
         <v>22.83761740218488</v>
       </c>
       <c r="G37">
-        <v>8655.100086971766</v>
+        <v>8655.100086971765</v>
       </c>
       <c r="H37">
         <v>1370654780946.716</v>
@@ -2842,13 +2842,13 @@
         <v>-3140625766.154396</v>
       </c>
       <c r="C40">
-        <v>3.294213424188631</v>
+        <v>3.294213424188632</v>
       </c>
       <c r="D40">
-        <v>187960349.4834449</v>
+        <v>187960349.483445</v>
       </c>
       <c r="E40">
-        <v>68.18997233478966</v>
+        <v>68.18997233478967</v>
       </c>
       <c r="F40">
         <v>23.49311246041806</v>
@@ -2860,7 +2860,7 @@
         <v>1454735889523.467</v>
       </c>
       <c r="I40">
-        <v>62.65335034702257</v>
+        <v>62.65335034702258</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2868,16 +2868,16 @@
         <v>2019</v>
       </c>
       <c r="B41">
-        <v>-3841057003.678462</v>
+        <v>-3841057003.678463</v>
       </c>
       <c r="C41">
-        <v>3.342318006303833</v>
+        <v>3.342318006303834</v>
       </c>
       <c r="D41">
-        <v>189656416.1403174</v>
+        <v>189656416.1403175</v>
       </c>
       <c r="E41">
-        <v>68.37700462615356</v>
+        <v>68.37700462615358</v>
       </c>
       <c r="F41">
         <v>23.70530862702079</v>
@@ -2889,7 +2889,7 @@
         <v>1471631521226.543</v>
       </c>
       <c r="I41">
-        <v>63.06784925390022</v>
+        <v>63.06784925390023</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2957,7 +2957,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3012,7 +3012,7 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>63.5200004577637</v>
+        <v>63.52000045776371</v>
       </c>
       <c r="C2">
         <v>12429974698.068</v>
@@ -3021,10 +3021,10 @@
         <v>2.317969734519726</v>
       </c>
       <c r="E2">
-        <v>4195000</v>
+        <v>4195000.000000001</v>
       </c>
       <c r="F2">
-        <v>67.75619383813979</v>
+        <v>67.75619383813982</v>
       </c>
       <c r="G2">
         <v>3.335636360797226</v>
@@ -3033,19 +3033,19 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>73.11</v>
+        <v>73.11000000000001</v>
       </c>
       <c r="J2">
         <v>21901.56285483924</v>
       </c>
       <c r="K2">
-        <v>502570417449.0828</v>
+        <v>502570417449.0829</v>
       </c>
       <c r="L2">
         <v>15.07235736</v>
       </c>
       <c r="M2">
-        <v>0.5</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="N2">
         <v>62.8229287844789</v>
@@ -3071,19 +3071,19 @@
         <v>67.83857418467228</v>
       </c>
       <c r="G3">
-        <v>3.350344269519918</v>
+        <v>3.350344269519919</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>73.24227513227513</v>
+        <v>73.24227513227514</v>
       </c>
       <c r="J3">
         <v>21437.55344418592</v>
       </c>
       <c r="K3">
-        <v>494687866608.2768</v>
+        <v>494687866608.2769</v>
       </c>
       <c r="L3">
         <v>20.27079277798942</v>
@@ -3112,16 +3112,16 @@
         <v>5589589.314343238</v>
       </c>
       <c r="F4">
-        <v>67.93310567931421</v>
+        <v>67.93310567931422</v>
       </c>
       <c r="G4">
-        <v>3.36545961994446</v>
+        <v>3.365459619944461</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4">
-        <v>73.3868353156109</v>
+        <v>73.38683531561091</v>
       </c>
       <c r="J4">
         <v>21764.79449745335</v>
@@ -3133,7 +3133,7 @@
         <v>26.20481733412475</v>
       </c>
       <c r="M4">
-        <v>0.5</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="N4">
         <v>62.57092597902406</v>
@@ -3162,19 +3162,19 @@
         <v>3.38233312315114</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I5">
-        <v>73.55015194257926</v>
+        <v>73.55015194257925</v>
       </c>
       <c r="J5">
         <v>22504.72851088171</v>
       </c>
       <c r="K5">
-        <v>515287398228.9145</v>
+        <v>515287398228.9146</v>
       </c>
       <c r="L5">
-        <v>33.61393201879024</v>
+        <v>33.61393201879023</v>
       </c>
       <c r="M5">
         <v>0.3798591468637831</v>
@@ -3191,40 +3191,40 @@
         <v>63.61873267526126</v>
       </c>
       <c r="C6">
-        <v>28453532279.48332</v>
+        <v>28453532279.48331</v>
       </c>
       <c r="D6">
-        <v>4.842885979265461</v>
+        <v>4.84288597926546</v>
       </c>
       <c r="E6">
         <v>7545430.140489453</v>
       </c>
       <c r="F6">
-        <v>68.14681356839391</v>
+        <v>68.1468135683939</v>
       </c>
       <c r="G6">
         <v>3.40167865770022</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I6">
-        <v>73.84654018604564</v>
+        <v>73.84654018604563</v>
       </c>
       <c r="J6">
-        <v>22832.8725950198</v>
+        <v>22832.87259501979</v>
       </c>
       <c r="K6">
-        <v>524259586885.7453</v>
+        <v>524259586885.7452</v>
       </c>
       <c r="L6">
         <v>40.23645658441381</v>
       </c>
       <c r="M6">
-        <v>0.3798591468637831</v>
+        <v>0.379859146863783</v>
       </c>
       <c r="N6">
-        <v>62.54146880610904</v>
+        <v>62.54146880610902</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3241,7 +3241,7 @@
         <v>4.487807311371435</v>
       </c>
       <c r="E7">
-        <v>8491563.308091497</v>
+        <v>8491563.308091495</v>
       </c>
       <c r="F7">
         <v>68.26466259084903</v>
@@ -3250,10 +3250,10 @@
         <v>3.422704260073158</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I7">
-        <v>74.2518542943906</v>
+        <v>74.25185429439058</v>
       </c>
       <c r="J7">
         <v>23143.93708573883</v>
@@ -3262,7 +3262,7 @@
         <v>535683165386.2874</v>
       </c>
       <c r="L7">
-        <v>44.90676536855952</v>
+        <v>44.90676536855953</v>
       </c>
       <c r="M7">
         <v>0.3798591468637831</v>
@@ -3276,7 +3276,7 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>63.75776810717052</v>
+        <v>63.75776810717051</v>
       </c>
       <c r="C8">
         <v>30332109604.7629</v>
@@ -3285,10 +3285,10 @@
         <v>3.757052195774572</v>
       </c>
       <c r="E8">
-        <v>9438220.423016077</v>
+        <v>9438220.423016075</v>
       </c>
       <c r="F8">
-        <v>68.38350284675035</v>
+        <v>68.38350284675033</v>
       </c>
       <c r="G8">
         <v>3.443768530868644</v>
@@ -3309,10 +3309,10 @@
         <v>48.71222817725835</v>
       </c>
       <c r="M8">
-        <v>0.3798591468637831</v>
+        <v>0.379859146863783</v>
       </c>
       <c r="N8">
-        <v>62.92361298179227</v>
+        <v>62.92361298179226</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3332,16 +3332,16 @@
         <v>10450844.72605797</v>
       </c>
       <c r="F9">
-        <v>68.50340421201558</v>
+        <v>68.50340421201557</v>
       </c>
       <c r="G9">
         <v>3.465323309211955</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I9">
-        <v>74.88653744528445</v>
+        <v>74.88653744528443</v>
       </c>
       <c r="J9">
         <v>25609.20906544607</v>
@@ -3350,13 +3350,13 @@
         <v>599366510163.2041</v>
       </c>
       <c r="L9">
-        <v>51.84051821123354</v>
+        <v>51.84051821123353</v>
       </c>
       <c r="M9">
-        <v>0.3097855301129032</v>
+        <v>0.3097855301129033</v>
       </c>
       <c r="N9">
-        <v>62.40435898434108</v>
+        <v>62.40435898434107</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3376,10 +3376,10 @@
         <v>11562582.12215541</v>
       </c>
       <c r="F10">
-        <v>68.62245518912307</v>
+        <v>68.62245518912309</v>
       </c>
       <c r="G10">
-        <v>3.48751589607477</v>
+        <v>3.487515896074771</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -3388,19 +3388,19 @@
         <v>75.13094973830921</v>
       </c>
       <c r="J10">
-        <v>27433.38293612521</v>
+        <v>27433.38293612522</v>
       </c>
       <c r="K10">
         <v>643641834853.505</v>
       </c>
       <c r="L10">
-        <v>55.19642444844774</v>
+        <v>55.19642444844776</v>
       </c>
       <c r="M10">
-        <v>0.3097855301129032</v>
+        <v>0.3097855301129033</v>
       </c>
       <c r="N10">
-        <v>62.03346574533985</v>
+        <v>62.03346574533986</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3411,16 +3411,16 @@
         <v>64.03329920663771</v>
       </c>
       <c r="C11">
-        <v>35131702126.12007</v>
+        <v>35131702126.12008</v>
       </c>
       <c r="D11">
-        <v>3.25322178580034</v>
+        <v>3.253221785800341</v>
       </c>
       <c r="E11">
         <v>12711284.13237483</v>
       </c>
       <c r="F11">
-        <v>68.7356045241457</v>
+        <v>68.73560452414571</v>
       </c>
       <c r="G11">
         <v>3.510755736675568</v>
@@ -3429,13 +3429,13 @@
         <v>100</v>
       </c>
       <c r="I11">
-        <v>75.31141854493966</v>
+        <v>75.31141854493967</v>
       </c>
       <c r="J11">
         <v>29522.61642953465</v>
       </c>
       <c r="K11">
-        <v>696106752887.2765</v>
+        <v>696106752887.2766</v>
       </c>
       <c r="L11">
         <v>57.9462654917649</v>
@@ -3444,7 +3444,7 @@
         <v>0.3097855301129032</v>
       </c>
       <c r="N11">
-        <v>62.72319310638832</v>
+        <v>62.72319310638833</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3452,19 +3452,19 @@
         <v>2007</v>
       </c>
       <c r="B12">
-        <v>64.26269873367146</v>
+        <v>64.26269873367144</v>
       </c>
       <c r="C12">
         <v>34443514906.9791</v>
       </c>
       <c r="D12">
-        <v>4.006467648287104</v>
+        <v>4.006467648287103</v>
       </c>
       <c r="E12">
         <v>13863246.32321545</v>
       </c>
       <c r="F12">
-        <v>68.8409748114419</v>
+        <v>68.84097481144188</v>
       </c>
       <c r="G12">
         <v>3.53475164955296</v>
@@ -3473,22 +3473,22 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>75.50304107302259</v>
+        <v>75.50304107302257</v>
       </c>
       <c r="J12">
         <v>31827.30922735608</v>
       </c>
       <c r="K12">
-        <v>755562553899.7083</v>
+        <v>755562553899.7084</v>
       </c>
       <c r="L12">
-        <v>60.26868900867081</v>
+        <v>60.2686890086708</v>
       </c>
       <c r="M12">
-        <v>0.270708380661168</v>
+        <v>0.2707083806611679</v>
       </c>
       <c r="N12">
-        <v>63.09642128215205</v>
+        <v>63.09642128215204</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3496,7 +3496,7 @@
         <v>2008</v>
       </c>
       <c r="B13">
-        <v>64.44490540797031</v>
+        <v>64.44490540797032</v>
       </c>
       <c r="C13">
         <v>33523314924.96112</v>
@@ -3526,13 +3526,13 @@
         <v>813477199643.8882</v>
       </c>
       <c r="L13">
-        <v>62.66898273348373</v>
+        <v>62.66898273348374</v>
       </c>
       <c r="M13">
         <v>0.270708380661168</v>
       </c>
       <c r="N13">
-        <v>62.73445420750253</v>
+        <v>62.73445420750254</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3540,7 +3540,7 @@
         <v>2009</v>
       </c>
       <c r="B14">
-        <v>64.76426859392923</v>
+        <v>64.76426859392922</v>
       </c>
       <c r="C14">
         <v>25935345871.87236</v>
@@ -3552,13 +3552,13 @@
         <v>16298580.98057438</v>
       </c>
       <c r="F14">
-        <v>69.00736866636986</v>
+        <v>69.00736866636987</v>
       </c>
       <c r="G14">
         <v>3.587002832817999</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I14">
         <v>76.15968276990343</v>
@@ -3567,13 +3567,13 @@
         <v>34970.7628038378</v>
       </c>
       <c r="K14">
-        <v>852936374106.3848</v>
+        <v>852936374106.3846</v>
       </c>
       <c r="L14">
         <v>65.15483923661338</v>
       </c>
       <c r="M14">
-        <v>0.270708380661168</v>
+        <v>0.2707083806611679</v>
       </c>
       <c r="N14">
         <v>66.86904248237485</v>
@@ -3599,19 +3599,19 @@
         <v>69.05528819715275</v>
       </c>
       <c r="G15">
-        <v>3.615149637624001</v>
+        <v>3.615149637624</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I15">
         <v>76.53990470168371</v>
       </c>
       <c r="J15">
-        <v>36692.68726574286</v>
+        <v>36692.68726574285</v>
       </c>
       <c r="K15">
-        <v>909861247813.2012</v>
+        <v>909861247813.201</v>
       </c>
       <c r="L15">
         <v>67.22601378469824</v>
@@ -3634,7 +3634,7 @@
         <v>12858722880.43502</v>
       </c>
       <c r="D16">
-        <v>3.28631596508072</v>
+        <v>3.286315965080721</v>
       </c>
       <c r="E16">
         <v>18831918.92062513</v>
@@ -3655,16 +3655,16 @@
         <v>38761.28339155417</v>
       </c>
       <c r="K16">
-        <v>972710534292.8613</v>
+        <v>972710534292.8615</v>
       </c>
       <c r="L16">
-        <v>69.3269723956831</v>
+        <v>69.32697239568311</v>
       </c>
       <c r="M16">
         <v>0.2469853482278853</v>
       </c>
       <c r="N16">
-        <v>64.79820615164174</v>
+        <v>64.79820615164175</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3675,7 +3675,7 @@
         <v>65.53019326477286</v>
       </c>
       <c r="C17">
-        <v>6691533797.907582</v>
+        <v>6691533797.907583</v>
       </c>
       <c r="D17">
         <v>3.210015762424596</v>
@@ -3684,7 +3684,7 @@
         <v>19988902.47311999</v>
       </c>
       <c r="F17">
-        <v>69.04405647953951</v>
+        <v>69.04405647953952</v>
       </c>
       <c r="G17">
         <v>3.673482228443037</v>
@@ -3693,10 +3693,10 @@
         <v>100</v>
       </c>
       <c r="I17">
-        <v>77.11099481530773</v>
+        <v>77.11099481530775</v>
       </c>
       <c r="J17">
-        <v>40571.69705801484</v>
+        <v>40571.69705801485</v>
       </c>
       <c r="K17">
         <v>1029538724944.611</v>
@@ -3705,7 +3705,7 @@
         <v>71.10682430181754</v>
       </c>
       <c r="M17">
-        <v>0.2330054285961775</v>
+        <v>0.2330054285961776</v>
       </c>
       <c r="N17">
         <v>65.16324112510638</v>
@@ -3716,19 +3716,19 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>65.68711503376133</v>
+        <v>65.68711503376134</v>
       </c>
       <c r="C18">
         <v>2139633764.395672</v>
       </c>
       <c r="D18">
-        <v>3.263580110342</v>
+        <v>3.263580110342001</v>
       </c>
       <c r="E18">
-        <v>21057041.97250092</v>
+        <v>21057041.97250093</v>
       </c>
       <c r="F18">
-        <v>68.99133766849707</v>
+        <v>68.99133766849708</v>
       </c>
       <c r="G18">
         <v>3.704052881060469</v>
@@ -3737,7 +3737,7 @@
         <v>100</v>
       </c>
       <c r="I18">
-        <v>77.31757745060968</v>
+        <v>77.31757745060969</v>
       </c>
       <c r="J18">
         <v>42110.97875955437</v>
@@ -3746,13 +3746,13 @@
         <v>1078812019503.091</v>
       </c>
       <c r="L18">
-        <v>72.98165150149802</v>
+        <v>72.98165150149804</v>
       </c>
       <c r="M18">
         <v>0.2999009732955938</v>
       </c>
       <c r="N18">
-        <v>65.16744127608951</v>
+        <v>65.16744127608952</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -3763,10 +3763,10 @@
         <v>65.86051742193334</v>
       </c>
       <c r="C19">
-        <v>-175178091.1430829</v>
+        <v>-175178091.1430826</v>
       </c>
       <c r="D19">
-        <v>3.299984264645775</v>
+        <v>3.299984264645774</v>
       </c>
       <c r="E19">
         <v>22026566.05861202</v>
@@ -3781,7 +3781,7 @@
         <v>100</v>
       </c>
       <c r="I19">
-        <v>77.48716013995826</v>
+        <v>77.48716013995825</v>
       </c>
       <c r="J19">
         <v>43220.07162821953</v>
@@ -3804,43 +3804,43 @@
         <v>2015</v>
       </c>
       <c r="B20">
-        <v>66.08026750975107</v>
+        <v>66.08026750975108</v>
       </c>
       <c r="C20">
         <v>-4918295969.440844</v>
       </c>
       <c r="D20">
-        <v>3.368387223043155</v>
+        <v>3.368387223043156</v>
       </c>
       <c r="E20">
         <v>22982193.35298421</v>
       </c>
       <c r="F20">
-        <v>68.7890206132877</v>
+        <v>68.78902061328772</v>
       </c>
       <c r="G20">
-        <v>3.765721040488953</v>
+        <v>3.765721040488954</v>
       </c>
       <c r="H20">
         <v>100</v>
       </c>
       <c r="I20">
-        <v>77.63693500173741</v>
+        <v>77.63693500173743</v>
       </c>
       <c r="J20">
-        <v>43266.51215326055</v>
+        <v>43266.51215326056</v>
       </c>
       <c r="K20">
         <v>1129224997953.443</v>
       </c>
       <c r="L20">
-        <v>76.63716903613124</v>
+        <v>76.63716903613125</v>
       </c>
       <c r="M20">
-        <v>0.2625229669890392</v>
+        <v>0.2625229669890393</v>
       </c>
       <c r="N20">
-        <v>67.00099776833487</v>
+        <v>67.00099776833488</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -3854,13 +3854,13 @@
         <v>-8734962199.708023</v>
       </c>
       <c r="D21">
-        <v>3.23069536745667</v>
+        <v>3.230695367456671</v>
       </c>
       <c r="E21">
-        <v>23928922.5296004</v>
+        <v>23928922.52960041</v>
       </c>
       <c r="F21">
-        <v>68.64986319918027</v>
+        <v>68.64986319918029</v>
       </c>
       <c r="G21">
         <v>3.797625864575478</v>
@@ -3869,7 +3869,7 @@
         <v>100</v>
       </c>
       <c r="I21">
-        <v>77.77743274202666</v>
+        <v>77.77743274202668</v>
       </c>
       <c r="J21">
         <v>43150.64662242903</v>
@@ -3878,7 +3878,7 @@
         <v>1139706919328.987</v>
       </c>
       <c r="L21">
-        <v>78.40673531045293</v>
+        <v>78.40673531045294</v>
       </c>
       <c r="M21">
         <v>0.2511464333199376</v>
@@ -3904,7 +3904,7 @@
         <v>24863877.0300816</v>
       </c>
       <c r="F22">
-        <v>68.48580325264392</v>
+        <v>68.4858032526439</v>
       </c>
       <c r="G22">
         <v>3.831167860218665</v>
@@ -3913,7 +3913,7 @@
         <v>100</v>
       </c>
       <c r="I22">
-        <v>77.90659188407982</v>
+        <v>77.90659188407983</v>
       </c>
       <c r="J22">
         <v>43388.93272597951</v>
@@ -3922,7 +3922,7 @@
         <v>1158724707754.869</v>
       </c>
       <c r="L22">
-        <v>80.12810335095008</v>
+        <v>80.12810335095007</v>
       </c>
       <c r="M22">
         <v>0.2424646669755638</v>
@@ -3973,6 +3973,138 @@
       </c>
       <c r="N23">
         <v>66.86584615274512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24">
+        <v>66.90370664147312</v>
+      </c>
+      <c r="C24">
+        <v>-15645609769.95187</v>
+      </c>
+      <c r="D24">
+        <v>3.21820433294845</v>
+      </c>
+      <c r="E24">
+        <v>27003475.9018846</v>
+      </c>
+      <c r="F24">
+        <v>68.08382395142314</v>
+      </c>
+      <c r="G24">
+        <v>3.90726962047393</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>78.06354742839579</v>
+      </c>
+      <c r="J24">
+        <v>43927.3958033627</v>
+      </c>
+      <c r="K24">
+        <v>1202555104396.054</v>
+      </c>
+      <c r="L24">
+        <v>83.61691956926737</v>
+      </c>
+      <c r="M24">
+        <v>0.255351036137035</v>
+      </c>
+      <c r="N24">
+        <v>70.08196969514144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25">
+        <v>66.85407253037602</v>
+      </c>
+      <c r="C25">
+        <v>-14246777388.25653</v>
+      </c>
+      <c r="D25">
+        <v>3.987162893046349</v>
+      </c>
+      <c r="E25">
+        <v>28388434.16762245</v>
+      </c>
+      <c r="F25">
+        <v>67.84940371501051</v>
+      </c>
+      <c r="G25">
+        <v>3.952463680403962</v>
+      </c>
+      <c r="H25">
+        <v>99.99999999999989</v>
+      </c>
+      <c r="I25">
+        <v>78.05332506413686</v>
+      </c>
+      <c r="J25">
+        <v>43521.65447918058</v>
+      </c>
+      <c r="K25">
+        <v>1213059965905.649</v>
+      </c>
+      <c r="L25">
+        <v>85.42768715771786</v>
+      </c>
+      <c r="M25">
+        <v>0.2853283772770743</v>
+      </c>
+      <c r="N25">
+        <v>79.64063681372824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26">
+        <v>66.58117284217438</v>
+      </c>
+      <c r="C26">
+        <v>-9592007107.419708</v>
+      </c>
+      <c r="D26">
+        <v>5.454068856144525</v>
+      </c>
+      <c r="E26">
+        <v>30103707.58286194</v>
+      </c>
+      <c r="F26">
+        <v>67.59502916691098</v>
+      </c>
+      <c r="G26">
+        <v>4.004176057080912</v>
+      </c>
+      <c r="H26">
+        <v>99.99999999999977</v>
+      </c>
+      <c r="I26">
+        <v>77.95862343125239</v>
+      </c>
+      <c r="J26">
+        <v>42195.31904773955</v>
+      </c>
+      <c r="K26">
+        <v>1206419438404.108</v>
+      </c>
+      <c r="L26">
+        <v>87.31157400611644</v>
+      </c>
+      <c r="M26">
+        <v>0.3366012932127792</v>
+      </c>
+      <c r="N26">
+        <v>98.41744163279814</v>
       </c>
     </row>
   </sheetData>
@@ -4022,10 +4154,10 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>0.02981963646637134</v>
+        <v>0.02981963646637135</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1.93409728380632E-18</v>
       </c>
       <c r="D2">
         <v>1.1303299665451</v>
@@ -4054,7 +4186,7 @@
         <v>0.08418905898173272</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>8.389910661170981E-18</v>
       </c>
       <c r="D3">
         <v>1.466128955182337</v>
@@ -4083,13 +4215,13 @@
         <v>0.1286271159951839</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.160813405811003E-17</v>
       </c>
       <c r="D4">
         <v>1.466128955182337</v>
       </c>
       <c r="E4">
-        <v>60.41361753882153</v>
+        <v>60.41361753882154</v>
       </c>
       <c r="F4">
         <v>105.5896670073621</v>
@@ -4112,7 +4244,7 @@
         <v>0.1688745218893378</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1.165968013790217E-16</v>
       </c>
       <c r="D5">
         <v>1.466128955182337</v>
@@ -4141,13 +4273,13 @@
         <v>0.2399175783551533</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.958201287172312E-16</v>
       </c>
       <c r="D6">
         <v>1.677630532292899</v>
       </c>
       <c r="E6">
-        <v>61.42704447106445</v>
+        <v>61.42704447106444</v>
       </c>
       <c r="F6">
         <v>107.2201299823833</v>
@@ -4159,7 +4291,7 @@
         <v>144858429406.883</v>
       </c>
       <c r="I6">
-        <v>25.52931556625333</v>
+        <v>25.52931556625332</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4170,13 +4302,13 @@
         <v>0.2972088037860747</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-2.639421034793166E-16</v>
       </c>
       <c r="D7">
         <v>1.897325373261767</v>
       </c>
       <c r="E7">
-        <v>61.9158933728435</v>
+        <v>61.91589337284349</v>
       </c>
       <c r="F7">
         <v>108.052029902159</v>
@@ -4199,13 +4331,13 @@
         <v>0.3528893174528441</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-6.723193443501525E-16</v>
       </c>
       <c r="D8">
         <v>2.150400481330705</v>
       </c>
       <c r="E8">
-        <v>62.35221252255866</v>
+        <v>62.35221252255865</v>
       </c>
       <c r="F8">
         <v>108.9292202795141</v>
@@ -4254,7 +4386,7 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>0.5123432720947237</v>
+        <v>0.5123432720947239</v>
       </c>
       <c r="C10">
         <v>545.894994291851</v>
@@ -4263,19 +4395,19 @@
         <v>2.4729203519443</v>
       </c>
       <c r="E10">
-        <v>63.08767215880186</v>
+        <v>63.08767215880187</v>
       </c>
       <c r="F10">
         <v>110.8521432092053</v>
       </c>
       <c r="G10">
-        <v>247.5754585121221</v>
+        <v>247.5754585121222</v>
       </c>
       <c r="H10">
         <v>168103965153.3828</v>
       </c>
       <c r="I10">
-        <v>31.23777118769934</v>
+        <v>31.23777118769935</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4283,10 +4415,10 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>0.5725932323853334</v>
+        <v>0.5725932323853336</v>
       </c>
       <c r="C11">
-        <v>1749.979300722201</v>
+        <v>1749.979300722202</v>
       </c>
       <c r="D11">
         <v>2.554640860435883</v>
@@ -4312,7 +4444,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>0.6204417617269539</v>
+        <v>0.6204417617269538</v>
       </c>
       <c r="C12">
         <v>3763.626519658837</v>
@@ -4327,7 +4459,7 @@
         <v>112.9141904500153</v>
       </c>
       <c r="G12">
-        <v>263.352263428876</v>
+        <v>263.3522634288759</v>
       </c>
       <c r="H12">
         <v>181922520702.2292</v>
@@ -4344,10 +4476,10 @@
         <v>0.6797910536070927</v>
       </c>
       <c r="C13">
-        <v>8775.884164962261</v>
+        <v>8775.884164962259</v>
       </c>
       <c r="D13">
-        <v>2.651258123187722</v>
+        <v>2.651258123187723</v>
       </c>
       <c r="E13">
         <v>63.92498348682952</v>
@@ -4362,7 +4494,7 @@
         <v>188271662622.2284</v>
       </c>
       <c r="I13">
-        <v>34.478536877422</v>
+        <v>34.47853687742201</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4370,16 +4502,16 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>0.8896986571603737</v>
+        <v>0.8896986571603739</v>
       </c>
       <c r="C14">
-        <v>27033.91831320018</v>
+        <v>27033.91831320019</v>
       </c>
       <c r="D14">
-        <v>2.670322504403181</v>
+        <v>2.670322504403182</v>
       </c>
       <c r="E14">
-        <v>64.1509428839903</v>
+        <v>64.15094288399031</v>
       </c>
       <c r="F14">
         <v>115.0130605409811</v>
@@ -4408,7 +4540,7 @@
         <v>2.695791744444605</v>
       </c>
       <c r="E15">
-        <v>64.38242108015262</v>
+        <v>64.38242108015261</v>
       </c>
       <c r="F15">
         <v>116.0510388366721</v>
@@ -4420,7 +4552,7 @@
         <v>202134514074.5647</v>
       </c>
       <c r="I15">
-        <v>34.51599613052345</v>
+        <v>34.51599613052344</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4466,16 +4598,16 @@
         <v>2.963320742105967</v>
       </c>
       <c r="E17">
-        <v>64.82469286704637</v>
+        <v>64.82469286704638</v>
       </c>
       <c r="F17">
         <v>118.1106982665782</v>
       </c>
       <c r="G17">
-        <v>338.2755082892231</v>
+        <v>338.2755082892232</v>
       </c>
       <c r="H17">
-        <v>235581846593.3723</v>
+        <v>235581846593.3724</v>
       </c>
       <c r="I17">
         <v>33.65293801156184</v>
@@ -4492,16 +4624,16 @@
         <v>1140957.023822797</v>
       </c>
       <c r="D18">
-        <v>3.158961873172719</v>
+        <v>3.15896187317272</v>
       </c>
       <c r="E18">
-        <v>65.06112439147881</v>
+        <v>65.06112439147883</v>
       </c>
       <c r="F18">
         <v>119.1319944696711</v>
       </c>
       <c r="G18">
-        <v>372.4965082679581</v>
+        <v>372.4965082679582</v>
       </c>
       <c r="H18">
         <v>261683038730.0858</v>
@@ -4515,7 +4647,7 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>2.610873892797445</v>
+        <v>2.610873892797446</v>
       </c>
       <c r="C19">
         <v>2221122.974762496</v>
@@ -4530,7 +4662,7 @@
         <v>120.1489081183937</v>
       </c>
       <c r="G19">
-        <v>409.0540514775761</v>
+        <v>409.054051477576</v>
       </c>
       <c r="H19">
         <v>289544493247.5425</v>
@@ -4565,7 +4697,7 @@
         <v>318402217354.3301</v>
       </c>
       <c r="I20">
-        <v>37.04332902280985</v>
+        <v>37.04332902280986</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4582,7 +4714,7 @@
         <v>3.853254847462055</v>
       </c>
       <c r="E21">
-        <v>65.6859710597405</v>
+        <v>65.68597105974051</v>
       </c>
       <c r="F21">
         <v>122.1519634012595</v>
@@ -4646,10 +4778,10 @@
         <v>124.0808530878149</v>
       </c>
       <c r="G23">
-        <v>563.9632511309602</v>
+        <v>563.9632511309601</v>
       </c>
       <c r="H23">
-        <v>419996666272.6678</v>
+        <v>419996666272.6677</v>
       </c>
       <c r="I23">
         <v>41.22312630868009</v>
@@ -4663,7 +4795,7 @@
         <v>3.004511091231575</v>
       </c>
       <c r="C24">
-        <v>38757657.67722832</v>
+        <v>38757657.67722831</v>
       </c>
       <c r="D24">
         <v>5.318332321674943</v>
@@ -4681,7 +4813,7 @@
         <v>457685894355.1127</v>
       </c>
       <c r="I24">
-        <v>42.24794475438896</v>
+        <v>42.24794475438897</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4695,7 +4827,7 @@
         <v>56691365.7039075</v>
       </c>
       <c r="D25">
-        <v>6.140334425191036</v>
+        <v>6.140334425191035</v>
       </c>
       <c r="E25">
         <v>66.74814434993289</v>
@@ -4704,7 +4836,7 @@
         <v>125.9186452480801</v>
       </c>
       <c r="G25">
-        <v>662.7986159588654</v>
+        <v>662.7986159588655</v>
       </c>
       <c r="H25">
         <v>496908626622.8276</v>
@@ -4721,10 +4853,10 @@
         <v>3.075637559925917</v>
       </c>
       <c r="C26">
-        <v>77893465.80503447</v>
+        <v>77893465.80503446</v>
       </c>
       <c r="D26">
-        <v>7.057866299471573</v>
+        <v>7.057866299471574</v>
       </c>
       <c r="E26">
         <v>67.11105396385496</v>
@@ -4733,7 +4865,7 @@
         <v>126.8029392119672</v>
       </c>
       <c r="G26">
-        <v>727.2793967693042</v>
+        <v>727.2793967693041</v>
       </c>
       <c r="H26">
         <v>541362383691.8788</v>
@@ -4753,10 +4885,10 @@
         <v>101560915.4034261</v>
       </c>
       <c r="D27">
-        <v>7.99516883189107</v>
+        <v>7.995168831891071</v>
       </c>
       <c r="E27">
-        <v>67.49009511078827</v>
+        <v>67.49009511078826</v>
       </c>
       <c r="F27">
         <v>127.6676254181667</v>
@@ -4782,7 +4914,7 @@
         <v>128128907.7267356</v>
       </c>
       <c r="D28">
-        <v>8.930889403446562</v>
+        <v>8.93088940344656</v>
       </c>
       <c r="E28">
         <v>67.87317133875619</v>
@@ -4794,7 +4926,7 @@
         <v>899.9557617533901</v>
       </c>
       <c r="H28">
-        <v>657038709370.0746</v>
+        <v>657038709370.0745</v>
       </c>
       <c r="I28">
         <v>41.81684190683736</v>
@@ -4811,7 +4943,7 @@
         <v>158682649.4100071</v>
       </c>
       <c r="D29">
-        <v>9.80365999258353</v>
+        <v>9.803659992583528</v>
       </c>
       <c r="E29">
         <v>68.2457983360583</v>
@@ -4843,7 +4975,7 @@
         <v>10.61062832646113</v>
       </c>
       <c r="E30">
-        <v>68.59724844145107</v>
+        <v>68.59724844145106</v>
       </c>
       <c r="F30">
         <v>130.1449351662755</v>
@@ -4872,7 +5004,7 @@
         <v>11.47594259464905</v>
       </c>
       <c r="E31">
-        <v>68.92496454587861</v>
+        <v>68.92496454587859</v>
       </c>
       <c r="F31">
         <v>130.9347927728091</v>
@@ -4884,7 +5016,7 @@
         <v>973419151160.2727</v>
       </c>
       <c r="I31">
-        <v>44.40666719932563</v>
+        <v>44.40666719932564</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4895,7 +5027,7 @@
         <v>3.380709385285182</v>
       </c>
       <c r="C32">
-        <v>276832436.8537112</v>
+        <v>276832436.8537111</v>
       </c>
       <c r="D32">
         <v>12.39429308023945</v>
@@ -4921,7 +5053,7 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>3.403550118115824</v>
+        <v>3.403550118115823</v>
       </c>
       <c r="C33">
         <v>326215922.7970089</v>
@@ -4930,7 +5062,7 @@
         <v>13.33945850546126</v>
       </c>
       <c r="E33">
-        <v>69.50873802411668</v>
+        <v>69.5087380241167</v>
       </c>
       <c r="F33">
         <v>132.4746039484585</v>
@@ -5023,13 +5155,13 @@
         <v>134.8081042028349</v>
       </c>
       <c r="G36">
-        <v>2873.091335120365</v>
+        <v>2873.091335120364</v>
       </c>
       <c r="H36">
         <v>2001128183596.232</v>
       </c>
       <c r="I36">
-        <v>48.27094049434601</v>
+        <v>48.270940494346</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -5052,7 +5184,7 @@
         <v>135.5882472137326</v>
       </c>
       <c r="G37">
-        <v>3218.976820044413</v>
+        <v>3218.976820044414</v>
       </c>
       <c r="H37">
         <v>2268181654243.115</v>
@@ -5116,7 +5248,7 @@
         <v>2809712654764.6</v>
       </c>
       <c r="I39">
-        <v>52.68473653423992</v>
+        <v>52.68473653423991</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5127,25 +5259,25 @@
         <v>2.902474881952613</v>
       </c>
       <c r="C40">
-        <v>726385821.1046383</v>
+        <v>726385821.1046385</v>
       </c>
       <c r="D40">
         <v>25.11043842190425</v>
       </c>
       <c r="E40">
-        <v>70.59799990648844</v>
+        <v>70.59799990648845</v>
       </c>
       <c r="F40">
         <v>137.9183239995046</v>
       </c>
       <c r="G40">
-        <v>4290.277448693689</v>
+        <v>4290.27744869369</v>
       </c>
       <c r="H40">
-        <v>3128699914006.967</v>
+        <v>3128699914006.968</v>
       </c>
       <c r="I40">
-        <v>53.26996792341521</v>
+        <v>53.26996792341522</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5156,22 +5288,22 @@
         <v>2.798192980843595</v>
       </c>
       <c r="C41">
-        <v>793200155.1777117</v>
+        <v>793200155.1777118</v>
       </c>
       <c r="D41">
-        <v>27.01377694870463</v>
+        <v>27.01377694870464</v>
       </c>
       <c r="E41">
-        <v>70.60620869511546</v>
+        <v>70.60620869511547</v>
       </c>
       <c r="F41">
         <v>138.6684071729712</v>
       </c>
       <c r="G41">
-        <v>4673.766126123136</v>
+        <v>4673.766126123137</v>
       </c>
       <c r="H41">
-        <v>3447798838279.518</v>
+        <v>3447798838279.519</v>
       </c>
       <c r="I41">
         <v>54.26890426636677</v>
@@ -5191,7 +5323,7 @@
         <v>29.08658853685133</v>
       </c>
       <c r="E42">
-        <v>70.58755526956463</v>
+        <v>70.58755526956465</v>
       </c>
       <c r="F42">
         <v>139.3886996244886</v>
@@ -5315,13 +5447,13 @@
         <v>19095.46699846078</v>
       </c>
       <c r="J2">
-        <v>935975374644.8864</v>
+        <v>935975374644.8866</v>
       </c>
       <c r="K2">
-        <v>0.087355319</v>
+        <v>0.08735531900000001</v>
       </c>
       <c r="L2">
-        <v>68.38088725670931</v>
+        <v>68.38088725670933</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5341,7 +5473,7 @@
         <v>27.83905298626003</v>
       </c>
       <c r="F3">
-        <v>65.20877613694466</v>
+        <v>65.20877613694468</v>
       </c>
       <c r="G3">
         <v>236.9970115530324</v>
@@ -5350,10 +5482,10 @@
         <v>100</v>
       </c>
       <c r="I3">
-        <v>19500.12008994122</v>
+        <v>19500.12008994123</v>
       </c>
       <c r="J3">
-        <v>966365181329.4109</v>
+        <v>966365181329.411</v>
       </c>
       <c r="K3">
         <v>0.1310114009095477</v>
@@ -5370,7 +5502,7 @@
         <v>-16422928029.39266</v>
       </c>
       <c r="C4">
-        <v>2.583349611238507</v>
+        <v>2.583349611238508</v>
       </c>
       <c r="D4">
         <v>1294983.805259082</v>
@@ -5394,10 +5526,10 @@
         <v>993561558951.9596</v>
       </c>
       <c r="K4">
-        <v>0.1746475606652638</v>
+        <v>0.1746475606652639</v>
       </c>
       <c r="L4">
-        <v>69.5351253403157</v>
+        <v>69.53512534031572</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5423,7 +5555,7 @@
         <v>237.6507452808501</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I5">
         <v>19466.13359922335</v>
@@ -5435,7 +5567,7 @@
         <v>0.2622311887026113</v>
       </c>
       <c r="L5">
-        <v>70.43081793442168</v>
+        <v>70.43081793442167</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5461,19 +5593,19 @@
         <v>237.9635570431412</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I6">
         <v>19515.73668974802</v>
       </c>
       <c r="J6">
-        <v>986809240516.4481</v>
+        <v>986809240516.448</v>
       </c>
       <c r="K6">
-        <v>0.4202354257437318</v>
+        <v>0.4202354257437317</v>
       </c>
       <c r="L6">
-        <v>70.42546283125513</v>
+        <v>70.42546283125512</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5499,7 +5631,7 @@
         <v>238.280350313496</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I7">
         <v>20146.43410811987</v>
@@ -5508,10 +5640,10 @@
         <v>1004854740291.835</v>
       </c>
       <c r="K7">
-        <v>0.6722751768980986</v>
+        <v>0.6722751768980987</v>
       </c>
       <c r="L7">
-        <v>64.87304682921798</v>
+        <v>64.87304682921797</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5522,16 +5654,16 @@
         <v>-10523526861.222</v>
       </c>
       <c r="C8">
-        <v>2.248212375326106</v>
+        <v>2.248212375326105</v>
       </c>
       <c r="D8">
         <v>3339045.409008683</v>
       </c>
       <c r="E8">
-        <v>38.46135817844819</v>
+        <v>38.46135817844818</v>
       </c>
       <c r="F8">
-        <v>64.88230216279905</v>
+        <v>64.88230216279906</v>
       </c>
       <c r="G8">
         <v>238.5966090524586</v>
@@ -5563,10 +5695,10 @@
         <v>2.383078974013111</v>
       </c>
       <c r="D9">
-        <v>4051223.627740592</v>
+        <v>4051223.627740593</v>
       </c>
       <c r="E9">
-        <v>40.38054190187923</v>
+        <v>40.38054190187924</v>
       </c>
       <c r="F9">
         <v>64.85817433183456</v>
@@ -5575,7 +5707,7 @@
         <v>238.9140325058407</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I9">
         <v>21550.31527191331</v>
@@ -5587,7 +5719,7 @@
         <v>1.983510063952091</v>
       </c>
       <c r="L9">
-        <v>65.6335130198355</v>
+        <v>65.63351301983549</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5601,13 +5733,13 @@
         <v>2.875533265908272</v>
       </c>
       <c r="D10">
-        <v>5303123.695353659</v>
+        <v>5303123.69535366</v>
       </c>
       <c r="E10">
         <v>42.13391346795918</v>
       </c>
       <c r="F10">
-        <v>64.85104030034505</v>
+        <v>64.85104030034506</v>
       </c>
       <c r="G10">
         <v>239.2422247288796</v>
@@ -5636,13 +5768,13 @@
         <v>-10698232284.00899</v>
       </c>
       <c r="C11">
-        <v>3.380634988300441</v>
+        <v>3.380634988300442</v>
       </c>
       <c r="D11">
-        <v>7591593.802466026</v>
+        <v>7591593.802466027</v>
       </c>
       <c r="E11">
-        <v>44.01415894559384</v>
+        <v>44.01415894559386</v>
       </c>
       <c r="F11">
         <v>64.85891642974829</v>
@@ -5698,7 +5830,7 @@
         <v>1152501834018.339</v>
       </c>
       <c r="K12">
-        <v>7.277629996714676</v>
+        <v>7.277629996714677</v>
       </c>
       <c r="L12">
         <v>66.06690942193902</v>
@@ -5718,7 +5850,7 @@
         <v>14121816.44567941</v>
       </c>
       <c r="E13">
-        <v>46.61676966164252</v>
+        <v>46.61676966164251</v>
       </c>
       <c r="F13">
         <v>64.90997157323517</v>
@@ -5736,10 +5868,10 @@
         <v>1172680745049.088</v>
       </c>
       <c r="K13">
-        <v>9.583965893094179</v>
+        <v>9.583965893094181</v>
       </c>
       <c r="L13">
-        <v>67.41247768214825</v>
+        <v>67.41247768214826</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5765,7 +5897,7 @@
         <v>240.7572621814175</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I14">
         <v>24379.43433016319</v>
@@ -5777,7 +5909,7 @@
         <v>13.41287067783211</v>
       </c>
       <c r="L14">
-        <v>67.65845946018602</v>
+        <v>67.65845946018601</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5788,7 +5920,7 @@
         <v>-19118829511.48359</v>
       </c>
       <c r="C15">
-        <v>3.863362817347207</v>
+        <v>3.863362817347206</v>
       </c>
       <c r="D15">
         <v>19827503.08722512</v>
@@ -5803,7 +5935,7 @@
         <v>241.1985162586639</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I15">
         <v>25149.5456275879</v>
@@ -5815,7 +5947,7 @@
         <v>17.32947939003157</v>
       </c>
       <c r="L15">
-        <v>68.25630768986564</v>
+        <v>68.25630768986562</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5826,7 +5958,7 @@
         <v>-22145745821.55331</v>
       </c>
       <c r="C16">
-        <v>3.844172464951677</v>
+        <v>3.844172464951678</v>
       </c>
       <c r="D16">
         <v>22675862.61669906</v>
@@ -5835,7 +5967,7 @@
         <v>49.73708314577868</v>
       </c>
       <c r="F16">
-        <v>65.06026415953217</v>
+        <v>65.06026415953218</v>
       </c>
       <c r="G16">
         <v>241.6813683349639</v>
@@ -5864,7 +5996,7 @@
         <v>-24682302314.57071</v>
       </c>
       <c r="C17">
-        <v>4.253748666392404</v>
+        <v>4.253748666392405</v>
       </c>
       <c r="D17">
         <v>25556915.54681465</v>
@@ -5891,7 +6023,7 @@
         <v>24.09309380152713</v>
       </c>
       <c r="L17">
-        <v>69.2727355864584</v>
+        <v>69.27273558645841</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5902,16 +6034,16 @@
         <v>-26664779778.90339</v>
       </c>
       <c r="C18">
-        <v>4.460106252064155</v>
+        <v>4.460106252064156</v>
       </c>
       <c r="D18">
         <v>28391623.02702068</v>
       </c>
       <c r="E18">
-        <v>50.91067650477592</v>
+        <v>50.91067650477594</v>
       </c>
       <c r="F18">
-        <v>65.18246643043832</v>
+        <v>65.18246643043834</v>
       </c>
       <c r="G18">
         <v>242.8100876143463</v>
@@ -5923,13 +6055,13 @@
         <v>28411.83754295519</v>
       </c>
       <c r="J18">
-        <v>1415943357990.113</v>
+        <v>1415943357990.114</v>
       </c>
       <c r="K18">
         <v>26.94091091701249</v>
       </c>
       <c r="L18">
-        <v>69.19494664534015</v>
+        <v>69.19494664534017</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5949,7 +6081,7 @@
         <v>51.36895232349733</v>
       </c>
       <c r="F19">
-        <v>65.23840867007404</v>
+        <v>65.23840867007405</v>
       </c>
       <c r="G19">
         <v>243.454361013919</v>
@@ -5967,7 +6099,7 @@
         <v>29.85046336710732</v>
       </c>
       <c r="L19">
-        <v>69.72553414880804</v>
+        <v>69.72553414880805</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6005,7 +6137,7 @@
         <v>32.64279796767926</v>
       </c>
       <c r="L20">
-        <v>69.86086647585117</v>
+        <v>69.86086647585115</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6051,7 +6183,7 @@
         <v>2010</v>
       </c>
       <c r="B22">
-        <v>-31981708117.8719</v>
+        <v>-31981708117.87189</v>
       </c>
       <c r="C22">
         <v>4.496648719734125</v>
@@ -6092,7 +6224,7 @@
         <v>-31729230299.97997</v>
       </c>
       <c r="C23">
-        <v>4.320875072092708</v>
+        <v>4.320875072092707</v>
       </c>
       <c r="D23">
         <v>40116141.86303018</v>
@@ -6119,7 +6251,7 @@
         <v>40.43002584456008</v>
       </c>
       <c r="L23">
-        <v>70.10779816101621</v>
+        <v>70.10779816101619</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -6136,10 +6268,10 @@
         <v>41967685.36185406</v>
       </c>
       <c r="E24">
-        <v>53.04257248977305</v>
+        <v>53.04257248977304</v>
       </c>
       <c r="F24">
-        <v>65.37453060314387</v>
+        <v>65.37453060314388</v>
       </c>
       <c r="G24">
         <v>247.2553392578807</v>
@@ -6174,7 +6306,7 @@
         <v>43680356.79800136</v>
       </c>
       <c r="E25">
-        <v>53.22902984247586</v>
+        <v>53.22902984247587</v>
       </c>
       <c r="F25">
         <v>65.35874214112749</v>
@@ -6186,7 +6318,7 @@
         <v>100</v>
       </c>
       <c r="I25">
-        <v>33228.77442443821</v>
+        <v>33228.7744244382</v>
       </c>
       <c r="J25">
         <v>1704805013337.024</v>
@@ -6244,7 +6376,7 @@
         <v>-33608758600.0969</v>
       </c>
       <c r="C27">
-        <v>3.884646103250173</v>
+        <v>3.884646103250172</v>
       </c>
       <c r="D27">
         <v>46724534.81900799</v>
@@ -6306,7 +6438,7 @@
         <v>1798267452706.732</v>
       </c>
       <c r="K28">
-        <v>50.89485467245204</v>
+        <v>50.89485467245203</v>
       </c>
       <c r="L28">
         <v>71.05211743505777</v>
@@ -6326,7 +6458,7 @@
         <v>49344359.55441319</v>
       </c>
       <c r="E29">
-        <v>53.97563405163829</v>
+        <v>53.97563405163828</v>
       </c>
       <c r="F29">
         <v>65.20169593906947</v>
@@ -6344,10 +6476,10 @@
         <v>1816322062039.085</v>
       </c>
       <c r="K29">
-        <v>52.50646511531493</v>
+        <v>52.50646511531492</v>
       </c>
       <c r="L29">
-        <v>70.86130988683175</v>
+        <v>70.86130988683173</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -6355,37 +6487,37 @@
         <v>2018</v>
       </c>
       <c r="B30">
-        <v>-34208815304.9178</v>
+        <v>-34208815304.91781</v>
       </c>
       <c r="C30">
         <v>4.0384422780247</v>
       </c>
       <c r="D30">
-        <v>50513005.88589603</v>
+        <v>50513005.88589602</v>
       </c>
       <c r="E30">
-        <v>54.26861020562431</v>
+        <v>54.26861020562433</v>
       </c>
       <c r="F30">
         <v>65.15124091992112</v>
       </c>
       <c r="G30">
-        <v>252.5412130740948</v>
+        <v>252.5412130740949</v>
       </c>
       <c r="H30">
         <v>100</v>
       </c>
       <c r="I30">
-        <v>35280.60595741828</v>
+        <v>35280.60595741829</v>
       </c>
       <c r="J30">
         <v>1840060075648.888</v>
       </c>
       <c r="K30">
-        <v>54.01680250365558</v>
+        <v>54.01680250365559</v>
       </c>
       <c r="L30">
-        <v>70.85863556508062</v>
+        <v>70.85863556508063</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -6393,19 +6525,19 @@
         <v>2019</v>
       </c>
       <c r="B31">
-        <v>-33913187227.64523</v>
+        <v>-33913187227.64524</v>
       </c>
       <c r="C31">
         <v>3.88628131600532</v>
       </c>
       <c r="D31">
-        <v>51639822.48935801</v>
+        <v>51639822.48935802</v>
       </c>
       <c r="E31">
-        <v>54.71059128528185</v>
+        <v>54.71059128528186</v>
       </c>
       <c r="F31">
-        <v>65.09916104950707</v>
+        <v>65.09916104950709</v>
       </c>
       <c r="G31">
         <v>253.4525423550664</v>
@@ -6414,16 +6546,16 @@
         <v>100</v>
       </c>
       <c r="I31">
-        <v>35579.8723260862</v>
+        <v>35579.87232608621</v>
       </c>
       <c r="J31">
         <v>1861219097762.479</v>
       </c>
       <c r="K31">
-        <v>55.49586056253528</v>
+        <v>55.49586056253529</v>
       </c>
       <c r="L31">
-        <v>70.85647344479607</v>
+        <v>70.85647344479608</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -6434,7 +6566,7 @@
         <v>-32388343966.40298</v>
       </c>
       <c r="C32">
-        <v>3.783190969907349</v>
+        <v>3.783190969907348</v>
       </c>
       <c r="D32">
         <v>52662143.07200077</v>
@@ -6452,16 +6584,16 @@
         <v>100</v>
       </c>
       <c r="I32">
-        <v>35786.00888893992</v>
+        <v>35786.00888893993</v>
       </c>
       <c r="J32">
         <v>1877298870379.689</v>
       </c>
       <c r="K32">
-        <v>56.96477485954002</v>
+        <v>56.96477485954001</v>
       </c>
       <c r="L32">
-        <v>72.7220432100172</v>
+        <v>72.72204321001722</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -6552,19 +6684,19 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>-5653548460.78432</v>
+        <v>-5653548460.784321</v>
       </c>
       <c r="C2">
         <v>0.04248482666874017</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-7.753953681010731E-22</v>
       </c>
       <c r="E2">
-        <v>4.96351003646851</v>
+        <v>4.963510036468511</v>
       </c>
       <c r="F2">
-        <v>57.1425581036766</v>
+        <v>57.14255810367661</v>
       </c>
       <c r="G2">
         <v>235.0851566835621</v>
@@ -6584,13 +6716,13 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>-5909415896.942486</v>
+        <v>-5909415896.942485</v>
       </c>
       <c r="C3">
-        <v>0.04500812045349344</v>
+        <v>0.04500812045349345</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-2.191532763939337E-21</v>
       </c>
       <c r="E3">
         <v>5.106178276502908</v>
@@ -6608,7 +6740,7 @@
         <v>164499938715.6919</v>
       </c>
       <c r="J3">
-        <v>33.87161863576137</v>
+        <v>33.87161863576138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6619,28 +6751,28 @@
         <v>-5723998781.220253</v>
       </c>
       <c r="C4">
-        <v>0.04194541867963121</v>
+        <v>0.04194541867963122</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.179930094491733E-19</v>
       </c>
       <c r="E4">
         <v>5.050349110068105</v>
       </c>
       <c r="F4">
-        <v>57.18358739972187</v>
+        <v>57.18358739972189</v>
       </c>
       <c r="G4">
         <v>240.6967909440162</v>
       </c>
       <c r="H4">
-        <v>270.4118312977634</v>
+        <v>270.4118312977635</v>
       </c>
       <c r="I4">
         <v>166772286690.554</v>
       </c>
       <c r="J4">
-        <v>34.89683727774281</v>
+        <v>34.89683727774282</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6654,7 +6786,7 @@
         <v>0.03195623443689974</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-4.538886088963812E-19</v>
       </c>
       <c r="E5">
         <v>5.178316129436354</v>
@@ -6680,16 +6812,16 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>-5216125609.921593</v>
+        <v>-5216125609.921592</v>
       </c>
       <c r="C6">
         <v>0.02728625793080848</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.386122188595057E-18</v>
       </c>
       <c r="E6">
-        <v>5.316743914125679</v>
+        <v>5.316743914125677</v>
       </c>
       <c r="F6">
         <v>57.24705769737324</v>
@@ -6704,7 +6836,7 @@
         <v>173590401709.5027</v>
       </c>
       <c r="J6">
-        <v>35.42081608496181</v>
+        <v>35.4208160849618</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6718,19 +6850,19 @@
         <v>0.03042049672323567</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-3.825697610917426E-18</v>
       </c>
       <c r="E7">
         <v>5.404216122476397</v>
       </c>
       <c r="F7">
-        <v>57.29735915599752</v>
+        <v>57.2973591559975</v>
       </c>
       <c r="G7">
         <v>249.4631300289109</v>
       </c>
       <c r="H7">
-        <v>279.4051420816913</v>
+        <v>279.4051420816912</v>
       </c>
       <c r="I7">
         <v>177265777070.7107</v>
@@ -6750,10 +6882,10 @@
         <v>0.03290277740222494</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.015810072379156E-17</v>
       </c>
       <c r="E8">
-        <v>5.490041800234014</v>
+        <v>5.490041800234013</v>
       </c>
       <c r="F8">
         <v>57.33506460967445</v>
@@ -6776,16 +6908,16 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>-5689494706.265175</v>
+        <v>-5689494706.265174</v>
       </c>
       <c r="C9">
         <v>0.03849312764837</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-3.391549949095415E-17</v>
       </c>
       <c r="E9">
-        <v>5.598936327142683</v>
+        <v>5.598936327142682</v>
       </c>
       <c r="F9">
         <v>57.3764141691784</v>
@@ -6808,19 +6940,19 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>-5969554732.76392</v>
+        <v>-5969554732.763921</v>
       </c>
       <c r="C10">
-        <v>0.03759969568380063</v>
+        <v>0.03759969568380064</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>9.023118656182995E-17</v>
       </c>
       <c r="E10">
-        <v>5.591384944816625</v>
+        <v>5.591384944816626</v>
       </c>
       <c r="F10">
-        <v>57.4275618311347</v>
+        <v>57.42756183113472</v>
       </c>
       <c r="G10">
         <v>258.4874944991701</v>
@@ -6832,7 +6964,7 @@
         <v>194949309094.8418</v>
       </c>
       <c r="J10">
-        <v>36.79644550543219</v>
+        <v>36.7964455054322</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6840,28 +6972,28 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>-6165615557.188263</v>
+        <v>-6165615557.188264</v>
       </c>
       <c r="C11">
-        <v>0.04257334869179774</v>
+        <v>0.04257334869179775</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-3.640166809105375E-16</v>
       </c>
       <c r="E11">
-        <v>5.607953519590549</v>
+        <v>5.60795351959055</v>
       </c>
       <c r="F11">
-        <v>57.48899906086285</v>
+        <v>57.48899906086287</v>
       </c>
       <c r="G11">
-        <v>261.5407908631448</v>
+        <v>261.5407908631449</v>
       </c>
       <c r="H11">
         <v>303.5261659803166</v>
       </c>
       <c r="I11">
-        <v>199247720202.794</v>
+        <v>199247720202.7941</v>
       </c>
       <c r="J11">
         <v>37.22939797954959</v>
@@ -6872,19 +7004,19 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>-6208605625.786866</v>
+        <v>-6208605625.786865</v>
       </c>
       <c r="C12">
         <v>0.04555119619701199</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>7.27457297920855E-16</v>
       </c>
       <c r="E12">
         <v>5.640362372358553</v>
       </c>
       <c r="F12">
-        <v>57.55978933826103</v>
+        <v>57.55978933826102</v>
       </c>
       <c r="G12">
         <v>264.6151389510773</v>
@@ -6893,10 +7025,10 @@
         <v>309.6440118519812</v>
       </c>
       <c r="I12">
-        <v>204242233929.869</v>
+        <v>204242233929.8689</v>
       </c>
       <c r="J12">
-        <v>37.04478519464807</v>
+        <v>37.04478519464806</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6910,7 +7042,7 @@
         <v>0.04393823705228625</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-1.176537447068523E-15</v>
       </c>
       <c r="E13">
         <v>5.674635758077851</v>
@@ -6942,19 +7074,19 @@
         <v>0.04818415688754574</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>9.603822481787361E-15</v>
       </c>
       <c r="E14">
         <v>5.674635758077851</v>
       </c>
       <c r="F14">
-        <v>57.70622974471574</v>
+        <v>57.70622974471575</v>
       </c>
       <c r="G14">
-        <v>270.8222184344971</v>
+        <v>270.822218434497</v>
       </c>
       <c r="H14">
-        <v>309.7083000488348</v>
+        <v>309.7083000488349</v>
       </c>
       <c r="I14">
         <v>206147128830.7268</v>
@@ -6968,13 +7100,13 @@
         <v>1993</v>
       </c>
       <c r="B15">
-        <v>-5723947026.942427</v>
+        <v>-5723947026.942426</v>
       </c>
       <c r="C15">
-        <v>0.05952642403789067</v>
+        <v>0.05952642403789066</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-2.006730303254517E-14</v>
       </c>
       <c r="E15">
         <v>5.674635758077851</v>
@@ -6983,16 +7115,16 @@
         <v>57.7862135336422</v>
       </c>
       <c r="G15">
-        <v>273.9535431457208</v>
+        <v>273.9535431457207</v>
       </c>
       <c r="H15">
-        <v>309.0569457601056</v>
+        <v>309.0569457601055</v>
       </c>
       <c r="I15">
         <v>206709889747.8314</v>
       </c>
       <c r="J15">
-        <v>38.49068491702259</v>
+        <v>38.49068491702258</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7006,13 +7138,13 @@
         <v>0.07652347193269229</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-3.117906914388771E-14</v>
       </c>
       <c r="E16">
         <v>5.674635758077851</v>
       </c>
       <c r="F16">
-        <v>57.87381522408944</v>
+        <v>57.87381522408945</v>
       </c>
       <c r="G16">
         <v>277.1040927216694</v>
@@ -7024,7 +7156,7 @@
         <v>209543372001.5678</v>
       </c>
       <c r="J16">
-        <v>37.49630233983369</v>
+        <v>37.4963023398337</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7032,7 +7164,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>-6065251376.111673</v>
+        <v>-6065251376.111675</v>
       </c>
       <c r="C17">
         <v>0.1114268654203998</v>
@@ -7041,7 +7173,7 @@
         <v>5162.168399194844</v>
       </c>
       <c r="E17">
-        <v>5.663045380854433</v>
+        <v>5.663045380854434</v>
       </c>
       <c r="F17">
         <v>57.97094329200637</v>
@@ -7050,7 +7182,7 @@
         <v>280.2749584661944</v>
       </c>
       <c r="H17">
-        <v>315.8822829975</v>
+        <v>315.8822829975001</v>
       </c>
       <c r="I17">
         <v>213443446371.2128</v>
@@ -7073,22 +7205,22 @@
         <v>25715.54895976518</v>
       </c>
       <c r="E18">
-        <v>5.710409165862845</v>
+        <v>5.710409165862846</v>
       </c>
       <c r="F18">
         <v>58.07244350938335</v>
       </c>
       <c r="G18">
-        <v>283.4669798689669</v>
+        <v>283.466979868967</v>
       </c>
       <c r="H18">
-        <v>321.2349826698097</v>
+        <v>321.2349826698098</v>
       </c>
       <c r="I18">
         <v>218586927078.3402</v>
       </c>
       <c r="J18">
-        <v>37.70932947359798</v>
+        <v>37.70932947359799</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7120,7 +7252,7 @@
         <v>224210759682.3995</v>
       </c>
       <c r="J19">
-        <v>39.07955152360464</v>
+        <v>39.07955152360465</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7184,7 +7316,7 @@
         <v>236249875033.5233</v>
       </c>
       <c r="J21">
-        <v>41.96573778685435</v>
+        <v>41.96573778685434</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7192,7 +7324,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>-7876945985.466368</v>
+        <v>-7876945985.466367</v>
       </c>
       <c r="C22">
         <v>0.2547835784583337</v>
@@ -7201,10 +7333,10 @@
         <v>412976.2758760939</v>
       </c>
       <c r="E22">
-        <v>6.033591197470725</v>
+        <v>6.033591197470724</v>
       </c>
       <c r="F22">
-        <v>58.54976249123997</v>
+        <v>58.54976249123996</v>
       </c>
       <c r="G22">
         <v>296.4354897171823</v>
@@ -7233,7 +7365,7 @@
         <v>721845.6579993985</v>
       </c>
       <c r="E23">
-        <v>6.275743384817564</v>
+        <v>6.275743384817563</v>
       </c>
       <c r="F23">
         <v>58.68280844144108</v>
@@ -7256,10 +7388,10 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>-7806021198.601365</v>
+        <v>-7806021198.601364</v>
       </c>
       <c r="C24">
-        <v>0.3299034575722697</v>
+        <v>0.3299034575722696</v>
       </c>
       <c r="D24">
         <v>1316758.647074728</v>
@@ -7274,7 +7406,7 @@
         <v>303.013831458228</v>
       </c>
       <c r="H24">
-        <v>354.8462575404954</v>
+        <v>354.8462575404953</v>
       </c>
       <c r="I24">
         <v>255311365968.7442</v>
@@ -7288,7 +7420,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>-7822728321.425638</v>
+        <v>-7822728321.425637</v>
       </c>
       <c r="C25">
         <v>0.3427806227006401</v>
@@ -7297,7 +7429,7 @@
         <v>2827255.125355358</v>
       </c>
       <c r="E25">
-        <v>6.764296946134534</v>
+        <v>6.764296946134533</v>
       </c>
       <c r="F25">
         <v>58.95979590620686</v>
@@ -7320,19 +7452,19 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>-8143979951.509536</v>
+        <v>-8143979951.509537</v>
       </c>
       <c r="C26">
         <v>0.3618112901279624</v>
       </c>
       <c r="D26">
-        <v>5050364.634940456</v>
+        <v>5050364.634940455</v>
       </c>
       <c r="E26">
         <v>7.00063943744435</v>
       </c>
       <c r="F26">
-        <v>59.10445882624351</v>
+        <v>59.10445882624352</v>
       </c>
       <c r="G26">
         <v>309.6323428486122</v>
@@ -7361,10 +7493,10 @@
         <v>8750608.12900749</v>
       </c>
       <c r="E27">
-        <v>7.199903974493821</v>
+        <v>7.199903974493822</v>
       </c>
       <c r="F27">
-        <v>59.25310871237394</v>
+        <v>59.25310871237393</v>
       </c>
       <c r="G27">
         <v>312.9526929899133</v>
@@ -7419,13 +7551,13 @@
         <v>-11107974900.39112</v>
       </c>
       <c r="C29">
-        <v>0.5239159270928404</v>
+        <v>0.5239159270928405</v>
       </c>
       <c r="D29">
         <v>24267351.59751032</v>
       </c>
       <c r="E29">
-        <v>7.706258085283417</v>
+        <v>7.706258085283418</v>
       </c>
       <c r="F29">
         <v>59.55355098422282</v>
@@ -7463,16 +7595,16 @@
         <v>59.70605380400394</v>
       </c>
       <c r="G30">
-        <v>322.9400868169403</v>
+        <v>322.9400868169404</v>
       </c>
       <c r="H30">
         <v>455.5992017711419</v>
       </c>
       <c r="I30">
-        <v>339778836564.789</v>
+        <v>339778836564.7891</v>
       </c>
       <c r="J30">
-        <v>45.88254990700625</v>
+        <v>45.88254990700624</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7483,7 +7615,7 @@
         <v>-15676617328.68547</v>
       </c>
       <c r="C31">
-        <v>0.7234289720303452</v>
+        <v>0.7234289720303454</v>
       </c>
       <c r="D31">
         <v>55777925.81529237</v>
@@ -7492,13 +7624,13 @@
         <v>8.425596049167243</v>
       </c>
       <c r="F31">
-        <v>59.8611025513615</v>
+        <v>59.86110255136149</v>
       </c>
       <c r="G31">
         <v>326.2681297428943</v>
       </c>
       <c r="H31">
-        <v>480.4306487023179</v>
+        <v>480.430648702318</v>
       </c>
       <c r="I31">
         <v>361481332218.6501</v>
@@ -7515,7 +7647,7 @@
         <v>-18491260346.521</v>
       </c>
       <c r="C32">
-        <v>0.757482643179392</v>
+        <v>0.7574826431793918</v>
       </c>
       <c r="D32">
         <v>81785801.71891767</v>
@@ -7530,7 +7662,7 @@
         <v>329.5878900784479</v>
       </c>
       <c r="H32">
-        <v>513.1965851654359</v>
+        <v>513.1965851654357</v>
       </c>
       <c r="I32">
         <v>389122395215.3195</v>
@@ -7556,13 +7688,13 @@
         <v>9.443621878223972</v>
       </c>
       <c r="F33">
-        <v>60.18009568160494</v>
+        <v>60.18009568160493</v>
       </c>
       <c r="G33">
         <v>332.8943012723827</v>
       </c>
       <c r="H33">
-        <v>547.5544004264403</v>
+        <v>547.5544004264402</v>
       </c>
       <c r="I33">
         <v>419579800304.3848</v>
@@ -7611,7 +7743,7 @@
         <v>-28043297752.30693</v>
       </c>
       <c r="C35">
-        <v>0.8448391607311723</v>
+        <v>0.8448391607311724</v>
       </c>
       <c r="D35">
         <v>163857560.0406867</v>
@@ -7629,7 +7761,7 @@
         <v>609.3765028944798</v>
       </c>
       <c r="I35">
-        <v>476288075801.0526</v>
+        <v>476288075801.0527</v>
       </c>
       <c r="J35">
         <v>46.69871476936741</v>
@@ -7643,7 +7775,7 @@
         <v>-29389654168.97364</v>
       </c>
       <c r="C36">
-        <v>0.8735295337476983</v>
+        <v>0.8735295337476984</v>
       </c>
       <c r="D36">
         <v>190164929.8976899</v>
@@ -7652,13 +7784,13 @@
         <v>11.1965721101156</v>
       </c>
       <c r="F36">
-        <v>60.68345954823191</v>
+        <v>60.68345954823192</v>
       </c>
       <c r="G36">
         <v>342.6996681709257</v>
       </c>
       <c r="H36">
-        <v>641.9005845715276</v>
+        <v>641.9005845715275</v>
       </c>
       <c r="I36">
         <v>507375763159.2856</v>
@@ -7675,7 +7807,7 @@
         <v>-30504970093.08409</v>
       </c>
       <c r="C37">
-        <v>0.9136691674995048</v>
+        <v>0.9136691674995047</v>
       </c>
       <c r="D37">
         <v>216875284.8378046</v>
@@ -7687,13 +7819,13 @@
         <v>60.85674457970134</v>
       </c>
       <c r="G37">
-        <v>345.9262838396045</v>
+        <v>345.9262838396044</v>
       </c>
       <c r="H37">
-        <v>673.6445509526698</v>
+        <v>673.6445509526699</v>
       </c>
       <c r="I37">
-        <v>538775762107.8159</v>
+        <v>538775762107.816</v>
       </c>
       <c r="J37">
         <v>47.78374812041928</v>
@@ -7707,7 +7839,7 @@
         <v>-30861569789.55967</v>
       </c>
       <c r="C38">
-        <v>0.9466329742071649</v>
+        <v>0.9466329742071647</v>
       </c>
       <c r="D38">
         <v>246208114.7768646</v>
@@ -7716,19 +7848,19 @@
         <v>12.34668778440584</v>
       </c>
       <c r="F38">
-        <v>61.0311932011368</v>
+        <v>61.03119320113681</v>
       </c>
       <c r="G38">
         <v>349.1322197979758</v>
       </c>
       <c r="H38">
-        <v>707.7423314833529</v>
+        <v>707.7423314833528</v>
       </c>
       <c r="I38">
         <v>572860076757.4924</v>
       </c>
       <c r="J38">
-        <v>47.74940128997481</v>
+        <v>47.74940128997482</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -7739,7 +7871,7 @@
         <v>-32164157327.002</v>
       </c>
       <c r="C39">
-        <v>0.9642953374947782</v>
+        <v>0.9642953374947781</v>
       </c>
       <c r="D39">
         <v>275274346.2522683</v>
@@ -7748,7 +7880,7 @@
         <v>12.89112391333453</v>
       </c>
       <c r="F39">
-        <v>61.20467165828871</v>
+        <v>61.2046716582887</v>
       </c>
       <c r="G39">
         <v>352.3175581179585</v>
@@ -7771,10 +7903,10 @@
         <v>-34438598728.54832</v>
       </c>
       <c r="C40">
-        <v>0.9826108682023278</v>
+        <v>0.9826108682023279</v>
       </c>
       <c r="D40">
-        <v>303051966.1758977</v>
+        <v>303051966.1758978</v>
       </c>
       <c r="E40">
         <v>13.4243297377111</v>
@@ -7783,16 +7915,16 @@
         <v>61.37619707008088</v>
       </c>
       <c r="G40">
-        <v>355.4824702848272</v>
+        <v>355.4824702848273</v>
       </c>
       <c r="H40">
-        <v>786.4022354575701</v>
+        <v>786.4022354575702</v>
       </c>
       <c r="I40">
-        <v>652399093204.8817</v>
+        <v>652399093204.882</v>
       </c>
       <c r="J40">
-        <v>48.43156631546972</v>
+        <v>48.43156631546973</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -7800,7 +7932,7 @@
         <v>2019</v>
       </c>
       <c r="B41">
-        <v>-35617140850.07467</v>
+        <v>-35617140850.07468</v>
       </c>
       <c r="C41">
         <v>1.006922113286749</v>
@@ -7812,19 +7944,19 @@
         <v>13.94373931503464</v>
       </c>
       <c r="F41">
-        <v>61.54620111864075</v>
+        <v>61.54620111864076</v>
       </c>
       <c r="G41">
-        <v>358.6271332642632</v>
+        <v>358.6271332642633</v>
       </c>
       <c r="H41">
-        <v>825.2461315655553</v>
+        <v>825.2461315655554</v>
       </c>
       <c r="I41">
-        <v>694210446081.9008</v>
+        <v>694210446081.9009</v>
       </c>
       <c r="J41">
-        <v>50.10766891732897</v>
+        <v>50.10766891732898</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -7832,7 +7964,7 @@
         <v>2020</v>
       </c>
       <c r="B42">
-        <v>-34809515082.53932</v>
+        <v>-34809515082.53933</v>
       </c>
       <c r="C42">
         <v>1.048546863452171</v>
@@ -7847,10 +7979,10 @@
         <v>61.71555245496437</v>
       </c>
       <c r="G42">
-        <v>361.7517013882862</v>
+        <v>361.7517013882863</v>
       </c>
       <c r="H42">
-        <v>858.0502779784503</v>
+        <v>858.0502779784504</v>
       </c>
       <c r="I42">
         <v>731204233092.2209</v>
@@ -7898,7 +8030,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7953,22 +8085,22 @@
         <v>1994</v>
       </c>
       <c r="B2">
-        <v>54.8800010681152</v>
+        <v>54.88000106811521</v>
       </c>
       <c r="C2">
         <v>0.01777196340516677</v>
       </c>
       <c r="D2">
-        <v>4331369</v>
+        <v>4331369.000000001</v>
       </c>
       <c r="E2">
-        <v>37.9864196777344</v>
+        <v>37.98641967773441</v>
       </c>
       <c r="F2">
         <v>69.5928714312201</v>
       </c>
       <c r="G2">
-        <v>343.3296763576522</v>
+        <v>343.3296763576523</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -7977,19 +8109,19 @@
         <v>22.4</v>
       </c>
       <c r="J2">
-        <v>39933.51505648736</v>
+        <v>39933.51505648737</v>
       </c>
       <c r="K2">
         <v>3373095791123.574</v>
       </c>
       <c r="L2">
-        <v>97.24729919433589</v>
+        <v>97.24729919433591</v>
       </c>
       <c r="M2">
-        <v>0.799684291</v>
+        <v>0.7996842910000002</v>
       </c>
       <c r="N2">
-        <v>62.93174163037728</v>
+        <v>62.9317416303773</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -8006,13 +8138,13 @@
         <v>8236537.253968254</v>
       </c>
       <c r="E3">
-        <v>38.58121978921234</v>
+        <v>38.58121978921235</v>
       </c>
       <c r="F3">
         <v>69.52060904336047</v>
       </c>
       <c r="G3">
-        <v>343.7563235204485</v>
+        <v>343.7563235204486</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -8041,7 +8173,7 @@
         <v>1996</v>
       </c>
       <c r="B4">
-        <v>55.31600177901856</v>
+        <v>55.31600177901857</v>
       </c>
       <c r="C4">
         <v>0.005207354864456222</v>
@@ -8050,10 +8182,10 @@
         <v>15197490.88956415</v>
       </c>
       <c r="E4">
-        <v>38.58121978921234</v>
+        <v>38.58121978921235</v>
       </c>
       <c r="F4">
-        <v>69.42751265910601</v>
+        <v>69.42751265910603</v>
       </c>
       <c r="G4">
         <v>344.2246215550348</v>
@@ -8065,7 +8197,7 @@
         <v>22.65860333320905</v>
       </c>
       <c r="J4">
-        <v>41056.35804305966</v>
+        <v>41056.35804305967</v>
       </c>
       <c r="K4">
         <v>3485061760443.565</v>
@@ -8077,7 +8209,7 @@
         <v>2.395658288885985</v>
       </c>
       <c r="N4">
-        <v>63.17784622922347</v>
+        <v>63.17784622922348</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8085,7 +8217,7 @@
         <v>1997</v>
       </c>
       <c r="B5">
-        <v>55.42642080139173</v>
+        <v>55.42642080139172</v>
       </c>
       <c r="C5">
         <v>0.02001389232528435</v>
@@ -8094,16 +8226,16 @@
         <v>22004674.95060213</v>
       </c>
       <c r="E5">
-        <v>38.58121978921234</v>
+        <v>38.58121978921233</v>
       </c>
       <c r="F5">
-        <v>69.31389375872754</v>
+        <v>69.31389375872753</v>
       </c>
       <c r="G5">
         <v>344.7001859416674</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I5">
         <v>22.79187391812803</v>
@@ -8115,7 +8247,7 @@
         <v>3356800222245.115</v>
       </c>
       <c r="L5">
-        <v>97.24729919433589</v>
+        <v>97.24729919433588</v>
       </c>
       <c r="M5">
         <v>4.393674523900392</v>
@@ -8129,7 +8261,7 @@
         <v>1998</v>
       </c>
       <c r="B6">
-        <v>55.69384675625466</v>
+        <v>55.69384675625465</v>
       </c>
       <c r="C6">
         <v>0.03029649295893186</v>
@@ -8138,16 +8270,16 @@
         <v>28307569.75475314</v>
       </c>
       <c r="E6">
-        <v>41.1433105537367</v>
+        <v>41.14331055373669</v>
       </c>
       <c r="F6">
-        <v>69.18251661047725</v>
+        <v>69.18251661047724</v>
       </c>
       <c r="G6">
         <v>345.2173672934138</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I6">
         <v>22.94335663904186</v>
@@ -8159,13 +8291,13 @@
         <v>3221622525616.868</v>
       </c>
       <c r="L6">
-        <v>98.9115194149648</v>
+        <v>98.91151941496477</v>
       </c>
       <c r="M6">
-        <v>6.640625740094328</v>
+        <v>6.640625740094326</v>
       </c>
       <c r="N6">
-        <v>64.90407968426315</v>
+        <v>64.90407968426314</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -8176,7 +8308,7 @@
         <v>55.90949855693732</v>
       </c>
       <c r="C7">
-        <v>0.09339107545612102</v>
+        <v>0.09339107545612103</v>
       </c>
       <c r="D7">
         <v>34548257.44800904</v>
@@ -8188,10 +8320,10 @@
         <v>69.03655715737095</v>
       </c>
       <c r="G7">
-        <v>345.6968846383349</v>
+        <v>345.6968846383348</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I7">
         <v>23.11537960389482</v>
@@ -8261,43 +8393,43 @@
         <v>2001</v>
       </c>
       <c r="B9">
-        <v>56.45012707699131</v>
+        <v>56.4501270769913</v>
       </c>
       <c r="C9">
         <v>0.116531477452484</v>
       </c>
       <c r="D9">
-        <v>47058896.4729404</v>
+        <v>47058896.47294039</v>
       </c>
       <c r="E9">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F9">
-        <v>68.70287247280964</v>
+        <v>68.70287247280963</v>
       </c>
       <c r="G9">
-        <v>346.6360461653098</v>
+        <v>346.6360461653097</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I9">
         <v>23.47413571226305</v>
       </c>
       <c r="J9">
-        <v>37185.55638150233</v>
+        <v>37185.55638150232</v>
       </c>
       <c r="K9">
-        <v>3254419993673.157</v>
+        <v>3254419993673.156</v>
       </c>
       <c r="L9">
-        <v>99.00368120283439</v>
+        <v>99.00368120283437</v>
       </c>
       <c r="M9">
         <v>18.31602431074751</v>
       </c>
       <c r="N9">
-        <v>67.06628127810217</v>
+        <v>67.06628127810215</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -8305,43 +8437,43 @@
         <v>2002</v>
       </c>
       <c r="B10">
-        <v>56.80229846536376</v>
+        <v>56.80229846536377</v>
       </c>
       <c r="C10">
         <v>0.143584749892756</v>
       </c>
       <c r="D10">
-        <v>52825961.75205323</v>
+        <v>52825961.75205324</v>
       </c>
       <c r="E10">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F10">
-        <v>68.51664835126886</v>
+        <v>68.51664835126887</v>
       </c>
       <c r="G10">
-        <v>347.1452532125074</v>
+        <v>347.1452532125075</v>
       </c>
       <c r="H10">
         <v>100</v>
       </c>
       <c r="I10">
-        <v>23.64445228627764</v>
+        <v>23.64445228627765</v>
       </c>
       <c r="J10">
         <v>36446.49899074298</v>
       </c>
       <c r="K10">
-        <v>3219243881436.262</v>
+        <v>3219243881436.263</v>
       </c>
       <c r="L10">
-        <v>99.00368120283439</v>
+        <v>99.0036812028344</v>
       </c>
       <c r="M10">
         <v>23.10418733855201</v>
       </c>
       <c r="N10">
-        <v>68.33286080063881</v>
+        <v>68.33286080063883</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -8349,7 +8481,7 @@
         <v>2003</v>
       </c>
       <c r="B11">
-        <v>57.19833718393575</v>
+        <v>57.19833718393576</v>
       </c>
       <c r="C11">
         <v>0.1516558690687673</v>
@@ -8358,7 +8490,7 @@
         <v>58233237.55651569</v>
       </c>
       <c r="E11">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F11">
         <v>68.31926518409411</v>
@@ -8376,16 +8508,16 @@
         <v>36277.15332760881</v>
       </c>
       <c r="K11">
-        <v>3230112275102.748</v>
+        <v>3230112275102.749</v>
       </c>
       <c r="L11">
         <v>99.00368120283439</v>
       </c>
       <c r="M11">
-        <v>27.15313863146959</v>
+        <v>27.1531386314696</v>
       </c>
       <c r="N11">
-        <v>68.71535813405613</v>
+        <v>68.71535813405615</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -8402,10 +8534,10 @@
         <v>63294236.11899578</v>
       </c>
       <c r="E12">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F12">
-        <v>68.10692511069107</v>
+        <v>68.10692511069105</v>
       </c>
       <c r="G12">
         <v>348.0975826004524</v>
@@ -8426,10 +8558,10 @@
         <v>99.00368120283439</v>
       </c>
       <c r="M12">
-        <v>32.51864710581519</v>
+        <v>32.51864710581518</v>
       </c>
       <c r="N12">
-        <v>68.98968248826172</v>
+        <v>68.98968248826171</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -8443,7 +8575,7 @@
         <v>0.1462941526599356</v>
       </c>
       <c r="D13">
-        <v>68142612.61272998</v>
+        <v>68142612.61273</v>
       </c>
       <c r="E13">
         <v>42.7958574447496</v>
@@ -8458,7 +8590,7 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <v>24.16949013360272</v>
+        <v>24.16949013360273</v>
       </c>
       <c r="J13">
         <v>36764.35619446472</v>
@@ -8467,13 +8599,13 @@
         <v>3311242330686.141</v>
       </c>
       <c r="L13">
-        <v>99.00368120283439</v>
+        <v>99.0036812028344</v>
       </c>
       <c r="M13">
         <v>37.54416883525614</v>
       </c>
       <c r="N13">
-        <v>69.47396470638607</v>
+        <v>69.47396470638606</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -8481,7 +8613,7 @@
         <v>2006</v>
       </c>
       <c r="B14">
-        <v>58.37547626149041</v>
+        <v>58.37547626149042</v>
       </c>
       <c r="C14">
         <v>0.118323598778101</v>
@@ -8499,19 +8631,19 @@
         <v>348.7806190174486</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I14">
         <v>24.35849313430998</v>
       </c>
       <c r="J14">
-        <v>36655.39508283738</v>
+        <v>36655.39508283737</v>
       </c>
       <c r="K14">
         <v>3315567124981.967</v>
       </c>
       <c r="L14">
-        <v>99.00368120283439</v>
+        <v>99.0036812028344</v>
       </c>
       <c r="M14">
         <v>41.934857612329</v>
@@ -8525,16 +8657,16 @@
         <v>2007</v>
       </c>
       <c r="B15">
-        <v>58.70020395556109</v>
+        <v>58.70020395556108</v>
       </c>
       <c r="C15">
         <v>0.166734704861454</v>
       </c>
       <c r="D15">
-        <v>77359152.92265949</v>
+        <v>77359152.92265947</v>
       </c>
       <c r="E15">
-        <v>42.7958574447496</v>
+        <v>42.79585744474959</v>
       </c>
       <c r="F15">
         <v>67.36778999351752</v>
@@ -8543,7 +8675,7 @@
         <v>349.1072040511024</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I15">
         <v>24.5556262237338</v>
@@ -8555,13 +8687,13 @@
         <v>3316026638532.541</v>
       </c>
       <c r="L15">
-        <v>99.00368120283439</v>
+        <v>99.00368120283436</v>
       </c>
       <c r="M15">
         <v>46.36094857337978</v>
       </c>
       <c r="N15">
-        <v>69.56041712522416</v>
+        <v>69.56041712522415</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -8584,7 +8716,7 @@
         <v>67.0859290711419</v>
       </c>
       <c r="G16">
-        <v>349.4044360452405</v>
+        <v>349.4044360452406</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -8599,10 +8731,10 @@
         <v>3376246721909.104</v>
       </c>
       <c r="L16">
-        <v>99.00368120283439</v>
+        <v>99.0036812028344</v>
       </c>
       <c r="M16">
-        <v>50.22869920513873</v>
+        <v>50.22869920513874</v>
       </c>
       <c r="N16">
         <v>70.26145846397984</v>
@@ -8613,16 +8745,16 @@
         <v>2009</v>
       </c>
       <c r="B17">
-        <v>59.36769158317793</v>
+        <v>59.36769158317794</v>
       </c>
       <c r="C17">
         <v>0.2116680874607668</v>
       </c>
       <c r="D17">
-        <v>86254896.1555064</v>
+        <v>86254896.15550643</v>
       </c>
       <c r="E17">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F17">
         <v>66.77946682813743</v>
@@ -8640,13 +8772,13 @@
         <v>37543.95731707489</v>
       </c>
       <c r="K17">
-        <v>3466574051271.615</v>
+        <v>3466574051271.616</v>
       </c>
       <c r="L17">
         <v>99.00368120283439</v>
       </c>
       <c r="M17">
-        <v>53.8437582897822</v>
+        <v>53.84375828978221</v>
       </c>
       <c r="N17">
         <v>71.91070646367305</v>
@@ -8663,10 +8795,10 @@
         <v>0.2011458559533597</v>
       </c>
       <c r="D18">
-        <v>90980153.05902502</v>
+        <v>90980153.05902505</v>
       </c>
       <c r="E18">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F18">
         <v>66.44358674938312</v>
@@ -8681,7 +8813,7 @@
         <v>25.19033969229163</v>
       </c>
       <c r="J18">
-        <v>38491.27397298593</v>
+        <v>38491.27397298594</v>
       </c>
       <c r="K18">
         <v>3583252367363.005</v>
@@ -8725,13 +8857,13 @@
         <v>25.49750699230371</v>
       </c>
       <c r="J19">
-        <v>39778.89784844193</v>
+        <v>39778.89784844192</v>
       </c>
       <c r="K19">
         <v>3736587082934.304</v>
       </c>
       <c r="L19">
-        <v>99.00368120283439</v>
+        <v>99.00368120283437</v>
       </c>
       <c r="M19">
         <v>59.7241707641647</v>
@@ -8745,7 +8877,7 @@
         <v>2012</v>
       </c>
       <c r="B20">
-        <v>60.44976263466996</v>
+        <v>60.44976263466995</v>
       </c>
       <c r="C20">
         <v>0.1537756258375925</v>
@@ -8775,7 +8907,7 @@
         <v>3876508982088.452</v>
       </c>
       <c r="L20">
-        <v>99.00368120283439</v>
+        <v>99.0036812028344</v>
       </c>
       <c r="M20">
         <v>62.16586401521015</v>
@@ -8798,7 +8930,7 @@
         <v>107385034.951232</v>
       </c>
       <c r="E21">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F21">
         <v>65.26040378629089</v>
@@ -8819,7 +8951,7 @@
         <v>3899505610320.882</v>
       </c>
       <c r="L21">
-        <v>99.00368120283439</v>
+        <v>99.00368120283437</v>
       </c>
       <c r="M21">
         <v>65.34041792128895</v>
@@ -8842,7 +8974,7 @@
         <v>113462847.6281393</v>
       </c>
       <c r="E22">
-        <v>42.7958574447496</v>
+        <v>42.79585744474959</v>
       </c>
       <c r="F22">
         <v>64.81586022636898</v>
@@ -8863,13 +8995,13 @@
         <v>3887282159545.161</v>
       </c>
       <c r="L22">
-        <v>99.00368120283439</v>
+        <v>99.00368120283437</v>
       </c>
       <c r="M22">
         <v>68.20238276406126</v>
       </c>
       <c r="N22">
-        <v>70.88402134881488</v>
+        <v>70.88402134881487</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -8886,7 +9018,7 @@
         <v>119075790.7474607</v>
       </c>
       <c r="E23">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F23">
         <v>64.36005251073078</v>
@@ -8907,10 +9039,10 @@
         <v>3823365007187.283</v>
       </c>
       <c r="L23">
-        <v>99.00368120283439</v>
+        <v>99.00368120283437</v>
       </c>
       <c r="M23">
-        <v>70.92628764900094</v>
+        <v>70.92628764900093</v>
       </c>
       <c r="N23">
         <v>69.79553086310989</v>
@@ -8951,13 +9083,13 @@
         <v>3811237402421.041</v>
       </c>
       <c r="L24">
-        <v>99.00368120283439</v>
+        <v>99.00368120283437</v>
       </c>
       <c r="M24">
-        <v>73.55465441363349</v>
+        <v>73.55465441363347</v>
       </c>
       <c r="N24">
-        <v>69.8870573141604</v>
+        <v>69.88705731416039</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -8968,16 +9100,16 @@
         <v>61.7444282500995</v>
       </c>
       <c r="C25">
-        <v>0.2707538528540086</v>
+        <v>0.2707538528540087</v>
       </c>
       <c r="D25">
         <v>130349459.0562647</v>
       </c>
       <c r="E25">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F25">
-        <v>63.45511200188127</v>
+        <v>63.45511200188129</v>
       </c>
       <c r="G25">
         <v>349.4564867719216</v>
@@ -8986,22 +9118,22 @@
         <v>100</v>
       </c>
       <c r="I25">
-        <v>27.96178518407413</v>
+        <v>27.96178518407414</v>
       </c>
       <c r="J25">
         <v>39766.41421505847</v>
       </c>
       <c r="K25">
-        <v>3792358086813.448</v>
+        <v>3792358086813.449</v>
       </c>
       <c r="L25">
-        <v>99.00368120283439</v>
+        <v>99.0036812028344</v>
       </c>
       <c r="M25">
-        <v>75.68342680799661</v>
+        <v>75.68342680799663</v>
       </c>
       <c r="N25">
-        <v>69.53577556669734</v>
+        <v>69.53577556669735</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -9018,10 +9150,10 @@
         <v>136109775.3061418</v>
       </c>
       <c r="E26">
-        <v>42.7958574447496</v>
+        <v>42.79585744474961</v>
       </c>
       <c r="F26">
-        <v>63.02145049538193</v>
+        <v>63.02145049538194</v>
       </c>
       <c r="G26">
         <v>349.2759064209239</v>
@@ -9030,22 +9162,22 @@
         <v>100</v>
       </c>
       <c r="I26">
-        <v>28.39892266480522</v>
+        <v>28.39892266480523</v>
       </c>
       <c r="J26">
-        <v>39761.84330534075</v>
+        <v>39761.84330534076</v>
       </c>
       <c r="K26">
         <v>3787128333485.836</v>
       </c>
       <c r="L26">
-        <v>99.00368120283439</v>
+        <v>99.00368120283441</v>
       </c>
       <c r="M26">
-        <v>77.49754522515018</v>
+        <v>77.49754522515019</v>
       </c>
       <c r="N26">
-        <v>69.43251929106526</v>
+        <v>69.43251929106528</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -9068,7 +9200,7 @@
         <v>62.60574458557664</v>
       </c>
       <c r="G27">
-        <v>349.0608868149505</v>
+        <v>349.0608868149504</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -9083,10 +9215,10 @@
         <v>3790403247240.404</v>
       </c>
       <c r="L27">
-        <v>99.00368120283439</v>
+        <v>99.0036812028344</v>
       </c>
       <c r="M27">
-        <v>79.25823829366254</v>
+        <v>79.25823829366256</v>
       </c>
       <c r="N27">
         <v>69.41674282423787</v>
@@ -9134,6 +9266,50 @@
       </c>
       <c r="N28">
         <v>69.46539977114418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29">
+        <v>61.65312641691467</v>
+      </c>
+      <c r="C29">
+        <v>0.6211615472697097</v>
+      </c>
+      <c r="D29">
+        <v>154738371.6240632</v>
+      </c>
+      <c r="E29">
+        <v>42.79585744472278</v>
+      </c>
+      <c r="F29">
+        <v>61.8318497052128</v>
+      </c>
+      <c r="G29">
+        <v>348.2838337423613</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>27.81369566078501</v>
+      </c>
+      <c r="J29">
+        <v>39639.92171247654</v>
+      </c>
+      <c r="K29">
+        <v>3768631471004.503</v>
+      </c>
+      <c r="L29">
+        <v>99.00368120284418</v>
+      </c>
+      <c r="M29">
+        <v>80.64737061050936</v>
+      </c>
+      <c r="N29">
+        <v>69.71535035502967</v>
       </c>
     </row>
   </sheetData>
@@ -9189,22 +9365,22 @@
         <v>10.38772838052267</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.501527275338448E-18</v>
       </c>
       <c r="E2">
-        <v>68.2333286892832</v>
+        <v>68.23332868928321</v>
       </c>
       <c r="F2">
         <v>3602.902985074627</v>
       </c>
       <c r="G2">
-        <v>4928.13911785754</v>
+        <v>4928.139117857541</v>
       </c>
       <c r="H2">
         <v>7155338912.903522</v>
       </c>
       <c r="I2">
-        <v>59.89965055509169</v>
+        <v>59.8996505550917</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9218,7 +9394,7 @@
         <v>11.05235819235241</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.580498229875884E-17</v>
       </c>
       <c r="E3">
         <v>68.63043610402788</v>
@@ -9227,13 +9403,13 @@
         <v>3692.072714317858</v>
       </c>
       <c r="G3">
-        <v>5264.042062266155</v>
+        <v>5264.042062266156</v>
       </c>
       <c r="H3">
         <v>7642148150.500759</v>
       </c>
       <c r="I3">
-        <v>60.50606220347918</v>
+        <v>60.50606220347919</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9241,28 +9417,28 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>-817890946.2743644</v>
+        <v>-817890946.2743646</v>
       </c>
       <c r="C4">
         <v>10.68427786189904</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.541755592755504E-17</v>
       </c>
       <c r="E4">
-        <v>68.92792110672615</v>
+        <v>68.92792110672616</v>
       </c>
       <c r="F4">
-        <v>3778.896908591952</v>
+        <v>3778.896908591953</v>
       </c>
       <c r="G4">
         <v>5537.969599535328</v>
       </c>
       <c r="H4">
-        <v>8126939769.139263</v>
+        <v>8126939769.139264</v>
       </c>
       <c r="I4">
-        <v>61.81918237142892</v>
+        <v>61.81918237142894</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9270,28 +9446,28 @@
         <v>1983</v>
       </c>
       <c r="B5">
-        <v>-687911285.5601901</v>
+        <v>-687911285.56019</v>
       </c>
       <c r="C5">
         <v>9.590904168434047</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4.938220900635122E-16</v>
       </c>
       <c r="E5">
-        <v>69.15102245926134</v>
+        <v>69.15102245926133</v>
       </c>
       <c r="F5">
         <v>3835.410645778871</v>
       </c>
       <c r="G5">
-        <v>5815.928017992337</v>
+        <v>5815.928017992336</v>
       </c>
       <c r="H5">
-        <v>8521053860.863684</v>
+        <v>8521053860.863685</v>
       </c>
       <c r="I5">
-        <v>60.6931525566241</v>
+        <v>60.69315255662409</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9299,28 +9475,28 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>-652292012.7538267</v>
+        <v>-652292012.7538266</v>
       </c>
       <c r="C6">
-        <v>8.979000375248287</v>
+        <v>8.979000375248283</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1.113322435594787E-15</v>
       </c>
       <c r="E6">
         <v>69.34160899586493</v>
       </c>
       <c r="F6">
-        <v>3884.896749064233</v>
+        <v>3884.896749064232</v>
       </c>
       <c r="G6">
-        <v>6104.112266952456</v>
+        <v>6104.112266952455</v>
       </c>
       <c r="H6">
-        <v>8964410443.943081</v>
+        <v>8964410443.943079</v>
       </c>
       <c r="I6">
-        <v>60.03225466326707</v>
+        <v>60.03225466326705</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9328,25 +9504,25 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>-606534415.5231497</v>
+        <v>-606534415.5231496</v>
       </c>
       <c r="C7">
         <v>8.378379634438359</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-2.553840758818616E-15</v>
       </c>
       <c r="E7">
-        <v>69.53013090614469</v>
+        <v>69.53013090614468</v>
       </c>
       <c r="F7">
         <v>3918.837567325126</v>
       </c>
       <c r="G7">
-        <v>6257.505426977814</v>
+        <v>6257.505426977813</v>
       </c>
       <c r="H7">
-        <v>9335976945.116425</v>
+        <v>9335976945.116423</v>
       </c>
       <c r="I7">
         <v>63.14080288183875</v>
@@ -9363,7 +9539,7 @@
         <v>8.499562314624752</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.932229124817038E-14</v>
       </c>
       <c r="E8">
         <v>69.72896494454058</v>
@@ -9375,7 +9551,7 @@
         <v>6337.350531006057</v>
       </c>
       <c r="H8">
-        <v>9582861888.550417</v>
+        <v>9582861888.550415</v>
       </c>
       <c r="I8">
         <v>62.61728866032323</v>
@@ -9389,10 +9565,10 @@
         <v>-437710708.1180499</v>
       </c>
       <c r="C9">
-        <v>9.154317383100679</v>
+        <v>9.154317383100677</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-1.896063998484124E-13</v>
       </c>
       <c r="E9">
         <v>69.95302497829961</v>
@@ -9404,10 +9580,10 @@
         <v>6492.896970466735</v>
       </c>
       <c r="H9">
-        <v>9930390474.889807</v>
+        <v>9930390474.889805</v>
       </c>
       <c r="I9">
-        <v>62.85623332857661</v>
+        <v>62.85623332857659</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9418,16 +9594,16 @@
         <v>-179714925.6311289</v>
       </c>
       <c r="C10">
-        <v>9.761469914531951</v>
+        <v>9.761469914531952</v>
       </c>
       <c r="D10">
-        <v>2280.674291153501</v>
+        <v>2280.674291153502</v>
       </c>
       <c r="E10">
         <v>70.19856889806029</v>
       </c>
       <c r="F10">
-        <v>4000.601873299452</v>
+        <v>4000.601873299453</v>
       </c>
       <c r="G10">
         <v>6772.900113847549</v>
@@ -9436,7 +9612,7 @@
         <v>10434363612.55961</v>
       </c>
       <c r="I10">
-        <v>61.54086573102785</v>
+        <v>61.54086573102786</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9447,16 +9623,16 @@
         <v>100181051.7876106</v>
       </c>
       <c r="C11">
-        <v>9.731509592298121</v>
+        <v>9.731509592298123</v>
       </c>
       <c r="D11">
-        <v>6493.856221407389</v>
+        <v>6493.85622140739</v>
       </c>
       <c r="E11">
-        <v>70.44896491686936</v>
+        <v>70.44896491686937</v>
       </c>
       <c r="F11">
-        <v>4039.703038819681</v>
+        <v>4039.703038819682</v>
       </c>
       <c r="G11">
         <v>7151.661615179702</v>
@@ -9482,19 +9658,19 @@
         <v>13303.34619685368</v>
       </c>
       <c r="E12">
-        <v>70.68698450423651</v>
+        <v>70.68698450423649</v>
       </c>
       <c r="F12">
-        <v>4088.264733117415</v>
+        <v>4088.264733117414</v>
       </c>
       <c r="G12">
-        <v>7601.691806306069</v>
+        <v>7601.691806306068</v>
       </c>
       <c r="H12">
         <v>11919632145.40308</v>
       </c>
       <c r="I12">
-        <v>64.18261285275129</v>
+        <v>64.18261285275128</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9502,7 +9678,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>707601693.9456197</v>
+        <v>707601693.9456196</v>
       </c>
       <c r="C13">
         <v>10.31703616958442</v>
@@ -9511,7 +9687,7 @@
         <v>22358.15103674659</v>
       </c>
       <c r="E13">
-        <v>70.90289896794764</v>
+        <v>70.90289896794765</v>
       </c>
       <c r="F13">
         <v>4140.279252135956</v>
@@ -9523,7 +9699,7 @@
         <v>12971052197.78914</v>
       </c>
       <c r="I13">
-        <v>62.81721558182291</v>
+        <v>62.8172155818229</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9534,7 +9710,7 @@
         <v>1045163702.540484</v>
       </c>
       <c r="C14">
-        <v>9.819929690977792</v>
+        <v>9.819929690977791</v>
       </c>
       <c r="D14">
         <v>33844.59298526579</v>
@@ -9552,7 +9728,7 @@
         <v>14131871098.29017</v>
       </c>
       <c r="I14">
-        <v>62.46169933655361</v>
+        <v>62.4616993365536</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9563,10 +9739,10 @@
         <v>1312362516.115425</v>
       </c>
       <c r="C15">
-        <v>9.660911117150247</v>
+        <v>9.660911117150246</v>
       </c>
       <c r="D15">
-        <v>49261.05428961118</v>
+        <v>49261.05428961117</v>
       </c>
       <c r="E15">
         <v>71.27092638292676</v>
@@ -9575,13 +9751,13 @@
         <v>4253.040708684426</v>
       </c>
       <c r="G15">
-        <v>9575.006418036213</v>
+        <v>9575.006418036211</v>
       </c>
       <c r="H15">
         <v>15485499581.362</v>
       </c>
       <c r="I15">
-        <v>62.00753448369179</v>
+        <v>62.0075344836918</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9589,7 +9765,7 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>1968916400.997522</v>
+        <v>1968916400.997523</v>
       </c>
       <c r="C16">
         <v>9.79967177661208</v>
@@ -9598,7 +9774,7 @@
         <v>67317.51460668308</v>
       </c>
       <c r="E16">
-        <v>71.42972130481625</v>
+        <v>71.42972130481624</v>
       </c>
       <c r="F16">
         <v>4313.781455697557</v>
@@ -9627,7 +9803,7 @@
         <v>88593.79967601695</v>
       </c>
       <c r="E17">
-        <v>71.57784232783699</v>
+        <v>71.577842327837</v>
       </c>
       <c r="F17">
         <v>4377.51250832132</v>
@@ -9639,7 +9815,7 @@
         <v>18826265019.07761</v>
       </c>
       <c r="I17">
-        <v>61.61832443780616</v>
+        <v>61.61832443780617</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9659,7 +9835,7 @@
         <v>71.70756403232016</v>
       </c>
       <c r="F18">
-        <v>4447.624094184493</v>
+        <v>4447.624094184494</v>
       </c>
       <c r="G18">
         <v>12350.07207747351</v>
@@ -9668,7 +9844,7 @@
         <v>20654923791.93872</v>
       </c>
       <c r="I18">
-        <v>62.07853748641156</v>
+        <v>62.07853748641157</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9685,7 +9861,7 @@
         <v>173229.7980700622</v>
       </c>
       <c r="E19">
-        <v>71.83182620874901</v>
+        <v>71.83182620874902</v>
       </c>
       <c r="F19">
         <v>4521.231680815152</v>
@@ -9755,7 +9931,7 @@
         <v>24613300628.60658</v>
       </c>
       <c r="I21">
-        <v>63.06928086699373</v>
+        <v>63.06928086699372</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9763,7 +9939,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>5983704875.642545</v>
+        <v>5983704875.642544</v>
       </c>
       <c r="C22">
         <v>11.20818970650754</v>
@@ -9775,13 +9951,13 @@
         <v>72.248065280646</v>
       </c>
       <c r="F22">
-        <v>4740.790142339132</v>
+        <v>4740.790142339131</v>
       </c>
       <c r="G22">
         <v>14649.60562224661</v>
       </c>
       <c r="H22">
-        <v>25963508956.61614</v>
+        <v>25963508956.61613</v>
       </c>
       <c r="I22">
         <v>60.66451974372163</v>
@@ -9801,7 +9977,7 @@
         <v>641707.2313860924</v>
       </c>
       <c r="E23">
-        <v>72.38106870031348</v>
+        <v>72.38106870031346</v>
       </c>
       <c r="F23">
         <v>4813.147426043226</v>
@@ -9821,7 +9997,7 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>6943472921.710457</v>
+        <v>6943472921.710456</v>
       </c>
       <c r="C24">
         <v>11.35837618234592</v>
@@ -9830,10 +10006,10 @@
         <v>796568.3871449694</v>
       </c>
       <c r="E24">
-        <v>72.50157566822061</v>
+        <v>72.50157566822062</v>
       </c>
       <c r="F24">
-        <v>4879.694917352072</v>
+        <v>4879.694917352071</v>
       </c>
       <c r="G24">
         <v>15351.68877878435</v>
@@ -9850,7 +10026,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>7893093690.161848</v>
+        <v>7893093690.161849</v>
       </c>
       <c r="C25">
         <v>11.64319125470304</v>
@@ -9859,7 +10035,7 @@
         <v>950377.9704099406</v>
       </c>
       <c r="E25">
-        <v>72.61659798110347</v>
+        <v>72.61659798110348</v>
       </c>
       <c r="F25">
         <v>4931.479769498702</v>
@@ -9888,7 +10064,7 @@
         <v>1111272.799257534</v>
       </c>
       <c r="E26">
-        <v>72.73428088092521</v>
+        <v>72.7342808809252</v>
       </c>
       <c r="F26">
         <v>4981.706382863919</v>
@@ -9917,10 +10093,10 @@
         <v>1277369.41666526</v>
       </c>
       <c r="E27">
-        <v>72.85882900133507</v>
+        <v>72.85882900133505</v>
       </c>
       <c r="F27">
-        <v>5034.304518984587</v>
+        <v>5034.304518984586</v>
       </c>
       <c r="G27">
         <v>16871.78205764934</v>
@@ -9929,7 +10105,7 @@
         <v>32591543908.29739</v>
       </c>
       <c r="I27">
-        <v>64.07318437592549</v>
+        <v>64.07318437592548</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -9946,7 +10122,7 @@
         <v>1448562.988529542</v>
       </c>
       <c r="E28">
-        <v>72.99315895796153</v>
+        <v>72.99315895796151</v>
       </c>
       <c r="F28">
         <v>5089.329971837844</v>
@@ -9955,7 +10131,7 @@
         <v>17582.77949495827</v>
       </c>
       <c r="H28">
-        <v>34222901621.69694</v>
+        <v>34222901621.69693</v>
       </c>
       <c r="I28">
         <v>64.87685404905513</v>
@@ -9981,7 +10157,7 @@
         <v>5151.013205319096</v>
       </c>
       <c r="G29">
-        <v>18473.60203886363</v>
+        <v>18473.60203886364</v>
       </c>
       <c r="H29">
         <v>36213813671.78146</v>
@@ -10007,7 +10183,7 @@
         <v>73.30928922305654</v>
       </c>
       <c r="F30">
-        <v>5220.721082191487</v>
+        <v>5220.721082191488</v>
       </c>
       <c r="G30">
         <v>19325.32238853868</v>
@@ -10036,7 +10212,7 @@
         <v>73.49446646576308</v>
       </c>
       <c r="F31">
-        <v>5293.882278321956</v>
+        <v>5293.882278321955</v>
       </c>
       <c r="G31">
         <v>20078.3731995747</v>
@@ -10091,7 +10267,7 @@
         <v>2541257.358496839</v>
       </c>
       <c r="E33">
-        <v>73.86918409497422</v>
+        <v>73.8691840949742</v>
       </c>
       <c r="F33">
         <v>5438.885047778478</v>
@@ -10100,7 +10276,7 @@
         <v>22285.45380610148</v>
       </c>
       <c r="H33">
-        <v>46468599792.20614</v>
+        <v>46468599792.20615</v>
       </c>
       <c r="I33">
         <v>69.02312362626182</v>
@@ -10120,7 +10296,7 @@
         <v>2760887.681906391</v>
       </c>
       <c r="E34">
-        <v>74.03115331551265</v>
+        <v>74.03115331551267</v>
       </c>
       <c r="F34">
         <v>5512.77944633687</v>
@@ -10129,7 +10305,7 @@
         <v>23463.79714726256</v>
       </c>
       <c r="H34">
-        <v>49648370340.86935</v>
+        <v>49648370340.86934</v>
       </c>
       <c r="I34">
         <v>69.20862704581847</v>
@@ -10152,13 +10328,13 @@
         <v>74.18101370405006</v>
       </c>
       <c r="F35">
-        <v>5586.158806952898</v>
+        <v>5586.158806952897</v>
       </c>
       <c r="G35">
         <v>24621.30283755035</v>
       </c>
       <c r="H35">
-        <v>52935725627.7122</v>
+        <v>52935725627.71219</v>
       </c>
       <c r="I35">
         <v>70.76230615872412</v>
@@ -10178,7 +10354,7 @@
         <v>3172250.510203658</v>
       </c>
       <c r="E36">
-        <v>74.32214355880146</v>
+        <v>74.32214355880144</v>
       </c>
       <c r="F36">
         <v>5657.935136284997</v>
@@ -10187,10 +10363,10 @@
         <v>25732.10951147485</v>
       </c>
       <c r="H36">
-        <v>56163572707.60169</v>
+        <v>56163572707.60168</v>
       </c>
       <c r="I36">
-        <v>70.34532579316748</v>
+        <v>70.34532579316746</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -10207,7 +10383,7 @@
         <v>3357055.680168821</v>
       </c>
       <c r="E37">
-        <v>74.4538519353065</v>
+        <v>74.45385193530649</v>
       </c>
       <c r="F37">
         <v>5728.716801070092</v>
@@ -10216,7 +10392,7 @@
         <v>26717.4788033553</v>
       </c>
       <c r="H37">
-        <v>59117366535.9265</v>
+        <v>59117366535.92649</v>
       </c>
       <c r="I37">
         <v>69.950933310914</v>
@@ -10236,7 +10412,7 @@
         <v>3538609.380759066</v>
       </c>
       <c r="E38">
-        <v>74.56618153827139</v>
+        <v>74.56618153827138</v>
       </c>
       <c r="F38">
         <v>5798.914756804919</v>
@@ -10245,7 +10421,7 @@
         <v>27688.10658329666</v>
       </c>
       <c r="H38">
-        <v>62010823638.88225</v>
+        <v>62010823638.88224</v>
       </c>
       <c r="I38">
         <v>70.66365925256602</v>
@@ -10256,7 +10432,7 @@
         <v>2017</v>
       </c>
       <c r="B39">
-        <v>30653359593.21056</v>
+        <v>30653359593.21055</v>
       </c>
       <c r="C39">
         <v>15.18861156932739</v>
@@ -10268,13 +10444,13 @@
         <v>74.64939152853269</v>
       </c>
       <c r="F39">
-        <v>5864.546925972781</v>
+        <v>5864.54692597278</v>
       </c>
       <c r="G39">
         <v>28742.22864924553</v>
       </c>
       <c r="H39">
-        <v>64966169640.30685</v>
+        <v>64966169640.30684</v>
       </c>
       <c r="I39">
         <v>70.34711025610673</v>
@@ -10291,19 +10467,19 @@
         <v>15.38427494968141</v>
       </c>
       <c r="D40">
-        <v>3871180.142022438</v>
+        <v>3871180.142022439</v>
       </c>
       <c r="E40">
         <v>74.69900885124268</v>
       </c>
       <c r="F40">
-        <v>5927.233959463299</v>
+        <v>5927.2339594633</v>
       </c>
       <c r="G40">
-        <v>29917.69964302631</v>
+        <v>29917.69964302632</v>
       </c>
       <c r="H40">
-        <v>68125611911.93586</v>
+        <v>68125611911.93587</v>
       </c>
       <c r="I40">
         <v>69.3553782524158</v>
@@ -10323,13 +10499,13 @@
         <v>4041883.728581103</v>
       </c>
       <c r="E41">
-        <v>74.71642000969267</v>
+        <v>74.71642000969268</v>
       </c>
       <c r="F41">
-        <v>5988.819174167283</v>
+        <v>5988.819174167284</v>
       </c>
       <c r="G41">
-        <v>31002.60676855354</v>
+        <v>31002.60676855355</v>
       </c>
       <c r="H41">
         <v>71263689365.37343</v>
@@ -10403,7 +10579,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10458,7 +10634,7 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>62.8300018310547</v>
+        <v>62.83000183105472</v>
       </c>
       <c r="C2">
         <v>-108288000000</v>
@@ -10467,34 +10643,34 @@
         <v>1.424065572679814</v>
       </c>
       <c r="E2">
-        <v>55312293</v>
+        <v>55312293.00000001</v>
       </c>
       <c r="F2">
-        <v>65.44818444609891</v>
+        <v>65.44818444609889</v>
       </c>
       <c r="G2">
-        <v>29.76942796998786</v>
+        <v>29.76942796998787</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>73.94</v>
+        <v>73.94000000000001</v>
       </c>
       <c r="J2">
-        <v>31459.1389804773</v>
+        <v>31459.13898047731</v>
       </c>
       <c r="K2">
-        <v>6757318000000</v>
+        <v>6757318000000.001</v>
       </c>
       <c r="L2">
         <v>21.61640097</v>
       </c>
       <c r="M2">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="N2">
-        <v>71.80902863255352</v>
+        <v>71.80902863255353</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -10514,7 +10690,7 @@
         <v>62438974.02564102</v>
       </c>
       <c r="F3">
-        <v>65.53139619489295</v>
+        <v>65.53139619489293</v>
       </c>
       <c r="G3">
         <v>29.94843161008315</v>
@@ -10529,7 +10705,7 @@
         <v>32174.28665833554</v>
       </c>
       <c r="K3">
-        <v>6956055435897.437</v>
+        <v>6956055435897.438</v>
       </c>
       <c r="L3">
         <v>25.96347564692308</v>
@@ -10546,16 +10722,16 @@
         <v>1999</v>
       </c>
       <c r="B4">
-        <v>63.04717879834454</v>
+        <v>63.04717879834455</v>
       </c>
       <c r="C4">
         <v>-179269560035.057</v>
       </c>
       <c r="D4">
-        <v>2.363792528959966</v>
+        <v>2.363792528959967</v>
       </c>
       <c r="E4">
-        <v>70715233.08764242</v>
+        <v>70715233.08764243</v>
       </c>
       <c r="F4">
         <v>65.62154250151789</v>
@@ -10567,19 +10743,19 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <v>73.96892199824714</v>
+        <v>73.96892199824715</v>
       </c>
       <c r="J4">
-        <v>32995.00657730908</v>
+        <v>32995.00657730909</v>
       </c>
       <c r="K4">
-        <v>7194137666958.808</v>
+        <v>7194137666958.809</v>
       </c>
       <c r="L4">
         <v>29.42894411776512</v>
       </c>
       <c r="M4">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="N4">
         <v>72.68984179443413</v>
@@ -10590,7 +10766,7 @@
         <v>2000</v>
       </c>
       <c r="B5">
-        <v>63.16923714307461</v>
+        <v>63.16923714307462</v>
       </c>
       <c r="C5">
         <v>-230597284005.5258</v>
@@ -10608,7 +10784,7 @@
         <v>30.30986798974449</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I5">
         <v>74.02851376394082</v>
@@ -10623,7 +10799,7 @@
         <v>33.10837227160719</v>
       </c>
       <c r="M5">
-        <v>0.7</v>
+        <v>0.6999999999999998</v>
       </c>
       <c r="N5">
         <v>72.81844773951202</v>
@@ -10634,43 +10810,43 @@
         <v>2001</v>
       </c>
       <c r="B6">
-        <v>63.39706051785489</v>
+        <v>63.39706051785488</v>
       </c>
       <c r="C6">
-        <v>-259280922457.6289</v>
+        <v>-259280922457.6288</v>
       </c>
       <c r="D6">
         <v>2.420418538701905</v>
       </c>
       <c r="E6">
-        <v>91626252.67271768</v>
+        <v>91626252.67271766</v>
       </c>
       <c r="F6">
-        <v>65.8117941034633</v>
+        <v>65.81179410346328</v>
       </c>
       <c r="G6">
         <v>30.48530864214125</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I6">
-        <v>74.19461078241362</v>
+        <v>74.1946107824136</v>
       </c>
       <c r="J6">
-        <v>34609.99394309728</v>
+        <v>34609.99394309727</v>
       </c>
       <c r="K6">
-        <v>7719714993014.238</v>
+        <v>7719714993014.236</v>
       </c>
       <c r="L6">
-        <v>36.6386802708265</v>
+        <v>36.63868027082649</v>
       </c>
       <c r="M6">
-        <v>0.7</v>
+        <v>0.6999999999999997</v>
       </c>
       <c r="N6">
-        <v>74.01746915996874</v>
+        <v>74.01746915996873</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -10696,22 +10872,22 @@
         <v>30.65673436647388</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I7">
         <v>74.28056308086548</v>
       </c>
       <c r="J7">
-        <v>35249.4167456307</v>
+        <v>35249.41674563069</v>
       </c>
       <c r="K7">
-        <v>7960372972491.346</v>
+        <v>7960372972491.345</v>
       </c>
       <c r="L7">
-        <v>40.81875683802266</v>
+        <v>40.81875683802265</v>
       </c>
       <c r="M7">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="N7">
         <v>74.86370124170796</v>
@@ -10734,7 +10910,7 @@
         <v>110965038.3060356</v>
       </c>
       <c r="F8">
-        <v>65.99705737062989</v>
+        <v>65.9970573706299</v>
       </c>
       <c r="G8">
         <v>30.82377527635007</v>
@@ -10743,7 +10919,7 @@
         <v>100</v>
       </c>
       <c r="I8">
-        <v>74.38654849285948</v>
+        <v>74.38654849285946</v>
       </c>
       <c r="J8">
         <v>35952.33065496634</v>
@@ -10752,10 +10928,10 @@
         <v>8213429616176.263</v>
       </c>
       <c r="L8">
-        <v>44.27930400073486</v>
+        <v>44.27930400073485</v>
       </c>
       <c r="M8">
-        <v>0.7497244100969859</v>
+        <v>0.7497244100969858</v>
       </c>
       <c r="N8">
         <v>74.60409933915189</v>
@@ -10766,10 +10942,10 @@
         <v>2004</v>
       </c>
       <c r="B9">
-        <v>64.23947787888393</v>
+        <v>64.23947787888392</v>
       </c>
       <c r="C9">
-        <v>-366584477224.1932</v>
+        <v>-366584477224.1931</v>
       </c>
       <c r="D9">
         <v>1.935033842680036</v>
@@ -10778,31 +10954,31 @@
         <v>121936286.7951844</v>
       </c>
       <c r="F9">
-        <v>66.08922731407466</v>
+        <v>66.08922731407465</v>
       </c>
       <c r="G9">
         <v>30.99240847596468</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I9">
-        <v>74.46727999852126</v>
+        <v>74.46727999852125</v>
       </c>
       <c r="J9">
-        <v>36809.82491641294</v>
+        <v>36809.82491641293</v>
       </c>
       <c r="K9">
-        <v>8491291161811.275</v>
+        <v>8491291161811.274</v>
       </c>
       <c r="L9">
         <v>47.32151962863189</v>
       </c>
       <c r="M9">
-        <v>0.7869036706892943</v>
+        <v>0.7869036706892942</v>
       </c>
       <c r="N9">
-        <v>74.1637865273611</v>
+        <v>74.16378652736108</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -10810,19 +10986,19 @@
         <v>2005</v>
       </c>
       <c r="B10">
-        <v>64.42751265301349</v>
+        <v>64.42751265301351</v>
       </c>
       <c r="C10">
-        <v>-413907258036.4107</v>
+        <v>-413907258036.4108</v>
       </c>
       <c r="D10">
-        <v>1.820987816501792</v>
+        <v>1.820987816501793</v>
       </c>
       <c r="E10">
         <v>132992890.2672597</v>
       </c>
       <c r="F10">
-        <v>66.18630991265584</v>
+        <v>66.18630991265586</v>
       </c>
       <c r="G10">
         <v>31.1631273544678</v>
@@ -10831,10 +11007,10 @@
         <v>100</v>
       </c>
       <c r="I10">
-        <v>74.56501074195842</v>
+        <v>74.56501074195843</v>
       </c>
       <c r="J10">
-        <v>37798.81348652522</v>
+        <v>37798.81348652523</v>
       </c>
       <c r="K10">
         <v>8794171251403.63</v>
@@ -10843,7 +11019,7 @@
         <v>50.11347369637125</v>
       </c>
       <c r="M10">
-        <v>0.8157198963986287</v>
+        <v>0.8157198963986289</v>
       </c>
       <c r="N10">
         <v>74.02568269055816</v>
@@ -10854,7 +11030,7 @@
         <v>2006</v>
       </c>
       <c r="B11">
-        <v>64.54121408408282</v>
+        <v>64.54121408408284</v>
       </c>
       <c r="C11">
         <v>-457472910616.04</v>
@@ -10875,7 +11051,7 @@
         <v>100</v>
       </c>
       <c r="I11">
-        <v>74.71640634460067</v>
+        <v>74.71640634460068</v>
       </c>
       <c r="J11">
         <v>38858.36621202913</v>
@@ -10884,10 +11060,10 @@
         <v>9112667768843.447</v>
       </c>
       <c r="L11">
-        <v>52.45828454662889</v>
+        <v>52.4582845466289</v>
       </c>
       <c r="M11">
-        <v>0.8386824017500555</v>
+        <v>0.8386824017500556</v>
       </c>
       <c r="N11">
         <v>73.70136842050006</v>
@@ -10901,7 +11077,7 @@
         <v>64.68601778290981</v>
       </c>
       <c r="C12">
-        <v>-486870770499.9186</v>
+        <v>-486870770499.9185</v>
       </c>
       <c r="D12">
         <v>1.924893592283968</v>
@@ -10919,16 +11095,16 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>74.9035114003413</v>
+        <v>74.90351140034129</v>
       </c>
       <c r="J12">
-        <v>39924.21263273125</v>
+        <v>39924.21263273124</v>
       </c>
       <c r="K12">
         <v>9441106873354.174</v>
       </c>
       <c r="L12">
-        <v>55.07212038583129</v>
+        <v>55.0721203858313</v>
       </c>
       <c r="M12">
         <v>0.8573880641772111</v>
@@ -10945,7 +11121,7 @@
         <v>64.8800809386442</v>
       </c>
       <c r="C13">
-        <v>-511398800317.1579</v>
+        <v>-511398800317.158</v>
       </c>
       <c r="D13">
         <v>1.96671822698228</v>
@@ -10966,7 +11142,7 @@
         <v>75.08805679708804</v>
       </c>
       <c r="J13">
-        <v>40864.7133503214</v>
+        <v>40864.71335032141</v>
       </c>
       <c r="K13">
         <v>9763360886455.576</v>
@@ -10978,7 +11154,7 @@
         <v>0.8729015054597118</v>
       </c>
       <c r="N13">
-        <v>74.61953604030172</v>
+        <v>74.61953604030174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -11004,13 +11180,13 @@
         <v>31.89279963499037</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="I14">
         <v>75.36257644539847</v>
       </c>
       <c r="J14">
-        <v>41515.09114002946</v>
+        <v>41515.09114002945</v>
       </c>
       <c r="K14">
         <v>10026511451312.77</v>
@@ -11033,7 +11209,7 @@
         <v>65.53394758106454</v>
       </c>
       <c r="C15">
-        <v>-499774381660.7325</v>
+        <v>-499774381660.7324</v>
       </c>
       <c r="D15">
         <v>1.866820945930997</v>
@@ -11045,16 +11221,16 @@
         <v>66.47620954317109</v>
       </c>
       <c r="G15">
-        <v>32.08047155852532</v>
+        <v>32.08047155852531</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I15">
-        <v>75.62387771368118</v>
+        <v>75.62387771368117</v>
       </c>
       <c r="J15">
-        <v>42211.48031657069</v>
+        <v>42211.48031657068</v>
       </c>
       <c r="K15">
         <v>10294387353991.56</v>
@@ -11063,10 +11239,10 @@
         <v>59.8378232706049</v>
       </c>
       <c r="M15">
-        <v>0.8970894773770007</v>
+        <v>0.8970894773770006</v>
       </c>
       <c r="N15">
-        <v>76.2772193576192</v>
+        <v>76.27721935761919</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -11077,7 +11253,7 @@
         <v>65.83448809171486</v>
       </c>
       <c r="C16">
-        <v>-504874225506.7313</v>
+        <v>-504874225506.7314</v>
       </c>
       <c r="D16">
         <v>1.850265582510019</v>
@@ -11089,13 +11265,13 @@
         <v>66.49935014353153</v>
       </c>
       <c r="G16">
-        <v>32.26511288532979</v>
+        <v>32.26511288532978</v>
       </c>
       <c r="H16">
         <v>100</v>
       </c>
       <c r="I16">
-        <v>75.83871697250353</v>
+        <v>75.83871697250355</v>
       </c>
       <c r="J16">
         <v>42943.20733772049</v>
@@ -11104,10 +11280,10 @@
         <v>10566022625283.7</v>
       </c>
       <c r="L16">
-        <v>60.75933210791524</v>
+        <v>60.75933210791525</v>
       </c>
       <c r="M16">
-        <v>0.9066766621228015</v>
+        <v>0.9066766621228016</v>
       </c>
       <c r="N16">
         <v>75.9014962160953</v>
@@ -11121,7 +11297,7 @@
         <v>66.11540120983427</v>
       </c>
       <c r="C17">
-        <v>-506752576672.5762</v>
+        <v>-506752576672.5763</v>
       </c>
       <c r="D17">
         <v>1.822575617135708</v>
@@ -11130,16 +11306,16 @@
         <v>209080230.5445688</v>
       </c>
       <c r="F17">
-        <v>66.50971390670989</v>
+        <v>66.50971390670991</v>
       </c>
       <c r="G17">
-        <v>32.44802318195362</v>
+        <v>32.44802318195363</v>
       </c>
       <c r="H17">
         <v>100</v>
       </c>
       <c r="I17">
-        <v>76.01208502906211</v>
+        <v>76.01208502906212</v>
       </c>
       <c r="J17">
         <v>43732.77979466112</v>
@@ -11154,7 +11330,7 @@
         <v>0.9150109881794175</v>
       </c>
       <c r="N17">
-        <v>76.16380034260708</v>
+        <v>76.16380034260709</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -11162,10 +11338,10 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>66.3349136892808</v>
+        <v>66.33491368928081</v>
       </c>
       <c r="C18">
-        <v>-501605844427.247</v>
+        <v>-501605844427.2471</v>
       </c>
       <c r="D18">
         <v>1.81295953240635</v>
@@ -11195,10 +11371,10 @@
         <v>62.81167246582772</v>
       </c>
       <c r="M18">
-        <v>0.9223139596496952</v>
+        <v>0.9223139596496953</v>
       </c>
       <c r="N18">
-        <v>75.81605357504479</v>
+        <v>75.8160535750448</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -11218,7 +11394,7 @@
         <v>229233052.5074815</v>
       </c>
       <c r="F19">
-        <v>66.49114407197918</v>
+        <v>66.49114407197916</v>
       </c>
       <c r="G19">
         <v>32.80940466097587</v>
@@ -11239,7 +11415,7 @@
         <v>63.65677611096682</v>
       </c>
       <c r="M19">
-        <v>0.9453475227263802</v>
+        <v>0.9453475227263801</v>
       </c>
       <c r="N19">
         <v>75.82754097311374</v>
@@ -11256,13 +11432,13 @@
         <v>-499440976314.0687</v>
       </c>
       <c r="D20">
-        <v>1.864123948120152</v>
+        <v>1.864123948120151</v>
       </c>
       <c r="E20">
         <v>241525257.8519442</v>
       </c>
       <c r="F20">
-        <v>66.46241545687786</v>
+        <v>66.46241545687785</v>
       </c>
       <c r="G20">
         <v>32.99040016857731</v>
@@ -11280,7 +11456,7 @@
         <v>11653061775656.22</v>
       </c>
       <c r="L20">
-        <v>64.53186559862833</v>
+        <v>64.53186559862834</v>
       </c>
       <c r="M20">
         <v>0.9657967277896811</v>
@@ -11324,7 +11500,7 @@
         <v>11941700197921.85</v>
       </c>
       <c r="L21">
-        <v>66.16959705498721</v>
+        <v>66.16959705498719</v>
       </c>
       <c r="M21">
         <v>0.9684625517680678</v>
@@ -11338,28 +11514,28 @@
         <v>2017</v>
       </c>
       <c r="B22">
-        <v>67.02127883859622</v>
+        <v>67.02127883859623</v>
       </c>
       <c r="C22">
-        <v>-499155066063.562</v>
+        <v>-499155066063.5621</v>
       </c>
       <c r="D22">
-        <v>1.919516746668596</v>
+        <v>1.919516746668597</v>
       </c>
       <c r="E22">
         <v>264668113.9061526</v>
       </c>
       <c r="F22">
-        <v>66.36886810367363</v>
+        <v>66.36886810367365</v>
       </c>
       <c r="G22">
-        <v>33.35158966469485</v>
+        <v>33.35158966469486</v>
       </c>
       <c r="H22">
         <v>100</v>
       </c>
       <c r="I22">
-        <v>76.85048944158245</v>
+        <v>76.85048944158247</v>
       </c>
       <c r="J22">
         <v>48200.25920845754</v>
@@ -11368,13 +11544,13 @@
         <v>12247119245603.63</v>
       </c>
       <c r="L22">
-        <v>67.76984455015601</v>
+        <v>67.76984455015602</v>
       </c>
       <c r="M22">
         <v>0.9860182065086799</v>
       </c>
       <c r="N22">
-        <v>77.03139272153369</v>
+        <v>77.03139272153371</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -11385,13 +11561,13 @@
         <v>67.14905466166616</v>
       </c>
       <c r="C23">
-        <v>-505201258992.1721</v>
+        <v>-505201258992.1723</v>
       </c>
       <c r="D23">
         <v>1.854952412246584</v>
       </c>
       <c r="E23">
-        <v>270845351.9253386</v>
+        <v>270845351.9253387</v>
       </c>
       <c r="F23">
         <v>66.30341311066087</v>
@@ -11403,7 +11579,7 @@
         <v>100</v>
       </c>
       <c r="I23">
-        <v>77.00493246997596</v>
+        <v>77.00493246997597</v>
       </c>
       <c r="J23">
         <v>49279.76540133791</v>
@@ -11412,13 +11588,13 @@
         <v>12582378201956.47</v>
       </c>
       <c r="L23">
-        <v>69.30200172260874</v>
+        <v>69.30200172260875</v>
       </c>
       <c r="M23">
-        <v>0.9870516497332058</v>
+        <v>0.987051649733206</v>
       </c>
       <c r="N23">
-        <v>76.73973785773181</v>
+        <v>76.73973785773182</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -11435,7 +11611,7 @@
         <v>1.82735532832701</v>
       </c>
       <c r="E24">
-        <v>276970414.3218988</v>
+        <v>276970414.3218989</v>
       </c>
       <c r="F24">
         <v>66.22672597347793</v>
@@ -11447,7 +11623,7 @@
         <v>100</v>
       </c>
       <c r="I24">
-        <v>77.1662758390124</v>
+        <v>77.16627583901241</v>
       </c>
       <c r="J24">
         <v>50421.40914907209</v>
@@ -11456,13 +11632,13 @@
         <v>12930336304292.06</v>
       </c>
       <c r="L24">
-        <v>70.75500704378187</v>
+        <v>70.75500704378186</v>
       </c>
       <c r="M24">
-        <v>0.9879863554758489</v>
+        <v>0.987986355475849</v>
       </c>
       <c r="N24">
-        <v>77.1995025991171</v>
+        <v>77.19950259911711</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -11507,6 +11683,50 @@
       </c>
       <c r="N25">
         <v>80.1364098690393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26">
+        <v>67.00052875634077</v>
+      </c>
+      <c r="C26">
+        <v>-552109483139.6633</v>
+      </c>
+      <c r="D26">
+        <v>1.469277468398076</v>
+      </c>
+      <c r="E26">
+        <v>283597019.6163054</v>
+      </c>
+      <c r="F26">
+        <v>66.04399379013765</v>
+      </c>
+      <c r="G26">
+        <v>34.08350999863622</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>76.78207161393084</v>
+      </c>
+      <c r="J26">
+        <v>51575.14829729788</v>
+      </c>
+      <c r="K26">
+        <v>13396355237463.29</v>
+      </c>
+      <c r="L26">
+        <v>73.65744631780497</v>
+      </c>
+      <c r="M26">
+        <v>0.9766958839119869</v>
+      </c>
+      <c r="N26">
+        <v>87.64818671913406</v>
       </c>
     </row>
   </sheetData>
